--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业营业利润.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业营业利润.xlsx
@@ -2006,7 +2006,7 @@
         <v>18</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.700000000000001</v>
+        <v>5.200000000000001</v>
       </c>
       <c r="AP3" t="n">
         <v>-7.2</v>
@@ -2060,7 +2060,7 @@
         <v>-3.3</v>
       </c>
       <c r="BG3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BH3" t="n">
         <v>23</v>
@@ -2150,7 +2150,7 @@
         <v>16.3</v>
       </c>
       <c r="CK3" t="n">
-        <v>101.9</v>
+        <v>29.20000000000002</v>
       </c>
       <c r="CL3" t="n">
         <v>414.9</v>
@@ -2454,7 +2454,7 @@
         <v>26.4</v>
       </c>
       <c r="H4" t="n">
-        <v>10.1</v>
+        <v>6.4</v>
       </c>
       <c r="I4" t="n">
         <v>35.9</v>
@@ -2463,7 +2463,7 @@
         <v>0.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2000000000000001</v>
+        <v>0.1000000000000002</v>
       </c>
       <c r="L4" t="n">
         <v>0.7</v>
@@ -2517,7 +2517,7 @@
         <v>17.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>35.50000000000001</v>
+        <v>33.20000000000002</v>
       </c>
       <c r="AD4" t="n">
         <v>132</v>
@@ -2589,7 +2589,7 @@
         <v>22</v>
       </c>
       <c r="BA4" t="n">
-        <v>43.69999999999999</v>
+        <v>40.19999999999997</v>
       </c>
       <c r="BB4" t="n">
         <v>171.5</v>
@@ -2634,7 +2634,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="BP4" t="n">
-        <v>226.5</v>
+        <v>210</v>
       </c>
       <c r="BQ4" t="n">
         <v>1028.1</v>
@@ -2670,7 +2670,7 @@
         <v>43.4</v>
       </c>
       <c r="CB4" t="n">
-        <v>32.5</v>
+        <v>25.60000000000002</v>
       </c>
       <c r="CC4" t="n">
         <v>961.5</v>
@@ -2778,7 +2778,7 @@
         <v>26.7</v>
       </c>
       <c r="DL4" t="n">
-        <v>142.5</v>
+        <v>105.2999999999999</v>
       </c>
       <c r="DM4" t="n">
         <v>511.2</v>
@@ -2796,7 +2796,7 @@
         <v>-15</v>
       </c>
       <c r="DR4" t="n">
-        <v>32.89999999999992</v>
+        <v>16.89999999999981</v>
       </c>
       <c r="DS4" t="n">
         <v>1305.9</v>
@@ -2805,7 +2805,7 @@
         <v>46.9</v>
       </c>
       <c r="DU4" t="n">
-        <v>2.800000000000001</v>
+        <v>1.699999999999992</v>
       </c>
       <c r="DV4" t="n">
         <v>73.40000000000001</v>
@@ -2832,7 +2832,7 @@
         <v>100.7</v>
       </c>
       <c r="ED4" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="EE4" t="n">
         <v>31.2</v>
@@ -2983,7 +2983,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28.90000000000001</v>
+        <v>12.70000000000002</v>
       </c>
       <c r="C5" t="n">
         <v>819.4</v>
@@ -2992,7 +2992,7 @@
         <v>23.8</v>
       </c>
       <c r="E5" t="n">
-        <v>67.79999999999998</v>
+        <v>29.09999999999998</v>
       </c>
       <c r="F5" t="n">
         <v>245.5</v>
@@ -3010,7 +3010,7 @@
         <v>-3.9</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="L5" t="n">
         <v>0.8</v>
@@ -3019,7 +3019,7 @@
         <v>-11.1</v>
       </c>
       <c r="N5" t="n">
-        <v>153.1</v>
+        <v>143.1</v>
       </c>
       <c r="O5" t="n">
         <v>858.4</v>
@@ -3028,7 +3028,7 @@
         <v>1.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>434.9999999999991</v>
+        <v>92.6999999999976</v>
       </c>
       <c r="R5" t="n">
         <v>22587</v>
@@ -3037,7 +3037,7 @@
         <v>16.1</v>
       </c>
       <c r="T5" t="n">
-        <v>284.7</v>
+        <v>247</v>
       </c>
       <c r="U5" t="n">
         <v>2321.5</v>
@@ -3055,7 +3055,7 @@
         <v>5.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>52.60000000000002</v>
+        <v>31.09999999999993</v>
       </c>
       <c r="AA5" t="n">
         <v>1218.2</v>
@@ -3073,7 +3073,7 @@
         <v>6.2</v>
       </c>
       <c r="AF5" t="n">
-        <v>24.99999999999996</v>
+        <v>23.29999999999995</v>
       </c>
       <c r="AG5" t="n">
         <v>181.4</v>
@@ -3082,7 +3082,7 @@
         <v>5.6</v>
       </c>
       <c r="AI5" t="n">
-        <v>417.8999999999987</v>
+        <v>54.49999999999824</v>
       </c>
       <c r="AJ5" t="n">
         <v>26652</v>
@@ -3091,7 +3091,7 @@
         <v>19.3</v>
       </c>
       <c r="AL5" t="n">
-        <v>2.600000000000001</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="AM5" t="n">
         <v>55.4</v>
@@ -3145,7 +3145,7 @@
         <v>0.1</v>
       </c>
       <c r="BD5" t="n">
-        <v>114.2</v>
+        <v>106.7</v>
       </c>
       <c r="BE5" t="n">
         <v>551.3</v>
@@ -3154,7 +3154,7 @@
         <v>0.2</v>
       </c>
       <c r="BG5" t="n">
-        <v>14.09999999999999</v>
+        <v>9.79999999999999</v>
       </c>
       <c r="BH5" t="n">
         <v>66</v>
@@ -3163,7 +3163,7 @@
         <v>31.5</v>
       </c>
       <c r="BJ5" t="n">
-        <v>524.0999999999999</v>
+        <v>459.0999999999999</v>
       </c>
       <c r="BK5" t="n">
         <v>2593.3</v>
@@ -3172,7 +3172,7 @@
         <v>3.9</v>
       </c>
       <c r="BM5" t="n">
-        <v>69.30000000000007</v>
+        <v>60.80000000000007</v>
       </c>
       <c r="BN5" t="n">
         <v>489</v>
@@ -3190,7 +3190,7 @@
         <v>16.1</v>
       </c>
       <c r="BS5" t="n">
-        <v>10.90000000000001</v>
+        <v>7.300000000000029</v>
       </c>
       <c r="BT5" t="n">
         <v>257.5</v>
@@ -3217,7 +3217,7 @@
         <v>41.2</v>
       </c>
       <c r="CB5" t="n">
-        <v>39.09999999999991</v>
+        <v>6.599999999999909</v>
       </c>
       <c r="CC5" t="n">
         <v>1264.9</v>
@@ -3226,7 +3226,7 @@
         <v>2.6</v>
       </c>
       <c r="CE5" t="n">
-        <v>50.90000000000003</v>
+        <v>43.10000000000002</v>
       </c>
       <c r="CF5" t="n">
         <v>284.2</v>
@@ -3253,7 +3253,7 @@
         <v>266.5</v>
       </c>
       <c r="CN5" t="n">
-        <v>114.8</v>
+        <v>103.4</v>
       </c>
       <c r="CO5" t="n">
         <v>518.4</v>
@@ -3271,7 +3271,7 @@
         <v>-0.3</v>
       </c>
       <c r="CT5" t="n">
-        <v>340.2</v>
+        <v>71.19999999999999</v>
       </c>
       <c r="CU5" t="n">
         <v>1434.5</v>
@@ -3280,7 +3280,7 @@
         <v>11.2</v>
       </c>
       <c r="CW5" t="n">
-        <v>23.79999999999998</v>
+        <v>9.89999999999997</v>
       </c>
       <c r="CX5" t="n">
         <v>1036.5</v>
@@ -3289,7 +3289,7 @@
         <v>10.3</v>
       </c>
       <c r="CZ5" t="n">
-        <v>55.40000000000003</v>
+        <v>54.00000000000001</v>
       </c>
       <c r="DA5" t="n">
         <v>345.9</v>
@@ -3298,7 +3298,7 @@
         <v>16.2</v>
       </c>
       <c r="DC5" t="n">
-        <v>44.09999999999991</v>
+        <v>22.90000000000001</v>
       </c>
       <c r="DD5" t="n">
         <v>845.3</v>
@@ -3343,7 +3343,7 @@
         <v>-11</v>
       </c>
       <c r="DR5" t="n">
-        <v>276.5</v>
+        <v>243.6000000000001</v>
       </c>
       <c r="DS5" t="n">
         <v>1745.2</v>
@@ -3352,7 +3352,7 @@
         <v>46.2</v>
       </c>
       <c r="DU5" t="n">
-        <v>3.699999999999999</v>
+        <v>0.8999999999999977</v>
       </c>
       <c r="DV5" t="n">
         <v>98.7</v>
@@ -3379,7 +3379,7 @@
         <v>120.1</v>
       </c>
       <c r="ED5" t="n">
-        <v>45.5</v>
+        <v>29.5</v>
       </c>
       <c r="EE5" t="n">
         <v>40.1</v>
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>91.10000000000002</v>
+        <v>62.20000000000002</v>
       </c>
       <c r="C6" t="n">
         <v>1021.1</v>
@@ -3557,7 +3557,7 @@
         <v>0.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="L6" t="n">
         <v>0.9</v>
@@ -3575,7 +3575,7 @@
         <v>2.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>3606.5</v>
+        <v>3171.500000000001</v>
       </c>
       <c r="R6" t="n">
         <v>28100.9</v>
@@ -3593,7 +3593,7 @@
         <v>36.1</v>
       </c>
       <c r="W6" t="n">
-        <v>7.900000000000009</v>
+        <v>6.300000000000018</v>
       </c>
       <c r="X6" t="n">
         <v>170.5</v>
@@ -3602,7 +3602,7 @@
         <v>20.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>219.5</v>
+        <v>166.9</v>
       </c>
       <c r="AA6" t="n">
         <v>1552.4</v>
@@ -3611,7 +3611,7 @@
         <v>15.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>27.09999999999999</v>
+        <v>26.6</v>
       </c>
       <c r="AD6" t="n">
         <v>199.7</v>
@@ -3629,7 +3629,7 @@
         <v>-5.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>4251.299999999999</v>
+        <v>3833.400000000001</v>
       </c>
       <c r="AJ6" t="n">
         <v>33088.9</v>
@@ -3638,7 +3638,7 @@
         <v>20.4</v>
       </c>
       <c r="AL6" t="n">
-        <v>11.2</v>
+        <v>8.599999999999998</v>
       </c>
       <c r="AM6" t="n">
         <v>69.90000000000001</v>
@@ -3656,7 +3656,7 @@
         <v>-158.3</v>
       </c>
       <c r="AR6" t="n">
-        <v>58.59999999999997</v>
+        <v>55.99999999999995</v>
       </c>
       <c r="AS6" t="n">
         <v>310.5</v>
@@ -3665,7 +3665,7 @@
         <v>-2.6</v>
       </c>
       <c r="AU6" t="n">
-        <v>97.10000000000002</v>
+        <v>76.80000000000003</v>
       </c>
       <c r="AV6" t="n">
         <v>589.6</v>
@@ -3674,7 +3674,7 @@
         <v>-7.8</v>
       </c>
       <c r="AX6" t="n">
-        <v>36.29999999999998</v>
+        <v>34.19999999999996</v>
       </c>
       <c r="AY6" t="n">
         <v>259.2</v>
@@ -3701,7 +3701,7 @@
         <v>1.6</v>
       </c>
       <c r="BG6" t="n">
-        <v>19.00000000000002</v>
+        <v>4.900000000000031</v>
       </c>
       <c r="BH6" t="n">
         <v>84.59999999999999</v>
@@ -3737,7 +3737,7 @@
         <v>19.6</v>
       </c>
       <c r="BS6" t="n">
-        <v>32.90000000000001</v>
+        <v>22</v>
       </c>
       <c r="BT6" t="n">
         <v>313.7</v>
@@ -3746,7 +3746,7 @@
         <v>24.8</v>
       </c>
       <c r="BV6" t="n">
-        <v>96.09999999999974</v>
+        <v>74.59999999999957</v>
       </c>
       <c r="BW6" t="n">
         <v>2133.2</v>
@@ -3755,7 +3755,7 @@
         <v>38.4</v>
       </c>
       <c r="BY6" t="n">
-        <v>94.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="BZ6" t="n">
         <v>1734.8</v>
@@ -3764,7 +3764,7 @@
         <v>41.6</v>
       </c>
       <c r="CB6" t="n">
-        <v>247.1000000000001</v>
+        <v>208.0000000000002</v>
       </c>
       <c r="CC6" t="n">
         <v>1640.8</v>
@@ -3791,7 +3791,7 @@
         <v>35.2</v>
       </c>
       <c r="CK6" t="n">
-        <v>164.4</v>
+        <v>161.5</v>
       </c>
       <c r="CL6" t="n">
         <v>858.4</v>
@@ -3809,7 +3809,7 @@
         <v>-1.1</v>
       </c>
       <c r="CQ6" t="n">
-        <v>67.90000000000003</v>
+        <v>66.90000000000009</v>
       </c>
       <c r="CR6" t="n">
         <v>466.8</v>
@@ -3827,7 +3827,7 @@
         <v>4.9</v>
       </c>
       <c r="CW6" t="n">
-        <v>177.5</v>
+        <v>153.7</v>
       </c>
       <c r="CX6" t="n">
         <v>1278.2</v>
@@ -3845,7 +3845,7 @@
         <v>12.8</v>
       </c>
       <c r="DC6" t="n">
-        <v>125.4000000000001</v>
+        <v>81.3000000000002</v>
       </c>
       <c r="DD6" t="n">
         <v>1060.3</v>
@@ -3863,7 +3863,7 @@
         <v>49.5</v>
       </c>
       <c r="DI6" t="n">
-        <v>2.699999999999998</v>
+        <v>2.199999999999998</v>
       </c>
       <c r="DJ6" t="n">
         <v>26.4</v>
@@ -3881,7 +3881,7 @@
         <v>0.1</v>
       </c>
       <c r="DO6" t="n">
-        <v>32.79999999999995</v>
+        <v>25.09999999999994</v>
       </c>
       <c r="DP6" t="n">
         <v>283.7</v>
@@ -3899,7 +3899,7 @@
         <v>45.8</v>
       </c>
       <c r="DU6" t="n">
-        <v>21.2</v>
+        <v>17.5</v>
       </c>
       <c r="DV6" t="n">
         <v>121</v>
@@ -3917,7 +3917,7 @@
         <v>6.3</v>
       </c>
       <c r="EA6" t="n">
-        <v>105.7999999999999</v>
+        <v>75.6999999999999</v>
       </c>
       <c r="EB6" t="n">
         <v>1888.9</v>
@@ -4131,7 +4131,7 @@
         <v>16.6</v>
       </c>
       <c r="T7" t="n">
-        <v>118.4999999999995</v>
+        <v>102.7999999999994</v>
       </c>
       <c r="U7" t="n">
         <v>3129</v>
@@ -4140,7 +4140,7 @@
         <v>34.8</v>
       </c>
       <c r="W7" t="n">
-        <v>22</v>
+        <v>14.09999999999999</v>
       </c>
       <c r="X7" t="n">
         <v>199.3</v>
@@ -4230,7 +4230,7 @@
         <v>15.6</v>
       </c>
       <c r="BA7" t="n">
-        <v>33.89999999999998</v>
+        <v>31.29999999999999</v>
       </c>
       <c r="BB7" t="n">
         <v>290.9</v>
@@ -4248,7 +4248,7 @@
         <v>2.4</v>
       </c>
       <c r="BG7" t="n">
-        <v>23.19999999999999</v>
+        <v>4.199999999999967</v>
       </c>
       <c r="BH7" t="n">
         <v>107</v>
@@ -4266,7 +4266,7 @@
         <v>4.8</v>
       </c>
       <c r="BM7" t="n">
-        <v>67.5</v>
+        <v>50.40000000000009</v>
       </c>
       <c r="BN7" t="n">
         <v>655.1</v>
@@ -4275,7 +4275,7 @@
         <v>6.7</v>
       </c>
       <c r="BP7" t="n">
-        <v>40.10000000000011</v>
+        <v>35.40000000000012</v>
       </c>
       <c r="BQ7" t="n">
         <v>1822.6</v>
@@ -4329,7 +4329,7 @@
         <v>3.2</v>
       </c>
       <c r="CH7" t="n">
-        <v>36.89999999999989</v>
+        <v>14.89999999999968</v>
       </c>
       <c r="CI7" t="n">
         <v>1550.5</v>
@@ -4410,7 +4410,7 @@
         <v>55.2</v>
       </c>
       <c r="DI7" t="n">
-        <v>4</v>
+        <v>1.300000000000002</v>
       </c>
       <c r="DJ7" t="n">
         <v>33.1</v>
@@ -4642,7 +4642,7 @@
         <v>13</v>
       </c>
       <c r="H8" t="n">
-        <v>60.4</v>
+        <v>60.09999999999999</v>
       </c>
       <c r="I8" t="n">
         <v>64.90000000000001</v>
@@ -4660,7 +4660,7 @@
         <v>-20</v>
       </c>
       <c r="N8" t="n">
-        <v>14.6999999999998</v>
+        <v>10.9999999999995</v>
       </c>
       <c r="O8" t="n">
         <v>1270.4</v>
@@ -4669,7 +4669,7 @@
         <v>2.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>494.9000000000005</v>
+        <v>302.4000000000005</v>
       </c>
       <c r="R8" t="n">
         <v>36412.9</v>
@@ -4678,7 +4678,7 @@
         <v>15.8</v>
       </c>
       <c r="T8" t="n">
-        <v>357.7000000000003</v>
+        <v>239.2000000000008</v>
       </c>
       <c r="U8" t="n">
         <v>3563.5</v>
@@ -4714,7 +4714,7 @@
         <v>7.7</v>
       </c>
       <c r="AF8" t="n">
-        <v>12.79999999999995</v>
+        <v>8.999999999999941</v>
       </c>
       <c r="AG8" t="n">
         <v>285.9</v>
@@ -4723,7 +4723,7 @@
         <v>3.9</v>
       </c>
       <c r="AI8" t="n">
-        <v>476.5999999999995</v>
+        <v>186.9999999999982</v>
       </c>
       <c r="AJ8" t="n">
         <v>43211.1</v>
@@ -4732,7 +4732,7 @@
         <v>19.1</v>
       </c>
       <c r="AL8" t="n">
-        <v>18</v>
+        <v>13.3</v>
       </c>
       <c r="AM8" t="n">
         <v>91.90000000000001</v>
@@ -4741,7 +4741,7 @@
         <v>25</v>
       </c>
       <c r="AO8" t="n">
-        <v>17.1</v>
+        <v>34.1</v>
       </c>
       <c r="AP8" t="n">
         <v>13.6</v>
@@ -4759,7 +4759,7 @@
         <v>2.9</v>
       </c>
       <c r="AU8" t="n">
-        <v>109.4</v>
+        <v>83.80000000000003</v>
       </c>
       <c r="AV8" t="n">
         <v>734.2</v>
@@ -4822,7 +4822,7 @@
         <v>7.2</v>
       </c>
       <c r="BP8" t="n">
-        <v>243.6999999999998</v>
+        <v>203.5999999999997</v>
       </c>
       <c r="BQ8" t="n">
         <v>2104.8</v>
@@ -4840,7 +4840,7 @@
         <v>19.4</v>
       </c>
       <c r="BV8" t="n">
-        <v>395.4000000000001</v>
+        <v>374.5999999999999</v>
       </c>
       <c r="BW8" t="n">
         <v>2874.4</v>
@@ -4849,7 +4849,7 @@
         <v>23.1</v>
       </c>
       <c r="BY8" t="n">
-        <v>333.3999999999999</v>
+        <v>302.2</v>
       </c>
       <c r="BZ8" t="n">
         <v>2363.8</v>
@@ -4876,7 +4876,7 @@
         <v>3.7</v>
       </c>
       <c r="CH8" t="n">
-        <v>59.09999999999991</v>
+        <v>22.20000000000002</v>
       </c>
       <c r="CI8" t="n">
         <v>1749</v>
@@ -4912,7 +4912,7 @@
         <v>8</v>
       </c>
       <c r="CT8" t="n">
-        <v>124.2999999999997</v>
+        <v>5.899999999999395</v>
       </c>
       <c r="CU8" t="n">
         <v>2726.2</v>
@@ -4930,7 +4930,7 @@
         <v>9.5</v>
       </c>
       <c r="CZ8" t="n">
-        <v>11.79999999999995</v>
+        <v>4.499999999999874</v>
       </c>
       <c r="DA8" t="n">
         <v>495.2</v>
@@ -4939,7 +4939,7 @@
         <v>6.7</v>
       </c>
       <c r="DC8" t="n">
-        <v>62.90000000000032</v>
+        <v>58.40000000000053</v>
       </c>
       <c r="DD8" t="n">
         <v>1317.5</v>
@@ -4948,7 +4948,7 @@
         <v>20.1</v>
       </c>
       <c r="DF8" t="n">
-        <v>328.3000000000002</v>
+        <v>252.1000000000005</v>
       </c>
       <c r="DG8" t="n">
         <v>3923.8</v>
@@ -4975,7 +4975,7 @@
         <v>4.6</v>
       </c>
       <c r="DO8" t="n">
-        <v>26</v>
+        <v>15.79999999999995</v>
       </c>
       <c r="DP8" t="n">
         <v>351.9</v>
@@ -5002,7 +5002,7 @@
         <v>10.1</v>
       </c>
       <c r="DX8" t="n">
-        <v>94.89999999999998</v>
+        <v>54.20000000000001</v>
       </c>
       <c r="DY8" t="n">
         <v>945</v>
@@ -5011,7 +5011,7 @@
         <v>6.4</v>
       </c>
       <c r="EA8" t="n">
-        <v>321.8999999999999</v>
+        <v>250.2999999999996</v>
       </c>
       <c r="EB8" t="n">
         <v>2746.5</v>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>119.3</v>
+        <v>114.7999999999999</v>
       </c>
       <c r="C9" t="n">
         <v>1459.1</v>
@@ -5180,7 +5180,7 @@
         <v>24.1</v>
       </c>
       <c r="E9" t="n">
-        <v>5.799999999999947</v>
+        <v>2.699999999999974</v>
       </c>
       <c r="F9" t="n">
         <v>506.9</v>
@@ -5198,7 +5198,7 @@
         <v>5.6</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="L9" t="n">
         <v>0.8</v>
@@ -5207,7 +5207,7 @@
         <v>-27.3</v>
       </c>
       <c r="N9" t="n">
-        <v>29.89999999999989</v>
+        <v>15.20000000000009</v>
       </c>
       <c r="O9" t="n">
         <v>1407.2</v>
@@ -5243,7 +5243,7 @@
         <v>25.3</v>
       </c>
       <c r="Z9" t="n">
-        <v>240.0999999999999</v>
+        <v>174.9999999999998</v>
       </c>
       <c r="AA9" t="n">
         <v>2256.7</v>
@@ -5252,7 +5252,7 @@
         <v>12.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>32.5</v>
+        <v>21.79999999999998</v>
       </c>
       <c r="AD9" t="n">
         <v>294.6</v>
@@ -5261,7 +5261,7 @@
         <v>4.4</v>
       </c>
       <c r="AF9" t="n">
-        <v>15.9000000000001</v>
+        <v>3.100000000000151</v>
       </c>
       <c r="AG9" t="n">
         <v>301.2</v>
@@ -5297,7 +5297,7 @@
         <v>-181.1</v>
       </c>
       <c r="AR9" t="n">
-        <v>51.69999999999999</v>
+        <v>48.5</v>
       </c>
       <c r="AS9" t="n">
         <v>497.4</v>
@@ -5315,7 +5315,7 @@
         <v>-17.1</v>
       </c>
       <c r="AX9" t="n">
-        <v>15.09999999999997</v>
+        <v>0.5999999999999694</v>
       </c>
       <c r="AY9" t="n">
         <v>325.8</v>
@@ -5324,7 +5324,7 @@
         <v>12.1</v>
       </c>
       <c r="BA9" t="n">
-        <v>2.899999999999977</v>
+        <v>0.1999999999999318</v>
       </c>
       <c r="BB9" t="n">
         <v>360.5</v>
@@ -5351,7 +5351,7 @@
         <v>7.7</v>
       </c>
       <c r="BJ9" t="n">
-        <v>491.3000000000002</v>
+        <v>389.6000000000004</v>
       </c>
       <c r="BK9" t="n">
         <v>4407.2</v>
@@ -5360,7 +5360,7 @@
         <v>-1.4</v>
       </c>
       <c r="BM9" t="n">
-        <v>62.89999999999998</v>
+        <v>33.79999999999995</v>
       </c>
       <c r="BN9" t="n">
         <v>827.7</v>
@@ -5378,7 +5378,7 @@
         <v>16.5</v>
       </c>
       <c r="BS9" t="n">
-        <v>31.29999999999995</v>
+        <v>22.2999999999999</v>
       </c>
       <c r="BT9" t="n">
         <v>421.7</v>
@@ -5405,7 +5405,7 @@
         <v>17.9</v>
       </c>
       <c r="CB9" t="n">
-        <v>299.7000000000003</v>
+        <v>202.8000000000002</v>
       </c>
       <c r="CC9" t="n">
         <v>2468.2</v>
@@ -5414,7 +5414,7 @@
         <v>4.4</v>
       </c>
       <c r="CE9" t="n">
-        <v>3.5</v>
+        <v>1.199999999999989</v>
       </c>
       <c r="CF9" t="n">
         <v>497.1</v>
@@ -5432,7 +5432,7 @@
         <v>31.6</v>
       </c>
       <c r="CK9" t="n">
-        <v>25.10000000000002</v>
+        <v>12.60000000000006</v>
       </c>
       <c r="CL9" t="n">
         <v>1427.1</v>
@@ -5441,7 +5441,7 @@
         <v>453.8</v>
       </c>
       <c r="CN9" t="n">
-        <v>24.80000000000007</v>
+        <v>21.80000000000019</v>
       </c>
       <c r="CO9" t="n">
         <v>882.8</v>
@@ -5450,7 +5450,7 @@
         <v>2.2</v>
       </c>
       <c r="CQ9" t="n">
-        <v>18.99999999999989</v>
+        <v>9.899999999999753</v>
       </c>
       <c r="CR9" t="n">
         <v>678</v>
@@ -5459,7 +5459,7 @@
         <v>7.9</v>
       </c>
       <c r="CT9" t="n">
-        <v>297.4000000000001</v>
+        <v>173.1000000000004</v>
       </c>
       <c r="CU9" t="n">
         <v>3228</v>
@@ -5477,7 +5477,7 @@
         <v>9.6</v>
       </c>
       <c r="CZ9" t="n">
-        <v>28.60000000000002</v>
+        <v>16.80000000000007</v>
       </c>
       <c r="DA9" t="n">
         <v>539.4</v>
@@ -5486,7 +5486,7 @@
         <v>0.8</v>
       </c>
       <c r="DC9" t="n">
-        <v>98.39999999999986</v>
+        <v>35.49999999999955</v>
       </c>
       <c r="DD9" t="n">
         <v>1534.8</v>
@@ -5504,7 +5504,7 @@
         <v>55.4</v>
       </c>
       <c r="DI9" t="n">
-        <v>3.599999999999994</v>
+        <v>2.399999999999991</v>
       </c>
       <c r="DJ9" t="n">
         <v>46.6</v>
@@ -5513,7 +5513,7 @@
         <v>65.8</v>
       </c>
       <c r="DL9" t="n">
-        <v>23.89999999999998</v>
+        <v>11.29999999999996</v>
       </c>
       <c r="DM9" t="n">
         <v>1102.5</v>
@@ -5522,7 +5522,7 @@
         <v>4.1</v>
       </c>
       <c r="DO9" t="n">
-        <v>49.70000000000005</v>
+        <v>23.70000000000005</v>
       </c>
       <c r="DP9" t="n">
         <v>423.4</v>
@@ -5727,7 +5727,7 @@
         <v>24.2</v>
       </c>
       <c r="E10" t="n">
-        <v>14.50000000000012</v>
+        <v>8.700000000000173</v>
       </c>
       <c r="F10" t="n">
         <v>567.8</v>
@@ -5763,7 +5763,7 @@
         <v>2.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>683.4000000000005</v>
+        <v>591.2000000000016</v>
       </c>
       <c r="R10" t="n">
         <v>45622.7</v>
@@ -5772,7 +5772,7 @@
         <v>13.7</v>
       </c>
       <c r="T10" t="n">
-        <v>374</v>
+        <v>295.5000000000005</v>
       </c>
       <c r="U10" t="n">
         <v>4453.7</v>
@@ -5781,7 +5781,7 @@
         <v>26</v>
       </c>
       <c r="W10" t="n">
-        <v>12.39999999999997</v>
+        <v>10.59999999999995</v>
       </c>
       <c r="X10" t="n">
         <v>307.8</v>
@@ -5817,7 +5817,7 @@
         <v>3.8</v>
       </c>
       <c r="AI10" t="n">
-        <v>713.9000000000024</v>
+        <v>643.2000000000053</v>
       </c>
       <c r="AJ10" t="n">
         <v>53967.1</v>
@@ -5853,7 +5853,7 @@
         <v>2.6</v>
       </c>
       <c r="AU10" t="n">
-        <v>169</v>
+        <v>105.4000000000001</v>
       </c>
       <c r="AV10" t="n">
         <v>918.4</v>
@@ -5916,7 +5916,7 @@
         <v>5.5</v>
       </c>
       <c r="BP10" t="n">
-        <v>231.7999999999997</v>
+        <v>188.2999999999992</v>
       </c>
       <c r="BQ10" t="n">
         <v>2599.7</v>
@@ -5961,7 +5961,7 @@
         <v>4.5</v>
       </c>
       <c r="CE10" t="n">
-        <v>4.799999999999947</v>
+        <v>1.299999999999947</v>
       </c>
       <c r="CF10" t="n">
         <v>545.6</v>
@@ -5970,7 +5970,7 @@
         <v>3.5</v>
       </c>
       <c r="CH10" t="n">
-        <v>238.3000000000002</v>
+        <v>212.3000000000002</v>
       </c>
       <c r="CI10" t="n">
         <v>2271.9</v>
@@ -5997,7 +5997,7 @@
         <v>2.8</v>
       </c>
       <c r="CQ10" t="n">
-        <v>23.40000000000009</v>
+        <v>4.400000000000201</v>
       </c>
       <c r="CR10" t="n">
         <v>758.2</v>
@@ -6024,7 +6024,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="CZ10" t="n">
-        <v>72.10000000000002</v>
+        <v>43.5</v>
       </c>
       <c r="DA10" t="n">
         <v>600.2</v>
@@ -6042,7 +6042,7 @@
         <v>18.7</v>
       </c>
       <c r="DF10" t="n">
-        <v>378.9000000000001</v>
+        <v>287.4000000000005</v>
       </c>
       <c r="DG10" t="n">
         <v>4912.2</v>
@@ -6060,7 +6060,7 @@
         <v>62.9</v>
       </c>
       <c r="DL10" t="n">
-        <v>28.59999999999991</v>
+        <v>4.699999999999928</v>
       </c>
       <c r="DM10" t="n">
         <v>1237.3</v>
@@ -6078,7 +6078,7 @@
         <v>-1.9</v>
       </c>
       <c r="DR10" t="n">
-        <v>87.29999999999973</v>
+        <v>14.09999999999962</v>
       </c>
       <c r="DS10" t="n">
         <v>3414.3</v>
@@ -6096,7 +6096,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="DX10" t="n">
-        <v>110.0999999999999</v>
+        <v>94.69999999999978</v>
       </c>
       <c r="DY10" t="n">
         <v>1178.5</v>
@@ -6105,7 +6105,7 @@
         <v>7.8</v>
       </c>
       <c r="EA10" t="n">
-        <v>46.00000000000017</v>
+        <v>14.00000000000017</v>
       </c>
       <c r="EB10" t="n">
         <v>3584.4</v>
@@ -6114,7 +6114,7 @@
         <v>65.7</v>
       </c>
       <c r="ED10" t="n">
-        <v>11.89999999999999</v>
+        <v>7.399999999999969</v>
       </c>
       <c r="EE10" t="n">
         <v>97.2</v>
@@ -6283,7 +6283,7 @@
         <v>10.3</v>
       </c>
       <c r="H11" t="n">
-        <v>8.200000000000003</v>
+        <v>5.800000000000011</v>
       </c>
       <c r="I11" t="n">
         <v>79.7</v>
@@ -6292,7 +6292,7 @@
         <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9000000000000001</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="L11" t="n">
         <v>0.7</v>
@@ -6301,7 +6301,7 @@
         <v>-41.7</v>
       </c>
       <c r="N11" t="n">
-        <v>26.19999999999982</v>
+        <v>10.69999999999962</v>
       </c>
       <c r="O11" t="n">
         <v>1766</v>
@@ -6310,7 +6310,7 @@
         <v>2.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>4552</v>
+        <v>3868.599999999999</v>
       </c>
       <c r="R11" t="n">
         <v>50613.9</v>
@@ -6328,7 +6328,7 @@
         <v>22.3</v>
       </c>
       <c r="W11" t="n">
-        <v>40.19999999999999</v>
+        <v>27.80000000000002</v>
       </c>
       <c r="X11" t="n">
         <v>341.8</v>
@@ -6337,7 +6337,7 @@
         <v>14.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>203.9000000000001</v>
+        <v>165.1999999999998</v>
       </c>
       <c r="AA11" t="n">
         <v>2767.9</v>
@@ -6346,7 +6346,7 @@
         <v>9.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>17.89999999999998</v>
+        <v>1.699999999999992</v>
       </c>
       <c r="AD11" t="n">
         <v>369.6</v>
@@ -6364,7 +6364,7 @@
         <v>6.2</v>
       </c>
       <c r="AI11" t="n">
-        <v>4719.900000000001</v>
+        <v>4005.999999999998</v>
       </c>
       <c r="AJ11" t="n">
         <v>59763</v>
@@ -6373,7 +6373,7 @@
         <v>14.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>8.400000000000006</v>
+        <v>3.299999999999996</v>
       </c>
       <c r="AM11" t="n">
         <v>145.8</v>
@@ -6391,7 +6391,7 @@
         <v>-228.5</v>
       </c>
       <c r="AR11" t="n">
-        <v>33.30000000000007</v>
+        <v>18.60000000000008</v>
       </c>
       <c r="AS11" t="n">
         <v>618.1</v>
@@ -6409,7 +6409,7 @@
         <v>-16.8</v>
       </c>
       <c r="AX11" t="n">
-        <v>19.19999999999999</v>
+        <v>9.799999999999958</v>
       </c>
       <c r="AY11" t="n">
         <v>376.7</v>
@@ -6418,7 +6418,7 @@
         <v>4.9</v>
       </c>
       <c r="BA11" t="n">
-        <v>13.20000000000005</v>
+        <v>10.80000000000007</v>
       </c>
       <c r="BB11" t="n">
         <v>441.7</v>
@@ -6427,7 +6427,7 @@
         <v>-0.7</v>
       </c>
       <c r="BD11" t="n">
-        <v>63.30000000000018</v>
+        <v>58.70000000000029</v>
       </c>
       <c r="BE11" t="n">
         <v>1131.3</v>
@@ -6436,7 +6436,7 @@
         <v>4.5</v>
       </c>
       <c r="BG11" t="n">
-        <v>152.1</v>
+        <v>150.5</v>
       </c>
       <c r="BH11" t="n">
         <v>209.6</v>
@@ -6445,7 +6445,7 @@
         <v>18.6</v>
       </c>
       <c r="BJ11" t="n">
-        <v>502</v>
+        <v>456.1000000000004</v>
       </c>
       <c r="BK11" t="n">
         <v>5325.8</v>
@@ -6454,7 +6454,7 @@
         <v>-3.1</v>
       </c>
       <c r="BM11" t="n">
-        <v>60.70000000000005</v>
+        <v>52.80000000000008</v>
       </c>
       <c r="BN11" t="n">
         <v>954.8</v>
@@ -6472,7 +6472,7 @@
         <v>11.1</v>
       </c>
       <c r="BS11" t="n">
-        <v>32.0999999999999</v>
+        <v>21.6999999999998</v>
       </c>
       <c r="BT11" t="n">
         <v>493.3</v>
@@ -6481,7 +6481,7 @@
         <v>14.4</v>
       </c>
       <c r="BV11" t="n">
-        <v>81.30000000000018</v>
+        <v>9.900000000000546</v>
       </c>
       <c r="BW11" t="n">
         <v>3738</v>
@@ -6499,7 +6499,7 @@
         <v>10.1</v>
       </c>
       <c r="CB11" t="n">
-        <v>99.20000000000027</v>
+        <v>43.10000000000083</v>
       </c>
       <c r="CC11" t="n">
         <v>3163.3</v>
@@ -6508,7 +6508,7 @@
         <v>4.8</v>
       </c>
       <c r="CE11" t="n">
-        <v>32.70000000000005</v>
+        <v>27.90000000000011</v>
       </c>
       <c r="CF11" t="n">
         <v>601.2</v>
@@ -6526,7 +6526,7 @@
         <v>16.1</v>
       </c>
       <c r="CK11" t="n">
-        <v>235.9</v>
+        <v>233.2</v>
       </c>
       <c r="CL11" t="n">
         <v>1827.1</v>
@@ -6535,7 +6535,7 @@
         <v>356.3</v>
       </c>
       <c r="CN11" t="n">
-        <v>72.29999999999995</v>
+        <v>68.09999999999995</v>
       </c>
       <c r="CO11" t="n">
         <v>1102.7</v>
@@ -6544,7 +6544,7 @@
         <v>3.6</v>
       </c>
       <c r="CQ11" t="n">
-        <v>89.89999999999998</v>
+        <v>66.49999999999989</v>
       </c>
       <c r="CR11" t="n">
         <v>865.2</v>
@@ -6562,7 +6562,7 @@
         <v>5.9</v>
       </c>
       <c r="CW11" t="n">
-        <v>157.0999999999999</v>
+        <v>137.6999999999999</v>
       </c>
       <c r="CX11" t="n">
         <v>2276.7</v>
@@ -6580,7 +6580,7 @@
         <v>-8</v>
       </c>
       <c r="DC11" t="n">
-        <v>60.59999999999989</v>
+        <v>38.59999999999965</v>
       </c>
       <c r="DD11" t="n">
         <v>1770.8</v>
@@ -6598,7 +6598,7 @@
         <v>49</v>
       </c>
       <c r="DI11" t="n">
-        <v>3.799999999999997</v>
+        <v>0.4999999999999933</v>
       </c>
       <c r="DJ11" t="n">
         <v>60</v>
@@ -6607,7 +6607,7 @@
         <v>46.3</v>
       </c>
       <c r="DL11" t="n">
-        <v>97.90000000000009</v>
+        <v>69.30000000000018</v>
       </c>
       <c r="DM11" t="n">
         <v>1398.5</v>
@@ -6625,7 +6625,7 @@
         <v>4.4</v>
       </c>
       <c r="DR11" t="n">
-        <v>232.4000000000001</v>
+        <v>145.1000000000004</v>
       </c>
       <c r="DS11" t="n">
         <v>3862.8</v>
@@ -6634,7 +6634,7 @@
         <v>45.5</v>
       </c>
       <c r="DU11" t="n">
-        <v>17.19999999999999</v>
+        <v>5.899999999999968</v>
       </c>
       <c r="DV11" t="n">
         <v>238.9</v>
@@ -6661,7 +6661,7 @@
         <v>53.1</v>
       </c>
       <c r="ED11" t="n">
-        <v>102.9</v>
+        <v>91.00000000000001</v>
       </c>
       <c r="EE11" t="n">
         <v>121.4</v>
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>159.6</v>
+        <v>157.6</v>
       </c>
       <c r="C12" t="n">
         <v>1928.8</v>
@@ -6821,7 +6821,7 @@
         <v>19.3</v>
       </c>
       <c r="E12" t="n">
-        <v>37.8</v>
+        <v>36.40000000000013</v>
       </c>
       <c r="F12" t="n">
         <v>737.6</v>
@@ -6848,7 +6848,7 @@
         <v>-27.3</v>
       </c>
       <c r="N12" t="n">
-        <v>50.60000000000008</v>
+        <v>24.40000000000026</v>
       </c>
       <c r="O12" t="n">
         <v>2069.3</v>
@@ -6866,7 +6866,7 @@
         <v>11.2</v>
       </c>
       <c r="T12" t="n">
-        <v>410.8000000000003</v>
+        <v>148.5000000000006</v>
       </c>
       <c r="U12" t="n">
         <v>4983.1</v>
@@ -6884,7 +6884,7 @@
         <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>252.1999999999999</v>
+        <v>48.29999999999981</v>
       </c>
       <c r="AA12" t="n">
         <v>3008.3</v>
@@ -6893,7 +6893,7 @@
         <v>10.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>20.70000000000002</v>
+        <v>2.80000000000004</v>
       </c>
       <c r="AD12" t="n">
         <v>407.8</v>
@@ -6902,7 +6902,7 @@
         <v>7</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.299999999999997</v>
+        <v>1.999999999999986</v>
       </c>
       <c r="AG12" t="n">
         <v>418.2</v>
@@ -6920,7 +6920,7 @@
         <v>13.7</v>
       </c>
       <c r="AL12" t="n">
-        <v>8.899999999999995</v>
+        <v>0.4999999999999893</v>
       </c>
       <c r="AM12" t="n">
         <v>177.1</v>
@@ -6929,7 +6929,7 @@
         <v>30.9</v>
       </c>
       <c r="AO12" t="n">
-        <v>147.6</v>
+        <v>227.1</v>
       </c>
       <c r="AP12" t="n">
         <v>-35.1</v>
@@ -6938,7 +6938,7 @@
         <v>-55.8</v>
       </c>
       <c r="AR12" t="n">
-        <v>40.99999999999993</v>
+        <v>7.699999999999861</v>
       </c>
       <c r="AS12" t="n">
         <v>688.6</v>
@@ -6965,7 +6965,7 @@
         <v>1.1</v>
       </c>
       <c r="BA12" t="n">
-        <v>42.49999999999995</v>
+        <v>29.2999999999999</v>
       </c>
       <c r="BB12" t="n">
         <v>459.7</v>
@@ -6974,7 +6974,7 @@
         <v>0.3</v>
       </c>
       <c r="BD12" t="n">
-        <v>77.39999999999981</v>
+        <v>14.09999999999962</v>
       </c>
       <c r="BE12" t="n">
         <v>1209</v>
@@ -7001,7 +7001,7 @@
         <v>-1.1</v>
       </c>
       <c r="BM12" t="n">
-        <v>212.9999999999999</v>
+        <v>152.2999999999998</v>
       </c>
       <c r="BN12" t="n">
         <v>934.8</v>
@@ -7010,7 +7010,7 @@
         <v>-3.9</v>
       </c>
       <c r="BP12" t="n">
-        <v>263.0999999999997</v>
+        <v>84.89999999999938</v>
       </c>
       <c r="BQ12" t="n">
         <v>2965.4</v>
@@ -7028,7 +7028,7 @@
         <v>13.2</v>
       </c>
       <c r="BV12" t="n">
-        <v>572.0999999999998</v>
+        <v>490.7999999999996</v>
       </c>
       <c r="BW12" t="n">
         <v>3863.8</v>
@@ -7037,7 +7037,7 @@
         <v>12.1</v>
       </c>
       <c r="BY12" t="n">
-        <v>521.2</v>
+        <v>507.6000000000001</v>
       </c>
       <c r="BZ12" t="n">
         <v>3068.1</v>
@@ -7046,7 +7046,7 @@
         <v>10.7</v>
       </c>
       <c r="CB12" t="n">
-        <v>259.6</v>
+        <v>160.3999999999997</v>
       </c>
       <c r="CC12" t="n">
         <v>3566.8</v>
@@ -7055,7 +7055,7 @@
         <v>2.7</v>
       </c>
       <c r="CE12" t="n">
-        <v>83.90000000000001</v>
+        <v>51.19999999999995</v>
       </c>
       <c r="CF12" t="n">
         <v>699.3</v>
@@ -7064,7 +7064,7 @@
         <v>4.2</v>
       </c>
       <c r="CH12" t="n">
-        <v>423.0000000000003</v>
+        <v>392.7000000000006</v>
       </c>
       <c r="CI12" t="n">
         <v>2290.6</v>
@@ -7073,7 +7073,7 @@
         <v>10.3</v>
       </c>
       <c r="CK12" t="n">
-        <v>267.4</v>
+        <v>31.49999999999997</v>
       </c>
       <c r="CL12" t="n">
         <v>1775</v>
@@ -7100,7 +7100,7 @@
         <v>10.7</v>
       </c>
       <c r="CT12" t="n">
-        <v>240.4</v>
+        <v>219.3000000000001</v>
       </c>
       <c r="CU12" t="n">
         <v>4619.3</v>
@@ -7127,7 +7127,7 @@
         <v>-8.6</v>
       </c>
       <c r="DC12" t="n">
-        <v>141.3</v>
+        <v>80.70000000000013</v>
       </c>
       <c r="DD12" t="n">
         <v>2063.6</v>
@@ -7136,7 +7136,7 @@
         <v>22.2</v>
       </c>
       <c r="DF12" t="n">
-        <v>714.4000000000001</v>
+        <v>627.8000000000002</v>
       </c>
       <c r="DG12" t="n">
         <v>5531.9</v>
@@ -7163,7 +7163,7 @@
         <v>8.4</v>
       </c>
       <c r="DO12" t="n">
-        <v>24.5</v>
+        <v>6.700000000000049</v>
       </c>
       <c r="DP12" t="n">
         <v>611.4</v>
@@ -7199,7 +7199,7 @@
         <v>7.4</v>
       </c>
       <c r="EA12" t="n">
-        <v>70</v>
+        <v>52.40000000000009</v>
       </c>
       <c r="EB12" t="n">
         <v>4137.3</v>
@@ -7377,7 +7377,7 @@
         <v>-12.2</v>
       </c>
       <c r="H13" t="n">
-        <v>5.399999999999999</v>
+        <v>3.800000000000001</v>
       </c>
       <c r="I13" t="n">
         <v>9.9</v>
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>127.9</v>
+        <v>77.29999999999993</v>
       </c>
       <c r="O13" t="n">
         <v>245.4</v>
@@ -7404,7 +7404,7 @@
         <v>-4.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>4155.099999999999</v>
+        <v>2194.799999999999</v>
       </c>
       <c r="R13" t="n">
         <v>5482.4</v>
@@ -7413,7 +7413,7 @@
         <v>-15.8</v>
       </c>
       <c r="T13" t="n">
-        <v>436.4</v>
+        <v>25.59999999999968</v>
       </c>
       <c r="U13" t="n">
         <v>488.2</v>
@@ -7440,7 +7440,7 @@
         <v>4.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>28.1</v>
+        <v>7.399999999999981</v>
       </c>
       <c r="AD13" t="n">
         <v>42.5</v>
@@ -7449,7 +7449,7 @@
         <v>10.1</v>
       </c>
       <c r="AF13" t="n">
-        <v>22.90000000000001</v>
+        <v>16.60000000000001</v>
       </c>
       <c r="AG13" t="n">
         <v>45.2</v>
@@ -7458,7 +7458,7 @@
         <v>0.9</v>
       </c>
       <c r="AI13" t="n">
-        <v>5021.699999999999</v>
+        <v>1774.999999999999</v>
       </c>
       <c r="AJ13" t="n">
         <v>6853.6</v>
@@ -7494,7 +7494,7 @@
         <v>17.5</v>
       </c>
       <c r="AU13" t="n">
-        <v>76.90000000000001</v>
+        <v>53.70000000000012</v>
       </c>
       <c r="AV13" t="n">
         <v>83.09999999999999</v>
@@ -7503,7 +7503,7 @@
         <v>-37.3</v>
       </c>
       <c r="AX13" t="n">
-        <v>38.2</v>
+        <v>37.49999999999999</v>
       </c>
       <c r="AY13" t="n">
         <v>45.5</v>
@@ -7521,7 +7521,7 @@
         <v>-3.9</v>
       </c>
       <c r="BD13" t="n">
-        <v>84.40000000000001</v>
+        <v>7.000000000000199</v>
       </c>
       <c r="BE13" t="n">
         <v>132.4</v>
@@ -7539,7 +7539,7 @@
         <v>18.3</v>
       </c>
       <c r="BJ13" t="n">
-        <v>555.5999999999999</v>
+        <v>188.5999999999999</v>
       </c>
       <c r="BK13" t="n">
         <v>498.1</v>
@@ -7557,7 +7557,7 @@
         <v>18.1</v>
       </c>
       <c r="BP13" t="n">
-        <v>288.4</v>
+        <v>25.3000000000003</v>
       </c>
       <c r="BQ13" t="n">
         <v>341.6</v>
@@ -7566,7 +7566,7 @@
         <v>-22.6</v>
       </c>
       <c r="BS13" t="n">
-        <v>60.90000000000001</v>
+        <v>33.59999999999997</v>
       </c>
       <c r="BT13" t="n">
         <v>81.8</v>
@@ -7629,7 +7629,7 @@
         <v>-4</v>
       </c>
       <c r="CN13" t="n">
-        <v>69.30000000000001</v>
+        <v>17.59999999999996</v>
       </c>
       <c r="CO13" t="n">
         <v>111.7</v>
@@ -7638,7 +7638,7 @@
         <v>-9.9</v>
       </c>
       <c r="CQ13" t="n">
-        <v>50.00000000000001</v>
+        <v>27.09999999999999</v>
       </c>
       <c r="CR13" t="n">
         <v>121.5</v>
@@ -7656,7 +7656,7 @@
         <v>-19.5</v>
       </c>
       <c r="CW13" t="n">
-        <v>188.7</v>
+        <v>121.1999999999999</v>
       </c>
       <c r="CX13" t="n">
         <v>231.3</v>
@@ -7665,7 +7665,7 @@
         <v>3</v>
       </c>
       <c r="CZ13" t="n">
-        <v>64</v>
+        <v>25.80000000000005</v>
       </c>
       <c r="DA13" t="n">
         <v>66</v>
@@ -7674,7 +7674,7 @@
         <v>-29.3</v>
       </c>
       <c r="DC13" t="n">
-        <v>189.9</v>
+        <v>48.59999999999999</v>
       </c>
       <c r="DD13" t="n">
         <v>399</v>
@@ -7692,7 +7692,7 @@
         <v>-11.1</v>
       </c>
       <c r="DI13" t="n">
-        <v>1.7</v>
+        <v>1.599999999999997</v>
       </c>
       <c r="DJ13" t="n">
         <v>8.1</v>
@@ -7701,7 +7701,7 @@
         <v>107.7</v>
       </c>
       <c r="DL13" t="n">
-        <v>82.59999999999999</v>
+        <v>19.00000000000009</v>
       </c>
       <c r="DM13" t="n">
         <v>176.6</v>
@@ -7719,7 +7719,7 @@
         <v>96.7</v>
       </c>
       <c r="DR13" t="n">
-        <v>252.4999999999999</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="DS13" t="n">
         <v>431.2</v>
@@ -7737,7 +7737,7 @@
         <v>10.6</v>
       </c>
       <c r="DX13" t="n">
-        <v>103.5</v>
+        <v>80.69999999999999</v>
       </c>
       <c r="DY13" t="n">
         <v>249.7</v>
@@ -7746,7 +7746,7 @@
         <v>11</v>
       </c>
       <c r="EA13" t="n">
-        <v>260.2</v>
+        <v>190.2</v>
       </c>
       <c r="EB13" t="n">
         <v>193.3</v>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>167.4</v>
+        <v>158.3</v>
       </c>
       <c r="C14" t="n">
         <v>446.6</v>
@@ -8077,7 +8077,7 @@
         <v>11.7</v>
       </c>
       <c r="BG14" t="n">
-        <v>15.2</v>
+        <v>9</v>
       </c>
       <c r="BH14" t="n">
         <v>29.7</v>
@@ -8194,7 +8194,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="CT14" t="n">
-        <v>370.5999999999999</v>
+        <v>193.8999999999999</v>
       </c>
       <c r="CU14" t="n">
         <v>640.6</v>
@@ -8239,7 +8239,7 @@
         <v>-2.5</v>
       </c>
       <c r="DI14" t="n">
-        <v>2.1</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="DJ14" t="n">
         <v>15.2</v>
@@ -8257,7 +8257,7 @@
         <v>21.8</v>
       </c>
       <c r="DO14" t="n">
-        <v>28.60000000000001</v>
+        <v>13.30000000000001</v>
       </c>
       <c r="DP14" t="n">
         <v>108.6</v>
@@ -8302,7 +8302,7 @@
         <v>-45.5</v>
       </c>
       <c r="ED14" t="n">
-        <v>2.4</v>
+        <v>0.100000000000001</v>
       </c>
       <c r="EE14" t="n">
         <v>40.9</v>
@@ -8462,7 +8462,7 @@
         <v>19.9</v>
       </c>
       <c r="E15" t="n">
-        <v>46.09999999999999</v>
+        <v>36.29999999999999</v>
       </c>
       <c r="F15" t="n">
         <v>144.2</v>
@@ -8471,7 +8471,7 @@
         <v>-1.2</v>
       </c>
       <c r="H15" t="n">
-        <v>7.5</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="I15" t="n">
         <v>27.1</v>
@@ -8498,7 +8498,7 @@
         <v>-4.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>285.5000000000018</v>
+        <v>36.10000000000133</v>
       </c>
       <c r="R15" t="n">
         <v>14368.4</v>
@@ -8507,7 +8507,7 @@
         <v>-4.7</v>
       </c>
       <c r="T15" t="n">
-        <v>440.8000000000002</v>
+        <v>427.1000000000003</v>
       </c>
       <c r="U15" t="n">
         <v>1315</v>
@@ -8516,7 +8516,7 @@
         <v>-15.7</v>
       </c>
       <c r="W15" t="n">
-        <v>4.999999999999986</v>
+        <v>1.999999999999986</v>
       </c>
       <c r="X15" t="n">
         <v>81.59999999999999</v>
@@ -8534,7 +8534,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>27</v>
+        <v>18.20000000000001</v>
       </c>
       <c r="AD15" t="n">
         <v>105.9</v>
@@ -8543,7 +8543,7 @@
         <v>2.2</v>
       </c>
       <c r="AF15" t="n">
-        <v>11.89999999999999</v>
+        <v>7.299999999999999</v>
       </c>
       <c r="AG15" t="n">
         <v>110.9</v>
@@ -8552,7 +8552,7 @@
         <v>16.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>286.9999999999973</v>
+        <v>111.099999999994</v>
       </c>
       <c r="AJ15" t="n">
         <v>17620.8</v>
@@ -8561,7 +8561,7 @@
         <v>-3.1</v>
       </c>
       <c r="AL15" t="n">
-        <v>13.6</v>
+        <v>7.499999999999998</v>
       </c>
       <c r="AM15" t="n">
         <v>46.8</v>
@@ -8570,7 +8570,7 @@
         <v>18.2</v>
       </c>
       <c r="AO15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AP15" t="n">
         <v>37.6</v>
@@ -8579,7 +8579,7 @@
         <v>754.5</v>
       </c>
       <c r="AR15" t="n">
-        <v>5.199999999999989</v>
+        <v>0.799999999999998</v>
       </c>
       <c r="AS15" t="n">
         <v>187.1</v>
@@ -8588,7 +8588,7 @@
         <v>24.8</v>
       </c>
       <c r="AU15" t="n">
-        <v>27.09999999999998</v>
+        <v>13.89999999999996</v>
       </c>
       <c r="AV15" t="n">
         <v>279.6</v>
@@ -8606,7 +8606,7 @@
         <v>-17.5</v>
       </c>
       <c r="BA15" t="n">
-        <v>28.90000000000001</v>
+        <v>24.10000000000001</v>
       </c>
       <c r="BB15" t="n">
         <v>117.4</v>
@@ -8615,7 +8615,7 @@
         <v>0.4</v>
       </c>
       <c r="BD15" t="n">
-        <v>94.40000000000003</v>
+        <v>78.20000000000005</v>
       </c>
       <c r="BE15" t="n">
         <v>350.8</v>
@@ -8687,7 +8687,7 @@
         <v>13.9</v>
       </c>
       <c r="CB15" t="n">
-        <v>23.7999999999999</v>
+        <v>2.199999999999882</v>
       </c>
       <c r="CC15" t="n">
         <v>882.4</v>
@@ -8705,7 +8705,7 @@
         <v>6.6</v>
       </c>
       <c r="CH15" t="n">
-        <v>56.00000000000009</v>
+        <v>34.90000000000011</v>
       </c>
       <c r="CI15" t="n">
         <v>415.7</v>
@@ -8723,7 +8723,7 @@
         <v>21.4</v>
       </c>
       <c r="CN15" t="n">
-        <v>10</v>
+        <v>0.1000000000000227</v>
       </c>
       <c r="CO15" t="n">
         <v>281.8</v>
@@ -8732,7 +8732,7 @@
         <v>3.4</v>
       </c>
       <c r="CQ15" t="n">
-        <v>61.60000000000002</v>
+        <v>34.90000000000004</v>
       </c>
       <c r="CR15" t="n">
         <v>243.1</v>
@@ -8750,7 +8750,7 @@
         <v>-13.3</v>
       </c>
       <c r="CW15" t="n">
-        <v>207.6</v>
+        <v>174.8000000000001</v>
       </c>
       <c r="CX15" t="n">
         <v>687.2</v>
@@ -8759,7 +8759,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="CZ15" t="n">
-        <v>62.09999999999999</v>
+        <v>53.4</v>
       </c>
       <c r="DA15" t="n">
         <v>156</v>
@@ -8786,7 +8786,7 @@
         <v>0.6</v>
       </c>
       <c r="DI15" t="n">
-        <v>6.600000000000001</v>
+        <v>4.500000000000002</v>
       </c>
       <c r="DJ15" t="n">
         <v>21.1</v>
@@ -8795,7 +8795,7 @@
         <v>22.7</v>
       </c>
       <c r="DL15" t="n">
-        <v>108.5</v>
+        <v>76.69999999999999</v>
       </c>
       <c r="DM15" t="n">
         <v>415.3</v>
@@ -8831,7 +8831,7 @@
         <v>15</v>
       </c>
       <c r="DX15" t="n">
-        <v>99.00000000000006</v>
+        <v>92.30000000000005</v>
       </c>
       <c r="DY15" t="n">
         <v>518.1</v>
@@ -8840,7 +8840,7 @@
         <v>18.1</v>
       </c>
       <c r="EA15" t="n">
-        <v>88.69999999999993</v>
+        <v>20.69999999999993</v>
       </c>
       <c r="EB15" t="n">
         <v>760.8</v>
@@ -9045,7 +9045,7 @@
         <v>-3.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>469.899999999996</v>
+        <v>184.3999999999942</v>
       </c>
       <c r="R16" t="n">
         <v>18923.7</v>
@@ -9063,7 +9063,7 @@
         <v>-13.4</v>
       </c>
       <c r="W16" t="n">
-        <v>8.40000000000002</v>
+        <v>3.400000000000034</v>
       </c>
       <c r="X16" t="n">
         <v>101.9</v>
@@ -9072,7 +9072,7 @@
         <v>-17.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>56</v>
+        <v>18.5</v>
       </c>
       <c r="AA16" t="n">
         <v>1258</v>
@@ -9090,7 +9090,7 @@
         <v>6</v>
       </c>
       <c r="AF16" t="n">
-        <v>34.40000000000001</v>
+        <v>22.50000000000002</v>
       </c>
       <c r="AG16" t="n">
         <v>151.5</v>
@@ -9099,7 +9099,7 @@
         <v>12.6</v>
       </c>
       <c r="AI16" t="n">
-        <v>587.3000000000011</v>
+        <v>300.3000000000038</v>
       </c>
       <c r="AJ16" t="n">
         <v>23137.7</v>
@@ -9117,7 +9117,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AO16" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AP16" t="n">
         <v>44.3</v>
@@ -9126,7 +9126,7 @@
         <v>326</v>
       </c>
       <c r="AR16" t="n">
-        <v>9.100000000000023</v>
+        <v>3.900000000000034</v>
       </c>
       <c r="AS16" t="n">
         <v>240.7</v>
@@ -9135,7 +9135,7 @@
         <v>23.4</v>
       </c>
       <c r="AU16" t="n">
-        <v>105.6</v>
+        <v>78.50000000000001</v>
       </c>
       <c r="AV16" t="n">
         <v>433.2</v>
@@ -9144,7 +9144,7 @@
         <v>3.9</v>
       </c>
       <c r="AX16" t="n">
-        <v>5.600000000000023</v>
+        <v>5.100000000000051</v>
       </c>
       <c r="AY16" t="n">
         <v>127.4</v>
@@ -9171,7 +9171,7 @@
         <v>11.6</v>
       </c>
       <c r="BG16" t="n">
-        <v>19.59999999999999</v>
+        <v>18.19999999999999</v>
       </c>
       <c r="BH16" t="n">
         <v>78.40000000000001</v>
@@ -9180,7 +9180,7 @@
         <v>15.5</v>
       </c>
       <c r="BJ16" t="n">
-        <v>90.90000000000032</v>
+        <v>10.2000000000005</v>
       </c>
       <c r="BK16" t="n">
         <v>1832.2</v>
@@ -9207,7 +9207,7 @@
         <v>-8.6</v>
       </c>
       <c r="BS16" t="n">
-        <v>13.00000000000003</v>
+        <v>11.60000000000006</v>
       </c>
       <c r="BT16" t="n">
         <v>215.4</v>
@@ -9216,7 +9216,7 @@
         <v>-13.9</v>
       </c>
       <c r="BV16" t="n">
-        <v>59.90000000000009</v>
+        <v>53.20000000000027</v>
       </c>
       <c r="BW16" t="n">
         <v>1881.3</v>
@@ -9225,7 +9225,7 @@
         <v>10.5</v>
       </c>
       <c r="BY16" t="n">
-        <v>49.90000000000009</v>
+        <v>45.9000000000002</v>
       </c>
       <c r="BZ16" t="n">
         <v>1587.5</v>
@@ -9234,7 +9234,7 @@
         <v>14.7</v>
       </c>
       <c r="CB16" t="n">
-        <v>62.20000000000016</v>
+        <v>38.40000000000026</v>
       </c>
       <c r="CC16" t="n">
         <v>1233.7</v>
@@ -9252,7 +9252,7 @@
         <v>6.5</v>
       </c>
       <c r="CH16" t="n">
-        <v>205.3</v>
+        <v>149.2999999999999</v>
       </c>
       <c r="CI16" t="n">
         <v>533</v>
@@ -9288,7 +9288,7 @@
         <v>0.1</v>
       </c>
       <c r="CT16" t="n">
-        <v>191.9999999999998</v>
+        <v>178.9999999999996</v>
       </c>
       <c r="CU16" t="n">
         <v>1241.3</v>
@@ -9360,7 +9360,7 @@
         <v>37.5</v>
       </c>
       <c r="DR16" t="n">
-        <v>364.6000000000001</v>
+        <v>334.7000000000002</v>
       </c>
       <c r="DS16" t="n">
         <v>1617.2</v>
@@ -9369,7 +9369,7 @@
         <v>12.8</v>
       </c>
       <c r="DU16" t="n">
-        <v>19.59999999999999</v>
+        <v>17.69999999999999</v>
       </c>
       <c r="DV16" t="n">
         <v>104</v>
@@ -9387,7 +9387,7 @@
         <v>17.4</v>
       </c>
       <c r="EA16" t="n">
-        <v>352.4000000000001</v>
+        <v>263.7000000000002</v>
       </c>
       <c r="EB16" t="n">
         <v>1140.4</v>
@@ -9396,7 +9396,7 @@
         <v>-23.6</v>
       </c>
       <c r="ED16" t="n">
-        <v>17.9</v>
+        <v>16.6</v>
       </c>
       <c r="EE16" t="n">
         <v>85.40000000000001</v>
@@ -9547,7 +9547,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>147.2</v>
+        <v>130.7</v>
       </c>
       <c r="C17" t="n">
         <v>984.2</v>
@@ -9556,7 +9556,7 @@
         <v>19.1</v>
       </c>
       <c r="E17" t="n">
-        <v>50.10000000000002</v>
+        <v>12.3</v>
       </c>
       <c r="F17" t="n">
         <v>291.6</v>
@@ -9565,7 +9565,7 @@
         <v>5.7</v>
       </c>
       <c r="H17" t="n">
-        <v>7.399999999999999</v>
+        <v>5.499999999999996</v>
       </c>
       <c r="I17" t="n">
         <v>44.2</v>
@@ -9574,7 +9574,7 @@
         <v>7.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="L17" t="n">
         <v>0.5</v>
@@ -9592,7 +9592,7 @@
         <v>-0.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>3971</v>
+        <v>3501.100000000004</v>
       </c>
       <c r="R17" t="n">
         <v>23860.8</v>
@@ -9610,7 +9610,7 @@
         <v>-13.9</v>
       </c>
       <c r="W17" t="n">
-        <v>32.09999999999999</v>
+        <v>23.69999999999997</v>
       </c>
       <c r="X17" t="n">
         <v>126.6</v>
@@ -9619,7 +9619,7 @@
         <v>-23.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>191.4000000000001</v>
+        <v>135.4000000000001</v>
       </c>
       <c r="AA17" t="n">
         <v>1582.3</v>
@@ -9628,7 +9628,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>29.69999999999999</v>
+        <v>24.79999999999998</v>
       </c>
       <c r="AD17" t="n">
         <v>174.7</v>
@@ -9646,7 +9646,7 @@
         <v>12.4</v>
       </c>
       <c r="AI17" t="n">
-        <v>4837</v>
+        <v>4249.699999999999</v>
       </c>
       <c r="AJ17" t="n">
         <v>29024.9</v>
@@ -9664,7 +9664,7 @@
         <v>9.4</v>
       </c>
       <c r="AO17" t="n">
-        <v>10.8</v>
+        <v>2.800000000000001</v>
       </c>
       <c r="AP17" t="n">
         <v>57</v>
@@ -9691,7 +9691,7 @@
         <v>4.8</v>
       </c>
       <c r="AX17" t="n">
-        <v>31.5</v>
+        <v>25.89999999999998</v>
       </c>
       <c r="AY17" t="n">
         <v>162.5</v>
@@ -9700,7 +9700,7 @@
         <v>-24</v>
       </c>
       <c r="BA17" t="n">
-        <v>14.69999999999999</v>
+        <v>8.000000000000012</v>
       </c>
       <c r="BB17" t="n">
         <v>167.6</v>
@@ -9709,7 +9709,7 @@
         <v>-7.6</v>
       </c>
       <c r="BD17" t="n">
-        <v>97.90000000000009</v>
+        <v>87.10000000000022</v>
       </c>
       <c r="BE17" t="n">
         <v>577.2</v>
@@ -9727,7 +9727,7 @@
         <v>20.5</v>
       </c>
       <c r="BJ17" t="n">
-        <v>364.1999999999998</v>
+        <v>273.2999999999995</v>
       </c>
       <c r="BK17" t="n">
         <v>2420.2</v>
@@ -9745,7 +9745,7 @@
         <v>29</v>
       </c>
       <c r="BP17" t="n">
-        <v>240.8</v>
+        <v>204.7</v>
       </c>
       <c r="BQ17" t="n">
         <v>1413.4</v>
@@ -9754,7 +9754,7 @@
         <v>-6.5</v>
       </c>
       <c r="BS17" t="n">
-        <v>30</v>
+        <v>16.99999999999997</v>
       </c>
       <c r="BT17" t="n">
         <v>286.2</v>
@@ -9763,7 +9763,7 @@
         <v>-7.1</v>
       </c>
       <c r="BV17" t="n">
-        <v>367.0999999999999</v>
+        <v>307.1999999999998</v>
       </c>
       <c r="BW17" t="n">
         <v>2293.5</v>
@@ -9772,7 +9772,7 @@
         <v>9.5</v>
       </c>
       <c r="BY17" t="n">
-        <v>311.4000000000001</v>
+        <v>261.5</v>
       </c>
       <c r="BZ17" t="n">
         <v>1901.9</v>
@@ -9781,7 +9781,7 @@
         <v>11.9</v>
       </c>
       <c r="CB17" t="n">
-        <v>243.2</v>
+        <v>180.9999999999998</v>
       </c>
       <c r="CC17" t="n">
         <v>1595.6</v>
@@ -9790,7 +9790,7 @@
         <v>13.6</v>
       </c>
       <c r="CE17" t="n">
-        <v>53.40000000000003</v>
+        <v>32.90000000000009</v>
       </c>
       <c r="CF17" t="n">
         <v>306.4</v>
@@ -9817,7 +9817,7 @@
         <v>18.5</v>
       </c>
       <c r="CN17" t="n">
-        <v>81.30000000000001</v>
+        <v>74.39999999999998</v>
       </c>
       <c r="CO17" t="n">
         <v>459.3</v>
@@ -9826,7 +9826,7 @@
         <v>0.3</v>
       </c>
       <c r="CQ17" t="n">
-        <v>23.40000000000003</v>
+        <v>16.60000000000008</v>
       </c>
       <c r="CR17" t="n">
         <v>374.2</v>
@@ -9835,7 +9835,7 @@
         <v>1.3</v>
       </c>
       <c r="CT17" t="n">
-        <v>316.6000000000001</v>
+        <v>124.6000000000003</v>
       </c>
       <c r="CU17" t="n">
         <v>1799.1</v>
@@ -9844,7 +9844,7 @@
         <v>-9.5</v>
       </c>
       <c r="CW17" t="n">
-        <v>194.5</v>
+        <v>172.4000000000001</v>
       </c>
       <c r="CX17" t="n">
         <v>1131.4</v>
@@ -9862,7 +9862,7 @@
         <v>-25.8</v>
       </c>
       <c r="DC17" t="n">
-        <v>116.5</v>
+        <v>45.60000000000008</v>
       </c>
       <c r="DD17" t="n">
         <v>1160.8</v>
@@ -9871,7 +9871,7 @@
         <v>17.2</v>
       </c>
       <c r="DF17" t="n">
-        <v>499.0999999999999</v>
+        <v>441.6999999999998</v>
       </c>
       <c r="DG17" t="n">
         <v>2870.6</v>
@@ -9880,7 +9880,7 @@
         <v>5.3</v>
       </c>
       <c r="DI17" t="n">
-        <v>7.100000000000001</v>
+        <v>5.600000000000005</v>
       </c>
       <c r="DJ17" t="n">
         <v>36.4</v>
@@ -9889,7 +9889,7 @@
         <v>14.1</v>
       </c>
       <c r="DL17" t="n">
-        <v>101.1</v>
+        <v>95.5</v>
       </c>
       <c r="DM17" t="n">
         <v>670.6</v>
@@ -9898,7 +9898,7 @@
         <v>15.4</v>
       </c>
       <c r="DO17" t="n">
-        <v>32.69999999999999</v>
+        <v>15.79999999999998</v>
       </c>
       <c r="DP17" t="n">
         <v>275.4</v>
@@ -9925,7 +9925,7 @@
         <v>25.3</v>
       </c>
       <c r="DX17" t="n">
-        <v>93.60000000000002</v>
+        <v>68.30000000000008</v>
       </c>
       <c r="DY17" t="n">
         <v>752.3</v>
@@ -10202,7 +10202,7 @@
         <v>-1.6</v>
       </c>
       <c r="AL18" t="n">
-        <v>9.599999999999994</v>
+        <v>6.599999999999994</v>
       </c>
       <c r="AM18" t="n">
         <v>84.8</v>
@@ -10247,7 +10247,7 @@
         <v>-24.6</v>
       </c>
       <c r="BA18" t="n">
-        <v>16.80000000000001</v>
+        <v>2.100000000000021</v>
       </c>
       <c r="BB18" t="n">
         <v>189.6</v>
@@ -10283,7 +10283,7 @@
         <v>-23.3</v>
       </c>
       <c r="BM18" t="n">
-        <v>73.10000000000002</v>
+        <v>43.70000000000005</v>
       </c>
       <c r="BN18" t="n">
         <v>831.5</v>
@@ -10355,7 +10355,7 @@
         <v>-50.3</v>
       </c>
       <c r="CK18" t="n">
-        <v>54.09999999999991</v>
+        <v>53.49999999999972</v>
       </c>
       <c r="CL18" t="n">
         <v>1150.1</v>
@@ -10373,7 +10373,7 @@
         <v>0.7</v>
       </c>
       <c r="CQ18" t="n">
-        <v>88.99999999999994</v>
+        <v>65.59999999999991</v>
       </c>
       <c r="CR18" t="n">
         <v>451.5</v>
@@ -10454,7 +10454,7 @@
         <v>25.5</v>
       </c>
       <c r="DR18" t="n">
-        <v>321.9000000000001</v>
+        <v>314.3000000000002</v>
       </c>
       <c r="DS18" t="n">
         <v>2419.1</v>
@@ -10463,7 +10463,7 @@
         <v>11.4</v>
       </c>
       <c r="DU18" t="n">
-        <v>23.80000000000001</v>
+        <v>16.99999999999999</v>
       </c>
       <c r="DV18" t="n">
         <v>164.3</v>
@@ -10641,7 +10641,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>145.6999999999998</v>
+        <v>103.0999999999997</v>
       </c>
       <c r="C19" t="n">
         <v>1338.8</v>
@@ -10659,7 +10659,7 @@
         <v>3.7</v>
       </c>
       <c r="H19" t="n">
-        <v>4.100000000000001</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="I19" t="n">
         <v>55.6</v>
@@ -10686,7 +10686,7 @@
         <v>3.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>586.0999999999958</v>
+        <v>305.5999999999922</v>
       </c>
       <c r="R19" t="n">
         <v>32056.5</v>
@@ -10713,7 +10713,7 @@
         <v>-31.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>49.89999999999998</v>
+        <v>18.50000000000006</v>
       </c>
       <c r="AA19" t="n">
         <v>2036.3</v>
@@ -10722,7 +10722,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>5.599999999999962</v>
+        <v>3.59999999999993</v>
       </c>
       <c r="AD19" t="n">
         <v>247.7</v>
@@ -10731,7 +10731,7 @@
         <v>10.6</v>
       </c>
       <c r="AF19" t="n">
-        <v>22.5</v>
+        <v>17.60000000000002</v>
       </c>
       <c r="AG19" t="n">
         <v>260.1</v>
@@ -10740,7 +10740,7 @@
         <v>12.4</v>
       </c>
       <c r="AI19" t="n">
-        <v>456.9999999999936</v>
+        <v>94.09999999999309</v>
       </c>
       <c r="AJ19" t="n">
         <v>39079.6</v>
@@ -10767,7 +10767,7 @@
         <v>342</v>
       </c>
       <c r="AR19" t="n">
-        <v>63.80000000000001</v>
+        <v>59.69999999999996</v>
       </c>
       <c r="AS19" t="n">
         <v>431.7</v>
@@ -10794,7 +10794,7 @@
         <v>-23.3</v>
       </c>
       <c r="BA19" t="n">
-        <v>30.79999999999998</v>
+        <v>13.99999999999997</v>
       </c>
       <c r="BB19" t="n">
         <v>218.2</v>
@@ -10803,7 +10803,7 @@
         <v>-4.1</v>
       </c>
       <c r="BD19" t="n">
-        <v>81</v>
+        <v>79.20000000000016</v>
       </c>
       <c r="BE19" t="n">
         <v>802.5</v>
@@ -10812,7 +10812,7 @@
         <v>11</v>
       </c>
       <c r="BG19" t="n">
-        <v>19.5</v>
+        <v>18.20000000000001</v>
       </c>
       <c r="BH19" t="n">
         <v>171.7</v>
@@ -10839,7 +10839,7 @@
         <v>22.5</v>
       </c>
       <c r="BP19" t="n">
-        <v>244.1000000000001</v>
+        <v>207.3</v>
       </c>
       <c r="BQ19" t="n">
         <v>1934.9</v>
@@ -10848,7 +10848,7 @@
         <v>-4.7</v>
       </c>
       <c r="BS19" t="n">
-        <v>14.30000000000001</v>
+        <v>11.10000000000002</v>
       </c>
       <c r="BT19" t="n">
         <v>369.7</v>
@@ -10857,7 +10857,7 @@
         <v>-0.4</v>
       </c>
       <c r="BV19" t="n">
-        <v>333.2000000000003</v>
+        <v>301.3000000000002</v>
       </c>
       <c r="BW19" t="n">
         <v>3182.3</v>
@@ -10866,7 +10866,7 @@
         <v>11.2</v>
       </c>
       <c r="BY19" t="n">
-        <v>266.1999999999998</v>
+        <v>238.7999999999997</v>
       </c>
       <c r="BZ19" t="n">
         <v>2640.9</v>
@@ -10875,7 +10875,7 @@
         <v>12.4</v>
       </c>
       <c r="CB19" t="n">
-        <v>98</v>
+        <v>48.39999999999998</v>
       </c>
       <c r="CC19" t="n">
         <v>2261.5</v>
@@ -10893,7 +10893,7 @@
         <v>12.1</v>
       </c>
       <c r="CH19" t="n">
-        <v>85.19999999999982</v>
+        <v>52.09999999999974</v>
       </c>
       <c r="CI19" t="n">
         <v>790.5</v>
@@ -10902,7 +10902,7 @@
         <v>-52.7</v>
       </c>
       <c r="CK19" t="n">
-        <v>186.4000000000001</v>
+        <v>132.3000000000002</v>
       </c>
       <c r="CL19" t="n">
         <v>1309.7</v>
@@ -10947,7 +10947,7 @@
         <v>4.1</v>
       </c>
       <c r="CZ19" t="n">
-        <v>50.89999999999998</v>
+        <v>41.89999999999998</v>
       </c>
       <c r="DA19" t="n">
         <v>349</v>
@@ -10956,7 +10956,7 @@
         <v>-21.7</v>
       </c>
       <c r="DC19" t="n">
-        <v>63.60000000000002</v>
+        <v>40.90000000000003</v>
       </c>
       <c r="DD19" t="n">
         <v>1464.4</v>
@@ -10965,7 +10965,7 @@
         <v>17.5</v>
       </c>
       <c r="DF19" t="n">
-        <v>486.1999999999998</v>
+        <v>436.0999999999999</v>
       </c>
       <c r="DG19" t="n">
         <v>3840.8</v>
@@ -10983,7 +10983,7 @@
         <v>10.3</v>
       </c>
       <c r="DL19" t="n">
-        <v>109.6</v>
+        <v>64.39999999999998</v>
       </c>
       <c r="DM19" t="n">
         <v>929.2</v>
@@ -10992,7 +10992,7 @@
         <v>12.2</v>
       </c>
       <c r="DO19" t="n">
-        <v>10.80000000000001</v>
+        <v>3.199999999999987</v>
       </c>
       <c r="DP19" t="n">
         <v>360.7</v>
@@ -11019,7 +11019,7 @@
         <v>16</v>
       </c>
       <c r="DX19" t="n">
-        <v>122.2</v>
+        <v>80.40000000000002</v>
       </c>
       <c r="DY19" t="n">
         <v>1006.3</v>
@@ -11037,7 +11037,7 @@
         <v>-32.3</v>
       </c>
       <c r="ED19" t="n">
-        <v>9.699999999999996</v>
+        <v>4.299999999999997</v>
       </c>
       <c r="EE19" t="n">
         <v>177.7</v>
@@ -11197,7 +11197,7 @@
         <v>14.4</v>
       </c>
       <c r="E20" t="n">
-        <v>30.39999999999998</v>
+        <v>29.69999999999994</v>
       </c>
       <c r="F20" t="n">
         <v>460.1</v>
@@ -11206,7 +11206,7 @@
         <v>6.5</v>
       </c>
       <c r="H20" t="n">
-        <v>6.300000000000004</v>
+        <v>2.200000000000003</v>
       </c>
       <c r="I20" t="n">
         <v>64.90000000000001</v>
@@ -11224,7 +11224,7 @@
         <v>75</v>
       </c>
       <c r="N20" t="n">
-        <v>118</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="O20" t="n">
         <v>1163.6</v>
@@ -11233,7 +11233,7 @@
         <v>4.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>3869.299999999996</v>
+        <v>3283.2</v>
       </c>
       <c r="R20" t="n">
         <v>36804.9</v>
@@ -11242,7 +11242,7 @@
         <v>-3.1</v>
       </c>
       <c r="T20" t="n">
-        <v>335</v>
+        <v>267.2999999999997</v>
       </c>
       <c r="U20" t="n">
         <v>3084.6</v>
@@ -11251,7 +11251,7 @@
         <v>-13</v>
       </c>
       <c r="W20" t="n">
-        <v>22.89999999999998</v>
+        <v>22.39999999999995</v>
       </c>
       <c r="X20" t="n">
         <v>193</v>
@@ -11260,7 +11260,7 @@
         <v>-30.7</v>
       </c>
       <c r="Z20" t="n">
-        <v>175.1999999999998</v>
+        <v>125.2999999999998</v>
       </c>
       <c r="AA20" t="n">
         <v>2349.7</v>
@@ -11269,7 +11269,7 @@
         <v>10.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>28.40000000000003</v>
+        <v>22.80000000000007</v>
       </c>
       <c r="AD20" t="n">
         <v>284.7</v>
@@ -11287,7 +11287,7 @@
         <v>16.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>4599.900000000001</v>
+        <v>4142.900000000007</v>
       </c>
       <c r="AJ20" t="n">
         <v>44734.6</v>
@@ -11323,7 +11323,7 @@
         <v>11.6</v>
       </c>
       <c r="AU20" t="n">
-        <v>99.29999999999995</v>
+        <v>46.49999999999992</v>
       </c>
       <c r="AV20" t="n">
         <v>819.2</v>
@@ -11332,7 +11332,7 @@
         <v>9</v>
       </c>
       <c r="AX20" t="n">
-        <v>28.59999999999997</v>
+        <v>25.29999999999991</v>
       </c>
       <c r="AY20" t="n">
         <v>240.5</v>
@@ -11368,7 +11368,7 @@
         <v>20.4</v>
       </c>
       <c r="BJ20" t="n">
-        <v>383.1000000000004</v>
+        <v>221.500000000001</v>
       </c>
       <c r="BK20" t="n">
         <v>3645.4</v>
@@ -11377,7 +11377,7 @@
         <v>-16.6</v>
       </c>
       <c r="BM20" t="n">
-        <v>59.80000000000007</v>
+        <v>37.10000000000014</v>
       </c>
       <c r="BN20" t="n">
         <v>989.2</v>
@@ -11395,7 +11395,7 @@
         <v>-4.3</v>
       </c>
       <c r="BS20" t="n">
-        <v>33.10000000000002</v>
+        <v>18.80000000000001</v>
       </c>
       <c r="BT20" t="n">
         <v>426</v>
@@ -11422,7 +11422,7 @@
         <v>14.5</v>
       </c>
       <c r="CB20" t="n">
-        <v>174.0999999999999</v>
+        <v>76.09999999999991</v>
       </c>
       <c r="CC20" t="n">
         <v>2662</v>
@@ -11431,7 +11431,7 @@
         <v>14.2</v>
       </c>
       <c r="CE20" t="n">
-        <v>45.69999999999999</v>
+        <v>33.19999999999999</v>
       </c>
       <c r="CF20" t="n">
         <v>497.2</v>
@@ -11440,7 +11440,7 @@
         <v>8.1</v>
       </c>
       <c r="CH20" t="n">
-        <v>230.5</v>
+        <v>145.3000000000002</v>
       </c>
       <c r="CI20" t="n">
         <v>920.3</v>
@@ -11458,7 +11458,7 @@
         <v>3.1</v>
       </c>
       <c r="CN20" t="n">
-        <v>48.70000000000005</v>
+        <v>36.20000000000005</v>
       </c>
       <c r="CO20" t="n">
         <v>655.9</v>
@@ -11476,7 +11476,7 @@
         <v>-0.6</v>
       </c>
       <c r="CT20" t="n">
-        <v>387.9000000000001</v>
+        <v>307.8000000000002</v>
       </c>
       <c r="CU20" t="n">
         <v>3328</v>
@@ -11503,7 +11503,7 @@
         <v>-20</v>
       </c>
       <c r="DC20" t="n">
-        <v>104.2</v>
+        <v>40.59999999999998</v>
       </c>
       <c r="DD20" t="n">
         <v>1693.5</v>
@@ -11521,7 +11521,7 @@
         <v>1.3</v>
       </c>
       <c r="DI20" t="n">
-        <v>7.100000000000001</v>
+        <v>5.400000000000006</v>
       </c>
       <c r="DJ20" t="n">
         <v>54.9</v>
@@ -11539,7 +11539,7 @@
         <v>11</v>
       </c>
       <c r="DO20" t="n">
-        <v>23.5</v>
+        <v>12.69999999999999</v>
       </c>
       <c r="DP20" t="n">
         <v>411.7</v>
@@ -11744,7 +11744,7 @@
         <v>13.5</v>
       </c>
       <c r="E21" t="n">
-        <v>45.80000000000007</v>
+        <v>15.40000000000009</v>
       </c>
       <c r="F21" t="n">
         <v>496</v>
@@ -11825,7 +11825,7 @@
         <v>11.1</v>
       </c>
       <c r="AF21" t="n">
-        <v>13.49999999999995</v>
+        <v>3.899999999999928</v>
       </c>
       <c r="AG21" t="n">
         <v>331</v>
@@ -11843,7 +11843,7 @@
         <v>-2.4</v>
       </c>
       <c r="AL21" t="n">
-        <v>4.599999999999998</v>
+        <v>0.6000000000000179</v>
       </c>
       <c r="AM21" t="n">
         <v>134.2</v>
@@ -11852,7 +11852,7 @@
         <v>9.1</v>
       </c>
       <c r="AO21" t="n">
-        <v>3.900000000000001</v>
+        <v>3.500000000000001</v>
       </c>
       <c r="AP21" t="n">
         <v>28</v>
@@ -11861,7 +11861,7 @@
         <v>677.8</v>
       </c>
       <c r="AR21" t="n">
-        <v>21.70000000000004</v>
+        <v>4.300000000000058</v>
       </c>
       <c r="AS21" t="n">
         <v>502.3</v>
@@ -11897,7 +11897,7 @@
         <v>-1.1</v>
       </c>
       <c r="BD21" t="n">
-        <v>24.09999999999995</v>
+        <v>11.3999999999999</v>
       </c>
       <c r="BE21" t="n">
         <v>1015.3</v>
@@ -11906,7 +11906,7 @@
         <v>13.1</v>
       </c>
       <c r="BG21" t="n">
-        <v>15.30000000000001</v>
+        <v>11.80000000000001</v>
       </c>
       <c r="BH21" t="n">
         <v>218.5</v>
@@ -12005,7 +12005,7 @@
         <v>-1</v>
       </c>
       <c r="CN21" t="n">
-        <v>62.59999999999994</v>
+        <v>13.89999999999988</v>
       </c>
       <c r="CO21" t="n">
         <v>692</v>
@@ -12014,7 +12014,7 @@
         <v>-5.3</v>
       </c>
       <c r="CQ21" t="n">
-        <v>26.09999999999991</v>
+        <v>20.39999999999986</v>
       </c>
       <c r="CR21" t="n">
         <v>669.3</v>
@@ -12041,7 +12041,7 @@
         <v>2.8</v>
       </c>
       <c r="CZ21" t="n">
-        <v>46.39999999999998</v>
+        <v>40.49999999999994</v>
       </c>
       <c r="DA21" t="n">
         <v>461.9</v>
@@ -12086,7 +12086,7 @@
         <v>11.4</v>
       </c>
       <c r="DO21" t="n">
-        <v>42.29999999999995</v>
+        <v>18.79999999999995</v>
       </c>
       <c r="DP21" t="n">
         <v>418.7</v>
@@ -12095,7 +12095,7 @@
         <v>17.1</v>
       </c>
       <c r="DR21" t="n">
-        <v>75.59999999999991</v>
+        <v>12.69999999999982</v>
       </c>
       <c r="DS21" t="n">
         <v>3534.4</v>
@@ -12113,7 +12113,7 @@
         <v>19.2</v>
       </c>
       <c r="DX21" t="n">
-        <v>130.1000000000001</v>
+        <v>101.9000000000002</v>
       </c>
       <c r="DY21" t="n">
         <v>1268</v>
@@ -12122,7 +12122,7 @@
         <v>9</v>
       </c>
       <c r="EA21" t="n">
-        <v>292.2999999999997</v>
+        <v>290.2999999999993</v>
       </c>
       <c r="EB21" t="n">
         <v>2103.7</v>
@@ -12131,7 +12131,7 @@
         <v>-39.8</v>
       </c>
       <c r="ED21" t="n">
-        <v>11.3</v>
+        <v>5.599999999999998</v>
       </c>
       <c r="EE21" t="n">
         <v>216.5</v>
@@ -12300,7 +12300,7 @@
         <v>7.8</v>
       </c>
       <c r="H22" t="n">
-        <v>3.200000000000006</v>
+        <v>1.400000000000016</v>
       </c>
       <c r="I22" t="n">
         <v>78</v>
@@ -12318,7 +12318,7 @@
         <v>75</v>
       </c>
       <c r="N22" t="n">
-        <v>197.0999999999997</v>
+        <v>147.9999999999996</v>
       </c>
       <c r="O22" t="n">
         <v>1528.6</v>
@@ -12327,7 +12327,7 @@
         <v>9</v>
       </c>
       <c r="Q22" t="n">
-        <v>1567.099999999998</v>
+        <v>808.0999999999913</v>
       </c>
       <c r="R22" t="n">
         <v>44964.5</v>
@@ -12354,7 +12354,7 @@
         <v>-24.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>91.19999999999982</v>
+        <v>31.99999999999952</v>
       </c>
       <c r="AA22" t="n">
         <v>2803.6</v>
@@ -12363,7 +12363,7 @@
         <v>10.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>19.80000000000008</v>
+        <v>1.900000000000158</v>
       </c>
       <c r="AD22" t="n">
         <v>365.2</v>
@@ -12372,7 +12372,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AF22" t="n">
-        <v>32.80000000000006</v>
+        <v>19.30000000000011</v>
       </c>
       <c r="AG22" t="n">
         <v>385.1</v>
@@ -12381,7 +12381,7 @@
         <v>16.1</v>
       </c>
       <c r="AI22" t="n">
-        <v>1068.599999999999</v>
+        <v>205.099999999999</v>
       </c>
       <c r="AJ22" t="n">
         <v>54652.6</v>
@@ -12390,7 +12390,7 @@
         <v>-1.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>5.400000000000031</v>
+        <v>0.8000000000000336</v>
       </c>
       <c r="AM22" t="n">
         <v>156.4</v>
@@ -12408,7 +12408,7 @@
         <v>322.8</v>
       </c>
       <c r="AR22" t="n">
-        <v>60.99999999999997</v>
+        <v>39.29999999999993</v>
       </c>
       <c r="AS22" t="n">
         <v>560.5</v>
@@ -12417,7 +12417,7 @@
         <v>13.3</v>
       </c>
       <c r="AU22" t="n">
-        <v>230.7000000000001</v>
+        <v>175.6000000000001</v>
       </c>
       <c r="AV22" t="n">
         <v>988.4</v>
@@ -12426,7 +12426,7 @@
         <v>9.1</v>
       </c>
       <c r="AX22" t="n">
-        <v>19.39999999999998</v>
+        <v>12.09999999999992</v>
       </c>
       <c r="AY22" t="n">
         <v>289.9</v>
@@ -12435,7 +12435,7 @@
         <v>-21.9</v>
       </c>
       <c r="BA22" t="n">
-        <v>31.59999999999997</v>
+        <v>15.29999999999996</v>
       </c>
       <c r="BB22" t="n">
         <v>311.8</v>
@@ -12444,7 +12444,7 @@
         <v>-0.5</v>
       </c>
       <c r="BD22" t="n">
-        <v>53.10000000000001</v>
+        <v>29.00000000000006</v>
       </c>
       <c r="BE22" t="n">
         <v>1149.3</v>
@@ -12453,7 +12453,7 @@
         <v>13.2</v>
       </c>
       <c r="BG22" t="n">
-        <v>18</v>
+        <v>2.69999999999999</v>
       </c>
       <c r="BH22" t="n">
         <v>249</v>
@@ -12462,7 +12462,7 @@
         <v>12.7</v>
       </c>
       <c r="BJ22" t="n">
-        <v>176.9000000000006</v>
+        <v>78.60000000000144</v>
       </c>
       <c r="BK22" t="n">
         <v>4525.8</v>
@@ -12471,7 +12471,7 @@
         <v>-13.5</v>
       </c>
       <c r="BM22" t="n">
-        <v>856.9</v>
+        <v>851.3000000000001</v>
       </c>
       <c r="BN22" t="n">
         <v>1052.9</v>
@@ -12480,7 +12480,7 @@
         <v>11.5</v>
       </c>
       <c r="BP22" t="n">
-        <v>212.2000000000003</v>
+        <v>199.1999999999998</v>
       </c>
       <c r="BQ22" t="n">
         <v>2673.8</v>
@@ -12489,7 +12489,7 @@
         <v>-3.1</v>
       </c>
       <c r="BS22" t="n">
-        <v>38.10000000000008</v>
+        <v>29.80000000000013</v>
       </c>
       <c r="BT22" t="n">
         <v>506.3</v>
@@ -12498,7 +12498,7 @@
         <v>2.7</v>
       </c>
       <c r="BV22" t="n">
-        <v>129.9000000000001</v>
+        <v>85.90000000000009</v>
       </c>
       <c r="BW22" t="n">
         <v>4462</v>
@@ -12507,7 +12507,7 @@
         <v>18.7</v>
       </c>
       <c r="BY22" t="n">
-        <v>32.40000000000009</v>
+        <v>12</v>
       </c>
       <c r="BZ22" t="n">
         <v>3706.7</v>
@@ -12525,7 +12525,7 @@
         <v>15</v>
       </c>
       <c r="CE22" t="n">
-        <v>72</v>
+        <v>67.19999999999999</v>
       </c>
       <c r="CF22" t="n">
         <v>590.8</v>
@@ -12534,7 +12534,7 @@
         <v>6.3</v>
       </c>
       <c r="CH22" t="n">
-        <v>2153</v>
+        <v>2057.9</v>
       </c>
       <c r="CI22" t="n">
         <v>1220.1</v>
@@ -12543,7 +12543,7 @@
         <v>-46.8</v>
       </c>
       <c r="CK22" t="n">
-        <v>1538.5</v>
+        <v>1521.5</v>
       </c>
       <c r="CL22" t="n">
         <v>1712.1</v>
@@ -12552,7 +12552,7 @@
         <v>-4</v>
       </c>
       <c r="CN22" t="n">
-        <v>105.1</v>
+        <v>42.50000000000006</v>
       </c>
       <c r="CO22" t="n">
         <v>794.2</v>
@@ -12561,7 +12561,7 @@
         <v>-5.7</v>
       </c>
       <c r="CQ22" t="n">
-        <v>53.90000000000003</v>
+        <v>27.80000000000012</v>
       </c>
       <c r="CR22" t="n">
         <v>755.1</v>
@@ -12597,7 +12597,7 @@
         <v>-9.9</v>
       </c>
       <c r="DC22" t="n">
-        <v>195.5999999999999</v>
+        <v>182.7999999999999</v>
       </c>
       <c r="DD22" t="n">
         <v>1954.7</v>
@@ -12606,7 +12606,7 @@
         <v>17</v>
       </c>
       <c r="DF22" t="n">
-        <v>206.8000000000002</v>
+        <v>146.3999999999997</v>
       </c>
       <c r="DG22" t="n">
         <v>5226.1</v>
@@ -12615,7 +12615,7 @@
         <v>-0.7</v>
       </c>
       <c r="DI22" t="n">
-        <v>1.299999999999997</v>
+        <v>0.800000000000004</v>
       </c>
       <c r="DJ22" t="n">
         <v>56.5</v>
@@ -12624,7 +12624,7 @@
         <v>-15.4</v>
       </c>
       <c r="DL22" t="n">
-        <v>85.7000000000001</v>
+        <v>15.20000000000022</v>
       </c>
       <c r="DM22" t="n">
         <v>1296.8</v>
@@ -12642,7 +12642,7 @@
         <v>7.9</v>
       </c>
       <c r="DR22" t="n">
-        <v>104.5000000000005</v>
+        <v>28.90000000000059</v>
       </c>
       <c r="DS22" t="n">
         <v>4027.3</v>
@@ -12829,7 +12829,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>164.1</v>
+        <v>155.9</v>
       </c>
       <c r="C23" t="n">
         <v>2094.4</v>
@@ -12838,7 +12838,7 @@
         <v>13.4</v>
       </c>
       <c r="E23" t="n">
-        <v>25.6</v>
+        <v>24.00000000000009</v>
       </c>
       <c r="F23" t="n">
         <v>666</v>
@@ -12847,7 +12847,7 @@
         <v>8</v>
       </c>
       <c r="H23" t="n">
-        <v>10.1</v>
+        <v>6.899999999999993</v>
       </c>
       <c r="I23" t="n">
         <v>87.3</v>
@@ -12865,7 +12865,7 @@
         <v>33.3</v>
       </c>
       <c r="N23" t="n">
-        <v>206.9</v>
+        <v>9.800000000000296</v>
       </c>
       <c r="O23" t="n">
         <v>1836.5</v>
@@ -12874,7 +12874,7 @@
         <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>5034.8</v>
+        <v>3467.700000000002</v>
       </c>
       <c r="R23" t="n">
         <v>50134.8</v>
@@ -12883,7 +12883,7 @@
         <v>-4.8</v>
       </c>
       <c r="T23" t="n">
-        <v>121.5999999999998</v>
+        <v>104.7999999999996</v>
       </c>
       <c r="U23" t="n">
         <v>3331.4</v>
@@ -12892,7 +12892,7 @@
         <v>-26.3</v>
       </c>
       <c r="W23" t="n">
-        <v>13.5</v>
+        <v>5.500000000000064</v>
       </c>
       <c r="X23" t="n">
         <v>292.5</v>
@@ -12901,7 +12901,7 @@
         <v>-22</v>
       </c>
       <c r="Z23" t="n">
-        <v>132.2000000000001</v>
+        <v>41.00000000000028</v>
       </c>
       <c r="AA23" t="n">
         <v>3063</v>
@@ -12910,7 +12910,7 @@
         <v>7</v>
       </c>
       <c r="AC23" t="n">
-        <v>38.4</v>
+        <v>18.59999999999992</v>
       </c>
       <c r="AD23" t="n">
         <v>420.2</v>
@@ -12919,7 +12919,7 @@
         <v>4.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>41.6</v>
+        <v>8.79999999999994</v>
       </c>
       <c r="AG23" t="n">
         <v>446.5</v>
@@ -12928,7 +12928,7 @@
         <v>8.9</v>
       </c>
       <c r="AI23" t="n">
-        <v>6423.4</v>
+        <v>5354.800000000001</v>
       </c>
       <c r="AJ23" t="n">
         <v>60125.7</v>
@@ -12937,7 +12937,7 @@
         <v>-3.1</v>
       </c>
       <c r="AL23" t="n">
-        <v>15.1</v>
+        <v>9.699999999999967</v>
       </c>
       <c r="AM23" t="n">
         <v>187.1</v>
@@ -12946,7 +12946,7 @@
         <v>7</v>
       </c>
       <c r="AO23" t="n">
-        <v>75.5</v>
+        <v>120.9</v>
       </c>
       <c r="AP23" t="n">
         <v>28.1</v>
@@ -12955,7 +12955,7 @@
         <v>-161.9</v>
       </c>
       <c r="AR23" t="n">
-        <v>76.59999999999999</v>
+        <v>15.60000000000002</v>
       </c>
       <c r="AS23" t="n">
         <v>644</v>
@@ -12973,7 +12973,7 @@
         <v>-3.1</v>
       </c>
       <c r="AX23" t="n">
-        <v>39.6</v>
+        <v>20.20000000000002</v>
       </c>
       <c r="AY23" t="n">
         <v>309.5</v>
@@ -12982,7 +12982,7 @@
         <v>-27.4</v>
       </c>
       <c r="BA23" t="n">
-        <v>41.9</v>
+        <v>10.30000000000003</v>
       </c>
       <c r="BB23" t="n">
         <v>356.9</v>
@@ -12991,7 +12991,7 @@
         <v>-6.2</v>
       </c>
       <c r="BD23" t="n">
-        <v>123.5</v>
+        <v>70.39999999999999</v>
       </c>
       <c r="BE23" t="n">
         <v>1325.8</v>
@@ -13009,7 +13009,7 @@
         <v>5.8</v>
       </c>
       <c r="BJ23" t="n">
-        <v>477.9</v>
+        <v>300.9999999999994</v>
       </c>
       <c r="BK23" t="n">
         <v>4971.8</v>
@@ -13045,7 +13045,7 @@
         <v>1.4</v>
       </c>
       <c r="BV23" t="n">
-        <v>545.4999999999999</v>
+        <v>415.5999999999998</v>
       </c>
       <c r="BW23" t="n">
         <v>4566.3</v>
@@ -13054,7 +13054,7 @@
         <v>17.5</v>
       </c>
       <c r="BY23" t="n">
-        <v>530.9999999999999</v>
+        <v>498.5999999999998</v>
       </c>
       <c r="BZ23" t="n">
         <v>3732.9</v>
@@ -13063,7 +13063,7 @@
         <v>21.4</v>
       </c>
       <c r="CB23" t="n">
-        <v>258.8</v>
+        <v>143.9000000000004</v>
       </c>
       <c r="CC23" t="n">
         <v>3673.6</v>
@@ -13072,7 +13072,7 @@
         <v>12.3</v>
       </c>
       <c r="CE23" t="n">
-        <v>84.5</v>
+        <v>12.5</v>
       </c>
       <c r="CF23" t="n">
         <v>669.5</v>
@@ -13108,7 +13108,7 @@
         <v>-10.2</v>
       </c>
       <c r="CQ23" t="n">
-        <v>92.8</v>
+        <v>38.89999999999997</v>
       </c>
       <c r="CR23" t="n">
         <v>848</v>
@@ -13117,7 +13117,7 @@
         <v>-9.4</v>
       </c>
       <c r="CT23" t="n">
-        <v>167.7</v>
+        <v>121.8999999999994</v>
       </c>
       <c r="CU23" t="n">
         <v>4840.2</v>
@@ -13126,7 +13126,7 @@
         <v>3.6</v>
       </c>
       <c r="CW23" t="n">
-        <v>206.4</v>
+        <v>168.4999999999999</v>
       </c>
       <c r="CX23" t="n">
         <v>2309.2</v>
@@ -13135,7 +13135,7 @@
         <v>1.7</v>
       </c>
       <c r="CZ23" t="n">
-        <v>61.8</v>
+        <v>28.3</v>
       </c>
       <c r="DA23" t="n">
         <v>619.2</v>
@@ -13153,7 +13153,7 @@
         <v>10.2</v>
       </c>
       <c r="DF23" t="n">
-        <v>506.3999999999999</v>
+        <v>299.5999999999997</v>
       </c>
       <c r="DG23" t="n">
         <v>5424.7</v>
@@ -13162,7 +13162,7 @@
         <v>-0.8</v>
       </c>
       <c r="DI23" t="n">
-        <v>5.900000000000003</v>
+        <v>4.600000000000006</v>
       </c>
       <c r="DJ23" t="n">
         <v>73.40000000000001</v>
@@ -13171,7 +13171,7 @@
         <v>7.8</v>
       </c>
       <c r="DL23" t="n">
-        <v>153</v>
+        <v>67.2999999999999</v>
       </c>
       <c r="DM23" t="n">
         <v>1521.6</v>
@@ -13180,7 +13180,7 @@
         <v>7</v>
       </c>
       <c r="DO23" t="n">
-        <v>33.7</v>
+        <v>21.79999999999991</v>
       </c>
       <c r="DP23" t="n">
         <v>578.4</v>
@@ -13189,7 +13189,7 @@
         <v>15.4</v>
       </c>
       <c r="DR23" t="n">
-        <v>409.4</v>
+        <v>304.8999999999995</v>
       </c>
       <c r="DS23" t="n">
         <v>4490.6</v>
@@ -13198,7 +13198,7 @@
         <v>8.1</v>
       </c>
       <c r="DU23" t="n">
-        <v>34.1</v>
+        <v>28.40000000000001</v>
       </c>
       <c r="DV23" t="n">
         <v>300.1</v>
@@ -13225,7 +13225,7 @@
         <v>-34.1</v>
       </c>
       <c r="ED23" t="n">
-        <v>23.8</v>
+        <v>16</v>
       </c>
       <c r="EE23" t="n">
         <v>232.8</v>
@@ -13385,7 +13385,7 @@
         <v>-58.8</v>
       </c>
       <c r="E24" t="n">
-        <v>34.7</v>
+        <v>9.100000000000001</v>
       </c>
       <c r="F24" t="n">
         <v>5.2</v>
@@ -13430,7 +13430,7 @@
         <v>-42.6</v>
       </c>
       <c r="T24" t="n">
-        <v>407.1</v>
+        <v>285.5000000000002</v>
       </c>
       <c r="U24" t="n">
         <v>148</v>
@@ -13439,7 +13439,7 @@
         <v>-67.09999999999999</v>
       </c>
       <c r="W24" t="n">
-        <v>17.1</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="X24" t="n">
         <v>2.1</v>
@@ -13448,7 +13448,7 @@
         <v>-84.40000000000001</v>
       </c>
       <c r="Z24" t="n">
-        <v>256.1</v>
+        <v>123.8999999999999</v>
       </c>
       <c r="AA24" t="n">
         <v>413.1</v>
@@ -13547,7 +13547,7 @@
         <v>-55</v>
       </c>
       <c r="BG24" t="n">
-        <v>9</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="BH24" t="n">
         <v>4.3</v>
@@ -13574,7 +13574,7 @@
         <v>31.9</v>
       </c>
       <c r="BP24" t="n">
-        <v>250.8</v>
+        <v>103.8000000000003</v>
       </c>
       <c r="BQ24" t="n">
         <v>194.4</v>
@@ -13583,7 +13583,7 @@
         <v>-45.9</v>
       </c>
       <c r="BS24" t="n">
-        <v>38.39999999999999</v>
+        <v>28.50000000000004</v>
       </c>
       <c r="BT24" t="n">
         <v>60.1</v>
@@ -13664,7 +13664,7 @@
         <v>-41.8</v>
       </c>
       <c r="CT24" t="n">
-        <v>286.1</v>
+        <v>118.4</v>
       </c>
       <c r="CU24" t="n">
         <v>10.9</v>
@@ -13691,7 +13691,7 @@
         <v>-18.9</v>
       </c>
       <c r="DC24" t="n">
-        <v>216.4</v>
+        <v>147.4999999999999</v>
       </c>
       <c r="DD24" t="n">
         <v>302.4</v>
@@ -13700,7 +13700,7 @@
         <v>-20.7</v>
       </c>
       <c r="DF24" t="n">
-        <v>516.3999999999999</v>
+        <v>9.999999999999943</v>
       </c>
       <c r="DG24" t="n">
         <v>559.5</v>
@@ -13754,7 +13754,7 @@
         <v>-30.5</v>
       </c>
       <c r="DX24" t="n">
-        <v>139.5</v>
+        <v>83</v>
       </c>
       <c r="DY24" t="n">
         <v>170.8</v>
@@ -13923,7 +13923,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>142.9</v>
+        <v>59.80000000000001</v>
       </c>
       <c r="C25" t="n">
         <v>259.8</v>
@@ -13932,7 +13932,7 @@
         <v>-36.8</v>
       </c>
       <c r="E25" t="n">
-        <v>43.90000000000001</v>
+        <v>9.20000000000001</v>
       </c>
       <c r="F25" t="n">
         <v>55</v>
@@ -14058,7 +14058,7 @@
         <v>-39.2</v>
       </c>
       <c r="AU25" t="n">
-        <v>23.49999999999999</v>
+        <v>7.199999999999989</v>
       </c>
       <c r="AV25" t="n">
         <v>87.3</v>
@@ -14094,7 +14094,7 @@
         <v>-33</v>
       </c>
       <c r="BG25" t="n">
-        <v>15.9</v>
+        <v>6.9</v>
       </c>
       <c r="BH25" t="n">
         <v>9.199999999999999</v>
@@ -14103,7 +14103,7 @@
         <v>-70.90000000000001</v>
       </c>
       <c r="BJ25" t="n">
-        <v>346.5</v>
+        <v>272.5</v>
       </c>
       <c r="BK25" t="n">
         <v>208.4</v>
@@ -14157,7 +14157,7 @@
         <v>-31.1</v>
       </c>
       <c r="CB25" t="n">
-        <v>242.4000000000001</v>
+        <v>194.2000000000002</v>
       </c>
       <c r="CC25" t="n">
         <v>294.6</v>
@@ -14175,7 +14175,7 @@
         <v>-35.2</v>
       </c>
       <c r="CH25" t="n">
-        <v>129.8</v>
+        <v>104.8</v>
       </c>
       <c r="CI25" t="n">
         <v>-241.8</v>
@@ -14220,7 +14220,7 @@
         <v>-13.5</v>
       </c>
       <c r="CW25" t="n">
-        <v>181.5</v>
+        <v>123.8</v>
       </c>
       <c r="CX25" t="n">
         <v>267.5</v>
@@ -14256,7 +14256,7 @@
         <v>-27.7</v>
       </c>
       <c r="DI25" t="n">
-        <v>6.300000000000001</v>
+        <v>5.700000000000001</v>
       </c>
       <c r="DJ25" t="n">
         <v>1.8</v>
@@ -14274,7 +14274,7 @@
         <v>-41.2</v>
       </c>
       <c r="DO25" t="n">
-        <v>28.39999999999999</v>
+        <v>7.399999999999991</v>
       </c>
       <c r="DP25" t="n">
         <v>56.8</v>
@@ -14310,7 +14310,7 @@
         <v>-24.9</v>
       </c>
       <c r="EA25" t="n">
-        <v>157</v>
+        <v>137.4</v>
       </c>
       <c r="EB25" t="n">
         <v>161.4</v>
@@ -14533,7 +14533,7 @@
         <v>-48.9</v>
       </c>
       <c r="W26" t="n">
-        <v>18.59999999999999</v>
+        <v>16.79999999999999</v>
       </c>
       <c r="X26" t="n">
         <v>27.7</v>
@@ -14578,7 +14578,7 @@
         <v>-27.8</v>
       </c>
       <c r="AL26" t="n">
-        <v>11.1</v>
+        <v>8</v>
       </c>
       <c r="AM26" t="n">
         <v>28</v>
@@ -14587,7 +14587,7 @@
         <v>-36.1</v>
       </c>
       <c r="AO26" t="n">
-        <v>4.299999999999999</v>
+        <v>3.399999999999999</v>
       </c>
       <c r="AP26" t="n">
         <v>-6.2</v>
@@ -14596,7 +14596,7 @@
         <v>342.9</v>
       </c>
       <c r="AR26" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="AS26" t="n">
         <v>113.3</v>
@@ -14605,7 +14605,7 @@
         <v>-29.8</v>
       </c>
       <c r="AU26" t="n">
-        <v>49.80000000000003</v>
+        <v>26.30000000000004</v>
       </c>
       <c r="AV26" t="n">
         <v>124</v>
@@ -14659,7 +14659,7 @@
         <v>-51.4</v>
       </c>
       <c r="BM26" t="n">
-        <v>62.89999999999998</v>
+        <v>62.49999999999997</v>
       </c>
       <c r="BN26" t="n">
         <v>665.3</v>
@@ -14677,7 +14677,7 @@
         <v>-27.7</v>
       </c>
       <c r="BS26" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="BT26" t="n">
         <v>177.4</v>
@@ -14839,7 +14839,7 @@
         <v>-19.5</v>
       </c>
       <c r="DU26" t="n">
-        <v>5.999999999999989</v>
+        <v>4.299999999999979</v>
       </c>
       <c r="DV26" t="n">
         <v>72.8</v>
@@ -14866,7 +14866,7 @@
         <v>-61.8</v>
       </c>
       <c r="ED26" t="n">
-        <v>11.40000000000001</v>
+        <v>3.20000000000001</v>
       </c>
       <c r="EE26" t="n">
         <v>80.8</v>
@@ -15026,7 +15026,7 @@
         <v>16.2</v>
       </c>
       <c r="E27" t="n">
-        <v>44</v>
+        <v>37.90000000000001</v>
       </c>
       <c r="F27" t="n">
         <v>196.2</v>
@@ -15044,7 +15044,7 @@
         <v>-16.4</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L27" t="n">
         <v>0.2</v>
@@ -15053,7 +15053,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>29.40000000000009</v>
+        <v>20.60000000000008</v>
       </c>
       <c r="O27" t="n">
         <v>636.3</v>
@@ -15062,7 +15062,7 @@
         <v>20.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>465.2999999999965</v>
+        <v>6.099999999997067</v>
       </c>
       <c r="R27" t="n">
         <v>14948.5</v>
@@ -15071,7 +15071,7 @@
         <v>-16.5</v>
       </c>
       <c r="T27" t="n">
-        <v>319</v>
+        <v>307.1999999999999</v>
       </c>
       <c r="U27" t="n">
         <v>998.6</v>
@@ -15089,7 +15089,7 @@
         <v>-61.9</v>
       </c>
       <c r="Z27" t="n">
-        <v>50.70000000000022</v>
+        <v>21.70000000000033</v>
       </c>
       <c r="AA27" t="n">
         <v>1215.1</v>
@@ -15098,7 +15098,7 @@
         <v>0.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.300000000000011</v>
+        <v>0.7000000000000313</v>
       </c>
       <c r="AD27" t="n">
         <v>112.6</v>
@@ -15107,7 +15107,7 @@
         <v>-15.1</v>
       </c>
       <c r="AF27" t="n">
-        <v>39.40000000000001</v>
+        <v>26.80000000000002</v>
       </c>
       <c r="AG27" t="n">
         <v>92.3</v>
@@ -15134,7 +15134,7 @@
         <v>-25</v>
       </c>
       <c r="AO27" t="n">
-        <v>4.699999999999999</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="AP27" t="n">
         <v>-4.4</v>
@@ -15152,7 +15152,7 @@
         <v>-20.7</v>
       </c>
       <c r="AU27" t="n">
-        <v>103.8</v>
+        <v>53.99999999999996</v>
       </c>
       <c r="AV27" t="n">
         <v>191.2</v>
@@ -15170,7 +15170,7 @@
         <v>-15.9</v>
       </c>
       <c r="BA27" t="n">
-        <v>27.00000000000001</v>
+        <v>26.90000000000003</v>
       </c>
       <c r="BB27" t="n">
         <v>104.4</v>
@@ -15179,7 +15179,7 @@
         <v>-15</v>
       </c>
       <c r="BD27" t="n">
-        <v>108.5000000000001</v>
+        <v>90.3000000000001</v>
       </c>
       <c r="BE27" t="n">
         <v>460.9</v>
@@ -15197,7 +15197,7 @@
         <v>-19.7</v>
       </c>
       <c r="BJ27" t="n">
-        <v>229.6000000000001</v>
+        <v>207.1000000000001</v>
       </c>
       <c r="BK27" t="n">
         <v>1200.8</v>
@@ -15215,7 +15215,7 @@
         <v>28.8</v>
       </c>
       <c r="BP27" t="n">
-        <v>295.7</v>
+        <v>237.2</v>
       </c>
       <c r="BQ27" t="n">
         <v>790.4</v>
@@ -15260,7 +15260,7 @@
         <v>-11.4</v>
       </c>
       <c r="CE27" t="n">
-        <v>7.100000000000023</v>
+        <v>4.900000000000034</v>
       </c>
       <c r="CF27" t="n">
         <v>159</v>
@@ -15278,7 +15278,7 @@
         <v>-164.3</v>
       </c>
       <c r="CK27" t="n">
-        <v>157.1999999999999</v>
+        <v>152.2999999999999</v>
       </c>
       <c r="CL27" t="n">
         <v>204</v>
@@ -15287,7 +15287,7 @@
         <v>-75.7</v>
       </c>
       <c r="CN27" t="n">
-        <v>75.69999999999999</v>
+        <v>60.70000000000002</v>
       </c>
       <c r="CO27" t="n">
         <v>283</v>
@@ -15296,7 +15296,7 @@
         <v>-12</v>
       </c>
       <c r="CQ27" t="n">
-        <v>13.49999999999996</v>
+        <v>13.29999999999996</v>
       </c>
       <c r="CR27" t="n">
         <v>172.4</v>
@@ -15305,7 +15305,7 @@
         <v>-30.3</v>
       </c>
       <c r="CT27" t="n">
-        <v>237.5999999999997</v>
+        <v>130.2999999999996</v>
       </c>
       <c r="CU27" t="n">
         <v>1637.3</v>
@@ -15323,7 +15323,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="CZ27" t="n">
-        <v>12.40000000000003</v>
+        <v>8.300000000000029</v>
       </c>
       <c r="DA27" t="n">
         <v>203.3</v>
@@ -15332,7 +15332,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="DC27" t="n">
-        <v>69.40000000000001</v>
+        <v>68.19999999999999</v>
       </c>
       <c r="DD27" t="n">
         <v>823.1</v>
@@ -15341,7 +15341,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="DF27" t="n">
-        <v>548.7999999999997</v>
+        <v>474.1999999999998</v>
       </c>
       <c r="DG27" t="n">
         <v>1301.1</v>
@@ -15350,7 +15350,7 @@
         <v>-43.7</v>
       </c>
       <c r="DI27" t="n">
-        <v>1.700000000000006</v>
+        <v>0.9000000000000088</v>
       </c>
       <c r="DJ27" t="n">
         <v>20.2</v>
@@ -15359,7 +15359,7 @@
         <v>-28.9</v>
       </c>
       <c r="DL27" t="n">
-        <v>114.7</v>
+        <v>90.8</v>
       </c>
       <c r="DM27" t="n">
         <v>419.4</v>
@@ -15368,7 +15368,7 @@
         <v>-16.8</v>
       </c>
       <c r="DO27" t="n">
-        <v>29.3</v>
+        <v>15.49999999999999</v>
       </c>
       <c r="DP27" t="n">
         <v>162.4</v>
@@ -15377,7 +15377,7 @@
         <v>2.1</v>
       </c>
       <c r="DR27" t="n">
-        <v>380.1999999999998</v>
+        <v>336.7999999999996</v>
       </c>
       <c r="DS27" t="n">
         <v>1385</v>
@@ -15386,7 +15386,7 @@
         <v>-11.9</v>
       </c>
       <c r="DU27" t="n">
-        <v>7.900000000000013</v>
+        <v>1.900000000000023</v>
       </c>
       <c r="DV27" t="n">
         <v>104.6</v>
@@ -15404,7 +15404,7 @@
         <v>-0.6</v>
       </c>
       <c r="EA27" t="n">
-        <v>256.9000000000001</v>
+        <v>248.6000000000001</v>
       </c>
       <c r="EB27" t="n">
         <v>474.3</v>
@@ -15413,7 +15413,7 @@
         <v>-58.2</v>
       </c>
       <c r="ED27" t="n">
-        <v>18.3</v>
+        <v>6.899999999999991</v>
       </c>
       <c r="EE27" t="n">
         <v>105.1</v>
@@ -15564,7 +15564,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>158.3000000000001</v>
+        <v>144.0999999999999</v>
       </c>
       <c r="C28" t="n">
         <v>1133</v>
@@ -15573,7 +15573,7 @@
         <v>20.7</v>
       </c>
       <c r="E28" t="n">
-        <v>45.5</v>
+        <v>1.5</v>
       </c>
       <c r="F28" t="n">
         <v>281.9</v>
@@ -15582,7 +15582,7 @@
         <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>7.099999999999994</v>
+        <v>5.499999999999996</v>
       </c>
       <c r="I28" t="n">
         <v>37.6</v>
@@ -15600,7 +15600,7 @@
         <v>-25</v>
       </c>
       <c r="N28" t="n">
-        <v>106.9</v>
+        <v>77.49999999999991</v>
       </c>
       <c r="O28" t="n">
         <v>778.1</v>
@@ -15609,7 +15609,7 @@
         <v>16.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>3837.900000000001</v>
+        <v>3372.600000000004</v>
       </c>
       <c r="R28" t="n">
         <v>20527.8</v>
@@ -15627,7 +15627,7 @@
         <v>-32.6</v>
       </c>
       <c r="W28" t="n">
-        <v>15.90000000000001</v>
+        <v>11.59999999999999</v>
       </c>
       <c r="X28" t="n">
         <v>65.40000000000001</v>
@@ -15636,7 +15636,7 @@
         <v>-44.6</v>
       </c>
       <c r="Z28" t="n">
-        <v>207.8</v>
+        <v>157.0999999999998</v>
       </c>
       <c r="AA28" t="n">
         <v>1571</v>
@@ -15645,7 +15645,7 @@
         <v>2.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>33.20000000000002</v>
+        <v>26.90000000000001</v>
       </c>
       <c r="AD28" t="n">
         <v>147</v>
@@ -15663,7 +15663,7 @@
         <v>-30.6</v>
       </c>
       <c r="AI28" t="n">
-        <v>4775.700000000001</v>
+        <v>4314.499999999996</v>
       </c>
       <c r="AJ28" t="n">
         <v>24273.4</v>
@@ -15690,7 +15690,7 @@
         <v>-75.2</v>
       </c>
       <c r="AR28" t="n">
-        <v>11.10000000000008</v>
+        <v>7.900000000000119</v>
       </c>
       <c r="AS28" t="n">
         <v>206.9</v>
@@ -15708,7 +15708,7 @@
         <v>-33.4</v>
       </c>
       <c r="AX28" t="n">
-        <v>25.79999999999998</v>
+        <v>10.79999999999998</v>
       </c>
       <c r="AY28" t="n">
         <v>134.7</v>
@@ -15735,7 +15735,7 @@
         <v>14.1</v>
       </c>
       <c r="BG28" t="n">
-        <v>9.299999999999983</v>
+        <v>9.199999999999992</v>
       </c>
       <c r="BH28" t="n">
         <v>99.59999999999999</v>
@@ -15744,7 +15744,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="BJ28" t="n">
-        <v>261.7999999999997</v>
+        <v>32.19999999999962</v>
       </c>
       <c r="BK28" t="n">
         <v>1897.1</v>
@@ -15771,7 +15771,7 @@
         <v>-31.1</v>
       </c>
       <c r="BS28" t="n">
-        <v>46.59999999999997</v>
+        <v>19.99999999999995</v>
       </c>
       <c r="BT28" t="n">
         <v>296.9</v>
@@ -15798,7 +15798,7 @@
         <v>-11</v>
       </c>
       <c r="CB28" t="n">
-        <v>282.1000000000001</v>
+        <v>270.3</v>
       </c>
       <c r="CC28" t="n">
         <v>1395.2</v>
@@ -15807,7 +15807,7 @@
         <v>-6.1</v>
       </c>
       <c r="CE28" t="n">
-        <v>9.099999999999966</v>
+        <v>1.999999999999943</v>
       </c>
       <c r="CF28" t="n">
         <v>203.6</v>
@@ -15852,7 +15852,7 @@
         <v>-29</v>
       </c>
       <c r="CT28" t="n">
-        <v>356</v>
+        <v>118.4000000000003</v>
       </c>
       <c r="CU28" t="n">
         <v>2279.1</v>
@@ -15861,7 +15861,7 @@
         <v>28.2</v>
       </c>
       <c r="CW28" t="n">
-        <v>202.9000000000001</v>
+        <v>196.8000000000001</v>
       </c>
       <c r="CX28" t="n">
         <v>1066.3</v>
@@ -15870,7 +15870,7 @@
         <v>-2.1</v>
       </c>
       <c r="CZ28" t="n">
-        <v>40.19999999999999</v>
+        <v>27.79999999999996</v>
       </c>
       <c r="DA28" t="n">
         <v>244.5</v>
@@ -15879,7 +15879,7 @@
         <v>1.3</v>
       </c>
       <c r="DC28" t="n">
-        <v>143</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="DD28" t="n">
         <v>1103.6</v>
@@ -15897,7 +15897,7 @@
         <v>-43.2</v>
       </c>
       <c r="DI28" t="n">
-        <v>7.699999999999996</v>
+        <v>5.999999999999989</v>
       </c>
       <c r="DJ28" t="n">
         <v>16.3</v>
@@ -15915,7 +15915,7 @@
         <v>-12.3</v>
       </c>
       <c r="DO28" t="n">
-        <v>40</v>
+        <v>10.7</v>
       </c>
       <c r="DP28" t="n">
         <v>235.4</v>
@@ -15933,7 +15933,7 @@
         <v>-8.6</v>
       </c>
       <c r="DU28" t="n">
-        <v>29</v>
+        <v>21.09999999999999</v>
       </c>
       <c r="DV28" t="n">
         <v>130.5</v>
@@ -15942,7 +15942,7 @@
         <v>-5.6</v>
       </c>
       <c r="DX28" t="n">
-        <v>115.5</v>
+        <v>108.4</v>
       </c>
       <c r="DY28" t="n">
         <v>795.1</v>
@@ -16138,7 +16138,7 @@
         <v>-9.4</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="L29" t="n">
         <v>0.8</v>
@@ -16165,7 +16165,7 @@
         <v>-4.5</v>
       </c>
       <c r="T29" t="n">
-        <v>322.2000000000003</v>
+        <v>294.0000000000005</v>
       </c>
       <c r="U29" t="n">
         <v>1658.6</v>
@@ -16219,7 +16219,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AL29" t="n">
-        <v>14.30000000000001</v>
+        <v>8.700000000000019</v>
       </c>
       <c r="AM29" t="n">
         <v>74.5</v>
@@ -16228,7 +16228,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AO29" t="n">
-        <v>1.599999999999998</v>
+        <v>1.499999999999997</v>
       </c>
       <c r="AP29" t="n">
         <v>-6.5</v>
@@ -16282,7 +16282,7 @@
         <v>15.4</v>
       </c>
       <c r="BG29" t="n">
-        <v>33.40000000000001</v>
+        <v>24.10000000000003</v>
       </c>
       <c r="BH29" t="n">
         <v>143.5</v>
@@ -16300,7 +16300,7 @@
         <v>-4.2</v>
       </c>
       <c r="BM29" t="n">
-        <v>56.29999999999995</v>
+        <v>48.29999999999985</v>
       </c>
       <c r="BN29" t="n">
         <v>1036</v>
@@ -16327,7 +16327,7 @@
         <v>-1.3</v>
       </c>
       <c r="BV29" t="n">
-        <v>29.50000000000045</v>
+        <v>15.90000000000071</v>
       </c>
       <c r="BW29" t="n">
         <v>2667.2</v>
@@ -16336,7 +16336,7 @@
         <v>-4.3</v>
       </c>
       <c r="BY29" t="n">
-        <v>38.39999999999981</v>
+        <v>4.199999999999875</v>
       </c>
       <c r="BZ29" t="n">
         <v>2175</v>
@@ -16354,7 +16354,7 @@
         <v>-3.8</v>
       </c>
       <c r="CE29" t="n">
-        <v>13.80000000000001</v>
+        <v>4.700000000000044</v>
       </c>
       <c r="CF29" t="n">
         <v>274.8</v>
@@ -16390,7 +16390,7 @@
         <v>-4.6</v>
       </c>
       <c r="CQ29" t="n">
-        <v>69.19999999999999</v>
+        <v>61.69999999999993</v>
       </c>
       <c r="CR29" t="n">
         <v>281.2</v>
@@ -16453,7 +16453,7 @@
         <v>-46.1</v>
       </c>
       <c r="DL29" t="n">
-        <v>131.5</v>
+        <v>113.4</v>
       </c>
       <c r="DM29" t="n">
         <v>693</v>
@@ -16471,7 +16471,7 @@
         <v>5</v>
       </c>
       <c r="DR29" t="n">
-        <v>379.3999999999996</v>
+        <v>347.3999999999991</v>
       </c>
       <c r="DS29" t="n">
         <v>2204.5</v>
@@ -16507,7 +16507,7 @@
         <v>-32.6</v>
       </c>
       <c r="ED29" t="n">
-        <v>28.30000000000001</v>
+        <v>10.70000000000002</v>
       </c>
       <c r="EE29" t="n">
         <v>176.9</v>
@@ -16667,7 +16667,7 @@
         <v>22.8</v>
       </c>
       <c r="E30" t="n">
-        <v>18.59999999999997</v>
+        <v>11.79999999999996</v>
       </c>
       <c r="F30" t="n">
         <v>415.6</v>
@@ -16703,7 +16703,7 @@
         <v>18.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>721.0999999999995</v>
+        <v>458.0000000000005</v>
       </c>
       <c r="R30" t="n">
         <v>30413.1</v>
@@ -16721,7 +16721,7 @@
         <v>-22.8</v>
       </c>
       <c r="W30" t="n">
-        <v>9.499999999999968</v>
+        <v>1.999999999999968</v>
       </c>
       <c r="X30" t="n">
         <v>101.8</v>
@@ -16730,7 +16730,7 @@
         <v>-35.3</v>
       </c>
       <c r="Z30" t="n">
-        <v>91.79999999999973</v>
+        <v>74.19999999999965</v>
       </c>
       <c r="AA30" t="n">
         <v>2119.3</v>
@@ -16739,7 +16739,7 @@
         <v>8.1</v>
       </c>
       <c r="AC30" t="n">
-        <v>3.100000000000023</v>
+        <v>0.400000000000063</v>
       </c>
       <c r="AD30" t="n">
         <v>212.4</v>
@@ -16748,7 +16748,7 @@
         <v>-11.4</v>
       </c>
       <c r="AF30" t="n">
-        <v>34.80000000000001</v>
+        <v>22.59999999999997</v>
       </c>
       <c r="AG30" t="n">
         <v>187.5</v>
@@ -16757,7 +16757,7 @@
         <v>-27.1</v>
       </c>
       <c r="AI30" t="n">
-        <v>738.3000000000011</v>
+        <v>506.9000000000024</v>
       </c>
       <c r="AJ30" t="n">
         <v>35984.2</v>
@@ -16775,7 +16775,7 @@
         <v>-4.8</v>
       </c>
       <c r="AO30" t="n">
-        <v>1.699999999999999</v>
+        <v>0.100000000000001</v>
       </c>
       <c r="AP30" t="n">
         <v>-5</v>
@@ -16784,7 +16784,7 @@
         <v>-132.3</v>
       </c>
       <c r="AR30" t="n">
-        <v>55.19999999999999</v>
+        <v>51.80000000000008</v>
       </c>
       <c r="AS30" t="n">
         <v>306.2</v>
@@ -16811,7 +16811,7 @@
         <v>0</v>
       </c>
       <c r="BA30" t="n">
-        <v>29.39999999999998</v>
+        <v>24.39999999999998</v>
       </c>
       <c r="BB30" t="n">
         <v>174.5</v>
@@ -16820,7 +16820,7 @@
         <v>-14.4</v>
       </c>
       <c r="BD30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BE30" t="n">
         <v>921.2</v>
@@ -16838,7 +16838,7 @@
         <v>4.9</v>
       </c>
       <c r="BJ30" t="n">
-        <v>101.4000000000001</v>
+        <v>9.799999999999741</v>
       </c>
       <c r="BK30" t="n">
         <v>3059</v>
@@ -16874,7 +16874,7 @@
         <v>0.7</v>
       </c>
       <c r="BV30" t="n">
-        <v>437.5</v>
+        <v>407.9999999999995</v>
       </c>
       <c r="BW30" t="n">
         <v>3252.7</v>
@@ -16883,7 +16883,7 @@
         <v>0.1</v>
       </c>
       <c r="BY30" t="n">
-        <v>355.1000000000004</v>
+        <v>316.7000000000006</v>
       </c>
       <c r="BZ30" t="n">
         <v>2667</v>
@@ -16892,7 +16892,7 @@
         <v>-0.3</v>
       </c>
       <c r="CB30" t="n">
-        <v>46.59999999999991</v>
+        <v>4.60000000000008</v>
       </c>
       <c r="CC30" t="n">
         <v>2071.6</v>
@@ -16901,7 +16901,7 @@
         <v>-1</v>
       </c>
       <c r="CE30" t="n">
-        <v>48.40000000000003</v>
+        <v>34.60000000000002</v>
       </c>
       <c r="CF30" t="n">
         <v>319.9</v>
@@ -16910,7 +16910,7 @@
         <v>-26.8</v>
       </c>
       <c r="CH30" t="n">
-        <v>68.09999999999988</v>
+        <v>60.79999999999993</v>
       </c>
       <c r="CI30" t="n">
         <v>127.4</v>
@@ -16946,7 +16946,7 @@
         <v>-27.1</v>
       </c>
       <c r="CT30" t="n">
-        <v>240.6999999999994</v>
+        <v>143.9999999999991</v>
       </c>
       <c r="CU30" t="n">
         <v>3269.3</v>
@@ -16973,7 +16973,7 @@
         <v>9.1</v>
       </c>
       <c r="DC30" t="n">
-        <v>65.3000000000001</v>
+        <v>44.50000000000009</v>
       </c>
       <c r="DD30" t="n">
         <v>1433.6</v>
@@ -16991,7 +16991,7 @@
         <v>-39.1</v>
       </c>
       <c r="DI30" t="n">
-        <v>6.799999999999997</v>
+        <v>5.79999999999999</v>
       </c>
       <c r="DJ30" t="n">
         <v>31.7</v>
@@ -17036,7 +17036,7 @@
         <v>-2.2</v>
       </c>
       <c r="DX30" t="n">
-        <v>134.7</v>
+        <v>108.2999999999999</v>
       </c>
       <c r="DY30" t="n">
         <v>1137.3</v>
@@ -17205,7 +17205,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>182.4000000000001</v>
+        <v>177.8000000000002</v>
       </c>
       <c r="C31" t="n">
         <v>1800.3</v>
@@ -17214,7 +17214,7 @@
         <v>22.6</v>
       </c>
       <c r="E31" t="n">
-        <v>62</v>
+        <v>43.40000000000003</v>
       </c>
       <c r="F31" t="n">
         <v>501.2</v>
@@ -17223,7 +17223,7 @@
         <v>13.3</v>
       </c>
       <c r="H31" t="n">
-        <v>7.599999999999994</v>
+        <v>4.999999999999986</v>
       </c>
       <c r="I31" t="n">
         <v>62.4</v>
@@ -17232,7 +17232,7 @@
         <v>-7.4</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L31" t="n">
         <v>1.2</v>
@@ -17241,7 +17241,7 @@
         <v>71.40000000000001</v>
       </c>
       <c r="N31" t="n">
-        <v>171.3999999999999</v>
+        <v>149.7999999999998</v>
       </c>
       <c r="O31" t="n">
         <v>1294</v>
@@ -17250,7 +17250,7 @@
         <v>17.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>4061.400000000001</v>
+        <v>3340.300000000002</v>
       </c>
       <c r="R31" t="n">
         <v>35838.7</v>
@@ -17259,7 +17259,7 @@
         <v>0.9</v>
       </c>
       <c r="T31" t="n">
-        <v>2504.4</v>
+        <v>2459.6</v>
       </c>
       <c r="U31" t="n">
         <v>2449.2</v>
@@ -17268,7 +17268,7 @@
         <v>-18.4</v>
       </c>
       <c r="W31" t="n">
-        <v>30.20000000000002</v>
+        <v>20.70000000000005</v>
       </c>
       <c r="X31" t="n">
         <v>118</v>
@@ -17277,7 +17277,7 @@
         <v>-38</v>
       </c>
       <c r="Z31" t="n">
-        <v>240.2000000000003</v>
+        <v>148.4000000000006</v>
       </c>
       <c r="AA31" t="n">
         <v>2476.4</v>
@@ -17304,7 +17304,7 @@
         <v>-22.7</v>
       </c>
       <c r="AI31" t="n">
-        <v>4888.400000000001</v>
+        <v>4150.099999999999</v>
       </c>
       <c r="AJ31" t="n">
         <v>42251.3</v>
@@ -17313,7 +17313,7 @@
         <v>-2.9</v>
       </c>
       <c r="AL31" t="n">
-        <v>17</v>
+        <v>14.10000000000002</v>
       </c>
       <c r="AM31" t="n">
         <v>104.1</v>
@@ -17340,7 +17340,7 @@
         <v>-17.3</v>
       </c>
       <c r="AU31" t="n">
-        <v>104.3</v>
+        <v>92.30000000000004</v>
       </c>
       <c r="AV31" t="n">
         <v>762.7</v>
@@ -17349,7 +17349,7 @@
         <v>2.9</v>
       </c>
       <c r="AX31" t="n">
-        <v>28</v>
+        <v>24.59999999999999</v>
       </c>
       <c r="AY31" t="n">
         <v>248.6</v>
@@ -17367,7 +17367,7 @@
         <v>-13.6</v>
       </c>
       <c r="BD31" t="n">
-        <v>14.6999999999999</v>
+        <v>8.6999999999999</v>
       </c>
       <c r="BE31" t="n">
         <v>1066.9</v>
@@ -17385,7 +17385,7 @@
         <v>16.2</v>
       </c>
       <c r="BJ31" t="n">
-        <v>437.4000000000001</v>
+        <v>336</v>
       </c>
       <c r="BK31" t="n">
         <v>3573.7</v>
@@ -17394,7 +17394,7 @@
         <v>4.7</v>
       </c>
       <c r="BM31" t="n">
-        <v>53.59999999999991</v>
+        <v>7.699999999999847</v>
       </c>
       <c r="BN31" t="n">
         <v>1266.3</v>
@@ -17403,7 +17403,7 @@
         <v>27.9</v>
       </c>
       <c r="BP31" t="n">
-        <v>239</v>
+        <v>218.5000000000002</v>
       </c>
       <c r="BQ31" t="n">
         <v>1569</v>
@@ -17412,7 +17412,7 @@
         <v>-29.3</v>
       </c>
       <c r="BS31" t="n">
-        <v>37</v>
+        <v>17.80000000000001</v>
       </c>
       <c r="BT31" t="n">
         <v>456.8</v>
@@ -17439,7 +17439,7 @@
         <v>0.9</v>
       </c>
       <c r="CB31" t="n">
-        <v>335.4000000000001</v>
+        <v>288.8000000000002</v>
       </c>
       <c r="CC31" t="n">
         <v>2544.7</v>
@@ -17466,7 +17466,7 @@
         <v>-64.2</v>
       </c>
       <c r="CK31" t="n">
-        <v>103.5</v>
+        <v>73.7</v>
       </c>
       <c r="CL31" t="n">
         <v>371.4</v>
@@ -17493,7 +17493,7 @@
         <v>-24.2</v>
       </c>
       <c r="CT31" t="n">
-        <v>547.2000000000003</v>
+        <v>306.5000000000009</v>
       </c>
       <c r="CU31" t="n">
         <v>3785.7</v>
@@ -17511,7 +17511,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="CZ31" t="n">
-        <v>18.89999999999998</v>
+        <v>18.79999999999996</v>
       </c>
       <c r="DA31" t="n">
         <v>443.3</v>
@@ -17520,7 +17520,7 @@
         <v>15.1</v>
       </c>
       <c r="DC31" t="n">
-        <v>125.0999999999999</v>
+        <v>59.7999999999998</v>
       </c>
       <c r="DD31" t="n">
         <v>1746.7</v>
@@ -17529,7 +17529,7 @@
         <v>4.8</v>
       </c>
       <c r="DF31" t="n">
-        <v>435.3000000000002</v>
+        <v>393.3999999999996</v>
       </c>
       <c r="DG31" t="n">
         <v>2664.7</v>
@@ -17556,7 +17556,7 @@
         <v>-3.1</v>
       </c>
       <c r="DO31" t="n">
-        <v>45.30000000000001</v>
+        <v>40.79999999999996</v>
       </c>
       <c r="DP31" t="n">
         <v>385.2</v>
@@ -17565,7 +17565,7 @@
         <v>4.4</v>
       </c>
       <c r="DR31" t="n">
-        <v>52.30000000000018</v>
+        <v>48.29999999999967</v>
       </c>
       <c r="DS31" t="n">
         <v>3069.3</v>
@@ -17833,7 +17833,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AC32" t="n">
-        <v>5.800000000000011</v>
+        <v>4.300000000000011</v>
       </c>
       <c r="AD32" t="n">
         <v>292.6</v>
@@ -17842,7 +17842,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AF32" t="n">
-        <v>14.40000000000011</v>
+        <v>6.900000000000174</v>
       </c>
       <c r="AG32" t="n">
         <v>266.7</v>
@@ -17869,7 +17869,7 @@
         <v>-5.1</v>
       </c>
       <c r="AO32" t="n">
-        <v>1</v>
+        <v>0.1999999999999991</v>
       </c>
       <c r="AP32" t="n">
         <v>-9.699999999999999</v>
@@ -17878,7 +17878,7 @@
         <v>-149.2</v>
       </c>
       <c r="AR32" t="n">
-        <v>29.5</v>
+        <v>28.09999999999997</v>
       </c>
       <c r="AS32" t="n">
         <v>422.5</v>
@@ -17905,7 +17905,7 @@
         <v>9.1</v>
       </c>
       <c r="BA32" t="n">
-        <v>8.799999999999962</v>
+        <v>5.299999999999915</v>
       </c>
       <c r="BB32" t="n">
         <v>232</v>
@@ -17914,7 +17914,7 @@
         <v>-12.8</v>
       </c>
       <c r="BD32" t="n">
-        <v>17.30000000000021</v>
+        <v>2.600000000000311</v>
       </c>
       <c r="BE32" t="n">
         <v>1251.5</v>
@@ -18004,7 +18004,7 @@
         <v>-23.3</v>
       </c>
       <c r="CH32" t="n">
-        <v>106.5</v>
+        <v>82.59999999999991</v>
       </c>
       <c r="CI32" t="n">
         <v>495.6</v>
@@ -18022,7 +18022,7 @@
         <v>-74.90000000000001</v>
       </c>
       <c r="CN32" t="n">
-        <v>33.20000000000005</v>
+        <v>31.9000000000001</v>
       </c>
       <c r="CO32" t="n">
         <v>735.8</v>
@@ -18049,7 +18049,7 @@
         <v>12.3</v>
       </c>
       <c r="CW32" t="n">
-        <v>71.80000000000018</v>
+        <v>49.10000000000036</v>
       </c>
       <c r="CX32" t="n">
         <v>2077.4</v>
@@ -18085,7 +18085,7 @@
         <v>-36.1</v>
       </c>
       <c r="DI32" t="n">
-        <v>55.59999999999999</v>
+        <v>53.89999999999998</v>
       </c>
       <c r="DJ32" t="n">
         <v>48</v>
@@ -18094,7 +18094,7 @@
         <v>-30.3</v>
       </c>
       <c r="DL32" t="n">
-        <v>48.70000000000002</v>
+        <v>28.30000000000003</v>
       </c>
       <c r="DM32" t="n">
         <v>1142.7</v>
@@ -18112,7 +18112,7 @@
         <v>5</v>
       </c>
       <c r="DR32" t="n">
-        <v>91.19999999999936</v>
+        <v>38.89999999999918</v>
       </c>
       <c r="DS32" t="n">
         <v>3572</v>
@@ -18139,7 +18139,7 @@
         <v>11</v>
       </c>
       <c r="EA32" t="n">
-        <v>72.80000000000001</v>
+        <v>64.80000000000001</v>
       </c>
       <c r="EB32" t="n">
         <v>1753.1</v>
@@ -18148,7 +18148,7 @@
         <v>-16.3</v>
       </c>
       <c r="ED32" t="n">
-        <v>25.30000000000001</v>
+        <v>17.09999999999999</v>
       </c>
       <c r="EE32" t="n">
         <v>313.5</v>
@@ -18299,7 +18299,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>244.4000000000001</v>
+        <v>173.8000000000002</v>
       </c>
       <c r="C33" t="n">
         <v>2357.6</v>
@@ -18317,7 +18317,7 @@
         <v>13.7</v>
       </c>
       <c r="H33" t="n">
-        <v>8.299999999999997</v>
+        <v>5.999999999999986</v>
       </c>
       <c r="I33" t="n">
         <v>79.3</v>
@@ -18326,7 +18326,7 @@
         <v>-6.6</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="L33" t="n">
         <v>0.9</v>
@@ -18335,7 +18335,7 @@
         <v>12.5</v>
       </c>
       <c r="N33" t="n">
-        <v>80.39999999999992</v>
+        <v>14.39999999999972</v>
       </c>
       <c r="O33" t="n">
         <v>1646.1</v>
@@ -18344,7 +18344,7 @@
         <v>8.9</v>
       </c>
       <c r="Q33" t="n">
-        <v>5203.199999999997</v>
+        <v>4038.299999999995</v>
       </c>
       <c r="R33" t="n">
         <v>47465.7</v>
@@ -18371,7 +18371,7 @@
         <v>-28.9</v>
       </c>
       <c r="Z33" t="n">
-        <v>22.79999999999973</v>
+        <v>9.50000000000003</v>
       </c>
       <c r="AA33" t="n">
         <v>3110.1</v>
@@ -18380,7 +18380,7 @@
         <v>12.2</v>
       </c>
       <c r="AC33" t="n">
-        <v>11.30000000000001</v>
+        <v>5.499999999999998</v>
       </c>
       <c r="AD33" t="n">
         <v>342</v>
@@ -18398,7 +18398,7 @@
         <v>-17.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>5439.5</v>
+        <v>4144.100000000005</v>
       </c>
       <c r="AJ33" t="n">
         <v>55649.9</v>
@@ -18407,7 +18407,7 @@
         <v>2</v>
       </c>
       <c r="AL33" t="n">
-        <v>20.40000000000001</v>
+        <v>14.40000000000001</v>
       </c>
       <c r="AM33" t="n">
         <v>128.2</v>
@@ -18416,7 +18416,7 @@
         <v>-16.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP33" t="n">
         <v>-8.4</v>
@@ -18434,7 +18434,7 @@
         <v>-13.6</v>
       </c>
       <c r="AU33" t="n">
-        <v>28.30000000000001</v>
+        <v>6.500000000000011</v>
       </c>
       <c r="AV33" t="n">
         <v>1058</v>
@@ -18443,7 +18443,7 @@
         <v>8.9</v>
       </c>
       <c r="AX33" t="n">
-        <v>24.89999999999998</v>
+        <v>22.79999999999996</v>
       </c>
       <c r="AY33" t="n">
         <v>333.7</v>
@@ -18461,7 +18461,7 @@
         <v>-13.2</v>
       </c>
       <c r="BD33" t="n">
-        <v>19.69999999999968</v>
+        <v>2.399999999999469</v>
       </c>
       <c r="BE33" t="n">
         <v>1450.6</v>
@@ -18470,7 +18470,7 @@
         <v>25.5</v>
       </c>
       <c r="BG33" t="n">
-        <v>4.099999999999966</v>
+        <v>2.499999999999968</v>
       </c>
       <c r="BH33" t="n">
         <v>321.9</v>
@@ -18479,7 +18479,7 @@
         <v>21.6</v>
       </c>
       <c r="BJ33" t="n">
-        <v>411.5</v>
+        <v>338.2000000000003</v>
       </c>
       <c r="BK33" t="n">
         <v>4720.4</v>
@@ -18488,7 +18488,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="BM33" t="n">
-        <v>917.5999999999999</v>
+        <v>908.3999999999999</v>
       </c>
       <c r="BN33" t="n">
         <v>1413.1</v>
@@ -18506,7 +18506,7 @@
         <v>-23.7</v>
       </c>
       <c r="BS33" t="n">
-        <v>26.2000000000001</v>
+        <v>10.70000000000016</v>
       </c>
       <c r="BT33" t="n">
         <v>576.3</v>
@@ -18524,7 +18524,7 @@
         <v>4.5</v>
       </c>
       <c r="BY33" t="n">
-        <v>3347.8</v>
+        <v>3249.4</v>
       </c>
       <c r="BZ33" t="n">
         <v>3895.3</v>
@@ -18533,7 +18533,7 @@
         <v>3.1</v>
       </c>
       <c r="CB33" t="n">
-        <v>51.20000000000027</v>
+        <v>9.100000000000364</v>
       </c>
       <c r="CC33" t="n">
         <v>3384.7</v>
@@ -18542,7 +18542,7 @@
         <v>6.6</v>
       </c>
       <c r="CE33" t="n">
-        <v>25.29999999999995</v>
+        <v>21.09999999999984</v>
       </c>
       <c r="CF33" t="n">
         <v>464.1</v>
@@ -18560,7 +18560,7 @@
         <v>-41.7</v>
       </c>
       <c r="CK33" t="n">
-        <v>1498.7</v>
+        <v>1481</v>
       </c>
       <c r="CL33" t="n">
         <v>371.8</v>
@@ -18569,7 +18569,7 @@
         <v>-77.3</v>
       </c>
       <c r="CN33" t="n">
-        <v>45.40000000000009</v>
+        <v>12.20000000000004</v>
       </c>
       <c r="CO33" t="n">
         <v>854</v>
@@ -18596,7 +18596,7 @@
         <v>15.8</v>
       </c>
       <c r="CW33" t="n">
-        <v>220.9000000000001</v>
+        <v>149.0999999999999</v>
       </c>
       <c r="CX33" t="n">
         <v>2403.6</v>
@@ -18605,7 +18605,7 @@
         <v>12</v>
       </c>
       <c r="CZ33" t="n">
-        <v>79.29999999999995</v>
+        <v>65.59999999999991</v>
       </c>
       <c r="DA33" t="n">
         <v>632.6</v>
@@ -18614,7 +18614,7 @@
         <v>17.1</v>
       </c>
       <c r="DC33" t="n">
-        <v>82.10000000000022</v>
+        <v>51.50000000000013</v>
       </c>
       <c r="DD33" t="n">
         <v>2065.3</v>
@@ -18623,7 +18623,7 @@
         <v>6</v>
       </c>
       <c r="DF33" t="n">
-        <v>160.1000000000004</v>
+        <v>145.3000000000011</v>
       </c>
       <c r="DG33" t="n">
         <v>3390.7</v>
@@ -18641,7 +18641,7 @@
         <v>-12</v>
       </c>
       <c r="DL33" t="n">
-        <v>49.60000000000008</v>
+        <v>0.9000000000000625</v>
       </c>
       <c r="DM33" t="n">
         <v>1353.7</v>
@@ -18650,7 +18650,7 @@
         <v>2.2</v>
       </c>
       <c r="DO33" t="n">
-        <v>73.90000000000002</v>
+        <v>68.30000000000005</v>
       </c>
       <c r="DP33" t="n">
         <v>497.7</v>
@@ -18659,7 +18659,7 @@
         <v>7</v>
       </c>
       <c r="DR33" t="n">
-        <v>465.8000000000002</v>
+        <v>374.6000000000008</v>
       </c>
       <c r="DS33" t="n">
         <v>4122.9</v>
@@ -18668,7 +18668,7 @@
         <v>0.8</v>
       </c>
       <c r="DU33" t="n">
-        <v>26.89999999999998</v>
+        <v>25.5</v>
       </c>
       <c r="DV33" t="n">
         <v>289</v>
@@ -18677,7 +18677,7 @@
         <v>0.2</v>
       </c>
       <c r="DX33" t="n">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="DY33" t="n">
         <v>1553.9</v>
@@ -18695,7 +18695,7 @@
         <v>-12.2</v>
       </c>
       <c r="ED33" t="n">
-        <v>210.6</v>
+        <v>185.3</v>
       </c>
       <c r="EE33" t="n">
         <v>347.7</v>
@@ -18855,7 +18855,7 @@
         <v>26</v>
       </c>
       <c r="E34" t="n">
-        <v>6.5</v>
+        <v>3.199999999999932</v>
       </c>
       <c r="F34" t="n">
         <v>778.2</v>
@@ -18882,7 +18882,7 @@
         <v>25</v>
       </c>
       <c r="N34" t="n">
-        <v>210.2</v>
+        <v>129.8000000000001</v>
       </c>
       <c r="O34" t="n">
         <v>1940.5</v>
@@ -18918,7 +18918,7 @@
         <v>-16.2</v>
       </c>
       <c r="Z34" t="n">
-        <v>133.3000000000003</v>
+        <v>110.5000000000006</v>
       </c>
       <c r="AA34" t="n">
         <v>3435.8</v>
@@ -18927,7 +18927,7 @@
         <v>12.7</v>
       </c>
       <c r="AC34" t="n">
-        <v>15.1</v>
+        <v>3.79999999999999</v>
       </c>
       <c r="AD34" t="n">
         <v>395.9</v>
@@ -18936,7 +18936,7 @@
         <v>-6.4</v>
       </c>
       <c r="AF34" t="n">
-        <v>13.4</v>
+        <v>8.200000000000076</v>
       </c>
       <c r="AG34" t="n">
         <v>401.1</v>
@@ -18972,7 +18972,7 @@
         <v>7.6</v>
       </c>
       <c r="AR34" t="n">
-        <v>43.8</v>
+        <v>41.3</v>
       </c>
       <c r="AS34" t="n">
         <v>610.3</v>
@@ -18981,7 +18981,7 @@
         <v>-9</v>
       </c>
       <c r="AU34" t="n">
-        <v>76.8</v>
+        <v>48.49999999999999</v>
       </c>
       <c r="AV34" t="n">
         <v>1371.2</v>
@@ -18999,7 +18999,7 @@
         <v>14</v>
       </c>
       <c r="BA34" t="n">
-        <v>24.3</v>
+        <v>18.10000000000001</v>
       </c>
       <c r="BB34" t="n">
         <v>321.8</v>
@@ -19008,7 +19008,7 @@
         <v>-9.5</v>
       </c>
       <c r="BD34" t="n">
-        <v>55.5</v>
+        <v>35.80000000000032</v>
       </c>
       <c r="BE34" t="n">
         <v>1625.3</v>
@@ -19053,7 +19053,7 @@
         <v>-19.7</v>
       </c>
       <c r="BS34" t="n">
-        <v>64.59999999999999</v>
+        <v>38.39999999999989</v>
       </c>
       <c r="BT34" t="n">
         <v>682.1</v>
@@ -19062,7 +19062,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="BV34" t="n">
-        <v>438.6999999999996</v>
+        <v>362.5999999999992</v>
       </c>
       <c r="BW34" t="n">
         <v>4904.2</v>
@@ -19080,7 +19080,7 @@
         <v>3.4</v>
       </c>
       <c r="CB34" t="n">
-        <v>78.3</v>
+        <v>27.09999999999972</v>
       </c>
       <c r="CC34" t="n">
         <v>3824.7</v>
@@ -19089,7 +19089,7 @@
         <v>6.1</v>
       </c>
       <c r="CE34" t="n">
-        <v>52.4</v>
+        <v>27.10000000000005</v>
       </c>
       <c r="CF34" t="n">
         <v>535.5</v>
@@ -19125,7 +19125,7 @@
         <v>5.8</v>
       </c>
       <c r="CQ34" t="n">
-        <v>53.9</v>
+        <v>48.79999999999998</v>
       </c>
       <c r="CR34" t="n">
         <v>610.1</v>
@@ -19170,7 +19170,7 @@
         <v>9.5</v>
       </c>
       <c r="DF34" t="n">
-        <v>387.0999999999997</v>
+        <v>226.9999999999993</v>
       </c>
       <c r="DG34" t="n">
         <v>3508.2</v>
@@ -19188,7 +19188,7 @@
         <v>-31.2</v>
       </c>
       <c r="DL34" t="n">
-        <v>78</v>
+        <v>28.39999999999992</v>
       </c>
       <c r="DM34" t="n">
         <v>1578.2</v>
@@ -19233,7 +19233,7 @@
         <v>6.9</v>
       </c>
       <c r="EA34" t="n">
-        <v>116.9</v>
+        <v>56.49999999999991</v>
       </c>
       <c r="EB34" t="n">
         <v>2261.7</v>
@@ -19393,7 +19393,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>131.8</v>
+        <v>63.80000000000001</v>
       </c>
       <c r="C35" t="n">
         <v>380.9</v>
@@ -19402,7 +19402,7 @@
         <v>460.1</v>
       </c>
       <c r="E35" t="n">
-        <v>45.8</v>
+        <v>39.3</v>
       </c>
       <c r="F35" t="n">
         <v>68.2</v>
@@ -19447,7 +19447,7 @@
         <v>224.7</v>
       </c>
       <c r="T35" t="n">
-        <v>73.80000000000001</v>
+        <v>33.00000000000021</v>
       </c>
       <c r="U35" t="n">
         <v>910.3</v>
@@ -19465,7 +19465,7 @@
         <v>927</v>
       </c>
       <c r="Z35" t="n">
-        <v>195.6999999999999</v>
+        <v>62.39999999999961</v>
       </c>
       <c r="AA35" t="n">
         <v>800.1</v>
@@ -19510,7 +19510,7 @@
         <v>118.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>21.8</v>
+        <v>40.2</v>
       </c>
       <c r="AP35" t="n">
         <v>-14.2</v>
@@ -19535,7 +19535,7 @@
         <v>270.4</v>
       </c>
       <c r="AX35" t="n">
-        <v>23.1</v>
+        <v>21.49999999999998</v>
       </c>
       <c r="AY35" t="n">
         <v>65.40000000000001</v>
@@ -19571,7 +19571,7 @@
         <v>715.8</v>
       </c>
       <c r="BJ35" t="n">
-        <v>78.90000000000001</v>
+        <v>49.10000000000001</v>
       </c>
       <c r="BK35" t="n">
         <v>819.5</v>
@@ -19625,7 +19625,7 @@
         <v>46</v>
       </c>
       <c r="CB35" t="n">
-        <v>133.8</v>
+        <v>55.50000000000001</v>
       </c>
       <c r="CC35" t="n">
         <v>438.3</v>
@@ -19677,14 +19677,14 @@
         <v>37.7</v>
       </c>
       <c r="CT35" t="n">
-        <v>538.5000000000001</v>
+        <v>539.2000000000002</v>
       </c>
       <c r="CU35" t="n">
         <v>756.1</v>
       </c>
       <c r="CV35" t="inlineStr"/>
       <c r="CW35" t="n">
-        <v>120.6</v>
+        <v>49.59999999999999</v>
       </c>
       <c r="CX35" t="n">
         <v>331.5</v>
@@ -19702,7 +19702,7 @@
         <v>189.5</v>
       </c>
       <c r="DC35" t="n">
-        <v>234.4</v>
+        <v>171.2000000000002</v>
       </c>
       <c r="DD35" t="n">
         <v>489.9</v>
@@ -19738,7 +19738,7 @@
         <v>185.3</v>
       </c>
       <c r="DO35" t="n">
-        <v>44.3</v>
+        <v>39.2</v>
       </c>
       <c r="DP35" t="n">
         <v>41.8</v>
@@ -19783,7 +19783,7 @@
         <v>305.5</v>
       </c>
       <c r="ED35" t="n">
-        <v>13.3</v>
+        <v>10.4</v>
       </c>
       <c r="EE35" t="n">
         <v>104.9</v>
@@ -19952,7 +19952,7 @@
         <v>126.7</v>
       </c>
       <c r="H36" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>20.1</v>
@@ -19979,7 +19979,7 @@
         <v>28.3</v>
       </c>
       <c r="Q36" t="n">
-        <v>1243</v>
+        <v>1122.2</v>
       </c>
       <c r="R36" t="n">
         <v>15020.8</v>
@@ -19997,7 +19997,7 @@
         <v>356.3</v>
       </c>
       <c r="W36" t="n">
-        <v>6.300000000000001</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="X36" t="n">
         <v>133.7</v>
@@ -20024,7 +20024,7 @@
         <v>49.4</v>
       </c>
       <c r="AF36" t="n">
-        <v>23.7</v>
+        <v>13.2</v>
       </c>
       <c r="AG36" t="n">
         <v>65.5</v>
@@ -20042,7 +20042,7 @@
         <v>141.6</v>
       </c>
       <c r="AL36" t="n">
-        <v>9.399999999999999</v>
+        <v>3.699999999999998</v>
       </c>
       <c r="AM36" t="n">
         <v>33</v>
@@ -20069,7 +20069,7 @@
         <v>60.9</v>
       </c>
       <c r="AU36" t="n">
-        <v>32</v>
+        <v>27.5</v>
       </c>
       <c r="AV36" t="n">
         <v>523.4</v>
@@ -20105,7 +20105,7 @@
         <v>150.5</v>
       </c>
       <c r="BG36" t="n">
-        <v>21.7</v>
+        <v>20.1</v>
       </c>
       <c r="BH36" t="n">
         <v>50.3</v>
@@ -20114,7 +20114,7 @@
         <v>446.7</v>
       </c>
       <c r="BJ36" t="n">
-        <v>438.7</v>
+        <v>359.8</v>
       </c>
       <c r="BK36" t="n">
         <v>1300.5</v>
@@ -20132,7 +20132,7 @@
         <v>17.8</v>
       </c>
       <c r="BP36" t="n">
-        <v>181.6</v>
+        <v>146.7</v>
       </c>
       <c r="BQ36" t="n">
         <v>824.8</v>
@@ -20141,7 +20141,7 @@
         <v>97.59999999999999</v>
       </c>
       <c r="BS36" t="n">
-        <v>51.40000000000001</v>
+        <v>44.00000000000001</v>
       </c>
       <c r="BT36" t="n">
         <v>224.4</v>
@@ -20195,7 +20195,7 @@
         <v>-468.7</v>
       </c>
       <c r="CK36" t="n">
-        <v>238</v>
+        <v>207.5</v>
       </c>
       <c r="CL36" t="n">
         <v>409.1</v>
@@ -20240,7 +20240,7 @@
         <v>132</v>
       </c>
       <c r="CZ36" t="n">
-        <v>54.80000000000001</v>
+        <v>47.80000000000001</v>
       </c>
       <c r="DA36" t="n">
         <v>235.4</v>
@@ -20267,7 +20267,7 @@
         <v>78.40000000000001</v>
       </c>
       <c r="DI36" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="DJ36" t="n">
         <v>4.7</v>
@@ -20276,7 +20276,7 @@
         <v>327.3</v>
       </c>
       <c r="DL36" t="n">
-        <v>53.09999999999999</v>
+        <v>49.99999999999999</v>
       </c>
       <c r="DM36" t="n">
         <v>352.3</v>
@@ -20321,7 +20321,7 @@
         <v>47.6</v>
       </c>
       <c r="EA36" t="n">
-        <v>74.30000000000001</v>
+        <v>30.00000000000003</v>
       </c>
       <c r="EB36" t="n">
         <v>860.7</v>
@@ -20330,7 +20330,7 @@
         <v>433.9</v>
       </c>
       <c r="ED36" t="n">
-        <v>41.59999999999999</v>
+        <v>28.29999999999999</v>
       </c>
       <c r="EE36" t="n">
         <v>155.2</v>
@@ -20490,7 +20490,7 @@
         <v>81.5</v>
       </c>
       <c r="E37" t="n">
-        <v>73.69999999999999</v>
+        <v>51.29999999999998</v>
       </c>
       <c r="F37" t="n">
         <v>208.4</v>
@@ -20517,7 +20517,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>136.6</v>
+        <v>115.8</v>
       </c>
       <c r="O37" t="n">
         <v>588.1</v>
@@ -20535,7 +20535,7 @@
         <v>117.9</v>
       </c>
       <c r="T37" t="n">
-        <v>83.79999999999995</v>
+        <v>33.09999999999994</v>
       </c>
       <c r="U37" t="n">
         <v>2446</v>
@@ -20562,7 +20562,7 @@
         <v>81.8</v>
       </c>
       <c r="AC37" t="n">
-        <v>34.40000000000001</v>
+        <v>29.40000000000003</v>
       </c>
       <c r="AD37" t="n">
         <v>100.7</v>
@@ -20580,7 +20580,7 @@
         <v>55.7</v>
       </c>
       <c r="AI37" t="n">
-        <v>1225.9</v>
+        <v>44.80000000000018</v>
       </c>
       <c r="AJ37" t="n">
         <v>25417.3</v>
@@ -20598,7 +20598,7 @@
         <v>77.2</v>
       </c>
       <c r="AO37" t="n">
-        <v>2.399999999999999</v>
+        <v>0.4999999999999971</v>
       </c>
       <c r="AP37" t="n">
         <v>-7.3</v>
@@ -20614,7 +20614,7 @@
         <v>46.3</v>
       </c>
       <c r="AU37" t="n">
-        <v>45.39999999999999</v>
+        <v>13.39999999999999</v>
       </c>
       <c r="AV37" t="n">
         <v>789.2</v>
@@ -20632,7 +20632,7 @@
         <v>105.8</v>
       </c>
       <c r="BA37" t="n">
-        <v>26.90000000000001</v>
+        <v>21.50000000000002</v>
       </c>
       <c r="BB37" t="n">
         <v>88.7</v>
@@ -20641,7 +20641,7 @@
         <v>15</v>
       </c>
       <c r="BD37" t="n">
-        <v>36.30000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="BE37" t="n">
         <v>542</v>
@@ -20695,7 +20695,7 @@
         <v>55.4</v>
       </c>
       <c r="BV37" t="n">
-        <v>108.1999999999999</v>
+        <v>60.9999999999998</v>
       </c>
       <c r="BW37" t="n">
         <v>1730.4</v>
@@ -20704,7 +20704,7 @@
         <v>46.6</v>
       </c>
       <c r="BY37" t="n">
-        <v>87.10000000000014</v>
+        <v>41.10000000000024</v>
       </c>
       <c r="BZ37" t="n">
         <v>1351.5</v>
@@ -20722,7 +20722,7 @@
         <v>90.8</v>
       </c>
       <c r="CE37" t="n">
-        <v>34.10000000000001</v>
+        <v>33.40000000000001</v>
       </c>
       <c r="CF37" t="n">
         <v>151.5</v>
@@ -20731,7 +20731,7 @@
         <v>22.5</v>
       </c>
       <c r="CH37" t="n">
-        <v>570.8</v>
+        <v>1027.3</v>
       </c>
       <c r="CI37" t="n">
         <v>1191.7</v>
@@ -20810,7 +20810,7 @@
         <v>104</v>
       </c>
       <c r="DI37" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="DJ37" t="n">
         <v>11.5</v>
@@ -20828,7 +20828,7 @@
         <v>82.5</v>
       </c>
       <c r="DO37" t="n">
-        <v>49.5</v>
+        <v>42.30000000000001</v>
       </c>
       <c r="DP37" t="n">
         <v>133.9</v>
@@ -20855,7 +20855,7 @@
         <v>36.9</v>
       </c>
       <c r="DX37" t="n">
-        <v>143.6</v>
+        <v>103.9</v>
       </c>
       <c r="DY37" t="n">
         <v>511.7</v>
@@ -21024,7 +21024,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>263.9000000000001</v>
+        <v>210.2000000000002</v>
       </c>
       <c r="C38" t="n">
         <v>1270.4</v>
@@ -21042,7 +21042,7 @@
         <v>37.9</v>
       </c>
       <c r="H38" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="I38" t="n">
         <v>37.8</v>
@@ -21078,7 +21078,7 @@
         <v>87.7</v>
       </c>
       <c r="T38" t="n">
-        <v>339.5</v>
+        <v>255.7</v>
       </c>
       <c r="U38" t="n">
         <v>3167.9</v>
@@ -21087,7 +21087,7 @@
         <v>219.7</v>
       </c>
       <c r="W38" t="n">
-        <v>27.89999999999999</v>
+        <v>23.69999999999999</v>
       </c>
       <c r="X38" t="n">
         <v>271.1</v>
@@ -21114,7 +21114,7 @@
         <v>19.1</v>
       </c>
       <c r="AF38" t="n">
-        <v>8.499999999999996</v>
+        <v>2.899999999999995</v>
       </c>
       <c r="AG38" t="n">
         <v>132.5</v>
@@ -21141,14 +21141,14 @@
         <v>91</v>
       </c>
       <c r="AO38" t="n">
-        <v>4.9</v>
+        <v>2.500000000000001</v>
       </c>
       <c r="AP38" t="n">
         <v>-3.4</v>
       </c>
       <c r="AQ38" t="inlineStr"/>
       <c r="AR38" t="n">
-        <v>43.59999999999999</v>
+        <v>32.59999999999999</v>
       </c>
       <c r="AS38" t="n">
         <v>221.8</v>
@@ -21184,7 +21184,7 @@
         <v>17.9</v>
       </c>
       <c r="BD38" t="n">
-        <v>168.9</v>
+        <v>132.6</v>
       </c>
       <c r="BE38" t="n">
         <v>679.4</v>
@@ -21193,7 +21193,7 @@
         <v>48.7</v>
       </c>
       <c r="BG38" t="n">
-        <v>34.8</v>
+        <v>26.7</v>
       </c>
       <c r="BH38" t="n">
         <v>125</v>
@@ -21202,7 +21202,7 @@
         <v>74.8</v>
       </c>
       <c r="BJ38" t="n">
-        <v>600.4000000000001</v>
+        <v>463.1000000000001</v>
       </c>
       <c r="BK38" t="n">
         <v>2437.4</v>
@@ -21229,7 +21229,7 @@
         <v>110.4</v>
       </c>
       <c r="BS38" t="n">
-        <v>60.80000000000001</v>
+        <v>47.50000000000003</v>
       </c>
       <c r="BT38" t="n">
         <v>361.6</v>
@@ -21256,7 +21256,7 @@
         <v>25</v>
       </c>
       <c r="CB38" t="n">
-        <v>388</v>
+        <v>327.0000000000001</v>
       </c>
       <c r="CC38" t="n">
         <v>1532.6</v>
@@ -21290,7 +21290,7 @@
         <v>267.2</v>
       </c>
       <c r="CN38" t="n">
-        <v>90.40000000000003</v>
+        <v>69.70000000000002</v>
       </c>
       <c r="CO38" t="n">
         <v>329.6</v>
@@ -21308,7 +21308,7 @@
         <v>27.7</v>
       </c>
       <c r="CT38" t="n">
-        <v>643.8000000000002</v>
+        <v>446.1000000000003</v>
       </c>
       <c r="CU38" t="n">
         <v>2474.8</v>
@@ -21317,7 +21317,7 @@
         <v>51.7</v>
       </c>
       <c r="CW38" t="n">
-        <v>273.5999999999999</v>
+        <v>254.9999999999999</v>
       </c>
       <c r="CX38" t="n">
         <v>1185.4</v>
@@ -21335,7 +21335,7 @@
         <v>89.90000000000001</v>
       </c>
       <c r="DC38" t="n">
-        <v>146.3000000000001</v>
+        <v>11.3000000000001</v>
       </c>
       <c r="DD38" t="n">
         <v>1133.6</v>
@@ -21362,7 +21362,7 @@
         <v>82.3</v>
       </c>
       <c r="DL38" t="n">
-        <v>126.6</v>
+        <v>114.9</v>
       </c>
       <c r="DM38" t="n">
         <v>727.9</v>
@@ -21380,7 +21380,7 @@
         <v>14</v>
       </c>
       <c r="DR38" t="n">
-        <v>408</v>
+        <v>350.7</v>
       </c>
       <c r="DS38" t="n">
         <v>1852.2</v>
@@ -21389,7 +21389,7 @@
         <v>31.2</v>
       </c>
       <c r="DU38" t="n">
-        <v>25.99999999999999</v>
+        <v>24.19999999999998</v>
       </c>
       <c r="DV38" t="n">
         <v>142.4</v>
@@ -21407,7 +21407,7 @@
         <v>14.7</v>
       </c>
       <c r="EA38" t="n">
-        <v>130.3</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="EB38" t="n">
         <v>2278.8</v>
@@ -21576,7 +21576,7 @@
         <v>32.2</v>
       </c>
       <c r="E39" t="n">
-        <v>75.80000000000001</v>
+        <v>61.5</v>
       </c>
       <c r="F39" t="n">
         <v>375.5</v>
@@ -21603,7 +21603,7 @@
         <v>-25</v>
       </c>
       <c r="N39" t="n">
-        <v>9.699999999999989</v>
+        <v>2.799999999999983</v>
       </c>
       <c r="O39" t="n">
         <v>823</v>
@@ -21612,7 +21612,7 @@
         <v>4.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>4951.399999999998</v>
+        <v>4752.399999999997</v>
       </c>
       <c r="R39" t="n">
         <v>34910.5</v>
@@ -21639,7 +21639,7 @@
         <v>434.9</v>
       </c>
       <c r="Z39" t="n">
-        <v>276.5</v>
+        <v>265.0000000000002</v>
       </c>
       <c r="AA39" t="n">
         <v>2987</v>
@@ -21657,7 +21657,7 @@
         <v>12.1</v>
       </c>
       <c r="AF39" t="n">
-        <v>35.40000000000001</v>
+        <v>26.90000000000002</v>
       </c>
       <c r="AG39" t="n">
         <v>166.8</v>
@@ -21666,7 +21666,7 @@
         <v>30.2</v>
       </c>
       <c r="AI39" t="n">
-        <v>5864.599999999999</v>
+        <v>5481.299999999998</v>
       </c>
       <c r="AJ39" t="n">
         <v>41378</v>
@@ -21675,7 +21675,7 @@
         <v>69.59999999999999</v>
       </c>
       <c r="AL39" t="n">
-        <v>4.100000000000009</v>
+        <v>0.5000000000000084</v>
       </c>
       <c r="AM39" t="n">
         <v>76.90000000000001</v>
@@ -21709,7 +21709,7 @@
         <v>313</v>
       </c>
       <c r="AX39" t="n">
-        <v>30.80000000000001</v>
+        <v>28.10000000000002</v>
       </c>
       <c r="AY39" t="n">
         <v>236.5</v>
@@ -21754,7 +21754,7 @@
         <v>43.3</v>
       </c>
       <c r="BM39" t="n">
-        <v>31.8000000000001</v>
+        <v>26.40000000000009</v>
       </c>
       <c r="BN39" t="n">
         <v>995.8</v>
@@ -21763,7 +21763,7 @@
         <v>13.3</v>
       </c>
       <c r="BP39" t="n">
-        <v>168.3000000000001</v>
+        <v>143.2000000000002</v>
       </c>
       <c r="BQ39" t="n">
         <v>2108.2</v>
@@ -21808,7 +21808,7 @@
         <v>38.1</v>
       </c>
       <c r="CE39" t="n">
-        <v>29.50000000000006</v>
+        <v>17.20000000000009</v>
       </c>
       <c r="CF39" t="n">
         <v>235.2</v>
@@ -21817,14 +21817,14 @@
         <v>15.2</v>
       </c>
       <c r="CH39" t="n">
-        <v>96.3</v>
+        <v>15</v>
       </c>
       <c r="CI39" t="n">
         <v>1813.5</v>
       </c>
       <c r="CJ39" t="inlineStr"/>
       <c r="CK39" t="n">
-        <v>22.5</v>
+        <v>3.800000000000011</v>
       </c>
       <c r="CL39" t="n">
         <v>959.9</v>
@@ -21842,7 +21842,7 @@
         <v>2.9</v>
       </c>
       <c r="CQ39" t="n">
-        <v>6</v>
+        <v>3.000000000000014</v>
       </c>
       <c r="CR39" t="n">
         <v>260.5</v>
@@ -21878,7 +21878,7 @@
         <v>83.59999999999999</v>
       </c>
       <c r="DC39" t="n">
-        <v>164.8999999999999</v>
+        <v>18.5999999999998</v>
       </c>
       <c r="DD39" t="n">
         <v>1428.6</v>
@@ -21887,7 +21887,7 @@
         <v>29.6</v>
       </c>
       <c r="DF39" t="n">
-        <v>329</v>
+        <v>206.4999999999998</v>
       </c>
       <c r="DG39" t="n">
         <v>3893.7</v>
@@ -21914,7 +21914,7 @@
         <v>54.1</v>
       </c>
       <c r="DO39" t="n">
-        <v>46.09999999999999</v>
+        <v>21.59999999999999</v>
       </c>
       <c r="DP39" t="n">
         <v>257.8</v>
@@ -21941,7 +21941,7 @@
         <v>30.6</v>
       </c>
       <c r="DX39" t="n">
-        <v>129.9</v>
+        <v>123.0999999999999</v>
       </c>
       <c r="DY39" t="n">
         <v>763.4</v>
@@ -21950,7 +21950,7 @@
         <v>8.6</v>
       </c>
       <c r="EA39" t="n">
-        <v>256.8999999999999</v>
+        <v>126.5999999999999</v>
       </c>
       <c r="EB39" t="n">
         <v>2679.9</v>
@@ -21959,7 +21959,7 @@
         <v>249.1</v>
       </c>
       <c r="ED39" t="n">
-        <v>20.1</v>
+        <v>1.999999999999982</v>
       </c>
       <c r="EE39" t="n">
         <v>411.9</v>
@@ -22164,7 +22164,7 @@
         <v>58.3</v>
       </c>
       <c r="T40" t="n">
-        <v>34.40000000000009</v>
+        <v>29.2000000000001</v>
       </c>
       <c r="U40" t="n">
         <v>4503.8</v>
@@ -22191,7 +22191,7 @@
         <v>93.40000000000001</v>
       </c>
       <c r="AC40" t="n">
-        <v>34.5</v>
+        <v>30.69999999999998</v>
       </c>
       <c r="AD40" t="n">
         <v>195.2</v>
@@ -22218,7 +22218,7 @@
         <v>59.5</v>
       </c>
       <c r="AL40" t="n">
-        <v>12.89999999999999</v>
+        <v>8.799999999999979</v>
       </c>
       <c r="AM40" t="n">
         <v>91.40000000000001</v>
@@ -22227,14 +22227,14 @@
         <v>36.6</v>
       </c>
       <c r="AO40" t="n">
-        <v>9.199999999999999</v>
+        <v>16.8</v>
       </c>
       <c r="AP40" t="n">
         <v>2.6</v>
       </c>
       <c r="AQ40" t="inlineStr"/>
       <c r="AR40" t="n">
-        <v>6.199999999999989</v>
+        <v>3.499999999999964</v>
       </c>
       <c r="AS40" t="n">
         <v>329</v>
@@ -22243,7 +22243,7 @@
         <v>25.9</v>
       </c>
       <c r="AU40" t="n">
-        <v>146.6</v>
+        <v>109.3</v>
       </c>
       <c r="AV40" t="n">
         <v>1544.1</v>
@@ -22288,7 +22288,7 @@
         <v>41.2</v>
       </c>
       <c r="BJ40" t="n">
-        <v>559.2999999999997</v>
+        <v>458.2999999999997</v>
       </c>
       <c r="BK40" t="n">
         <v>3159.2</v>
@@ -22297,7 +22297,7 @@
         <v>18.2</v>
       </c>
       <c r="BM40" t="n">
-        <v>104</v>
+        <v>72.1999999999999</v>
       </c>
       <c r="BN40" t="n">
         <v>1116.4</v>
@@ -22351,7 +22351,7 @@
         <v>31.9</v>
       </c>
       <c r="CE40" t="n">
-        <v>45.69999999999999</v>
+        <v>16.19999999999993</v>
       </c>
       <c r="CF40" t="n">
         <v>278.1</v>
@@ -22385,7 +22385,7 @@
         <v>5.7</v>
       </c>
       <c r="CQ40" t="n">
-        <v>56.60000000000002</v>
+        <v>50.60000000000002</v>
       </c>
       <c r="CR40" t="n">
         <v>316.8</v>
@@ -22439,7 +22439,7 @@
         <v>151</v>
       </c>
       <c r="DI40" t="n">
-        <v>6.5</v>
+        <v>6.000000000000002</v>
       </c>
       <c r="DJ40" t="n">
         <v>34.7</v>
@@ -22448,7 +22448,7 @@
         <v>20.1</v>
       </c>
       <c r="DL40" t="n">
-        <v>133.8</v>
+        <v>103.0999999999999</v>
       </c>
       <c r="DM40" t="n">
         <v>1051.3</v>
@@ -22475,7 +22475,7 @@
         <v>21.6</v>
       </c>
       <c r="DU40" t="n">
-        <v>31.70000000000002</v>
+        <v>24.3</v>
       </c>
       <c r="DV40" t="n">
         <v>211.4</v>
@@ -22502,7 +22502,7 @@
         <v>189.9</v>
       </c>
       <c r="ED40" t="n">
-        <v>46.29999999999998</v>
+        <v>26.19999999999998</v>
       </c>
       <c r="EE40" t="n">
         <v>596.9</v>
@@ -22671,7 +22671,7 @@
         <v>17.8</v>
       </c>
       <c r="H41" t="n">
-        <v>8.100000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="I41" t="n">
         <v>64.59999999999999</v>
@@ -22680,7 +22680,7 @@
         <v>17.9</v>
       </c>
       <c r="K41" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L41" t="n">
         <v>0.3</v>
@@ -22689,7 +22689,7 @@
         <v>-25</v>
       </c>
       <c r="N41" t="n">
-        <v>155</v>
+        <v>153.1000000000001</v>
       </c>
       <c r="O41" t="n">
         <v>1045</v>
@@ -22698,7 +22698,7 @@
         <v>-4.6</v>
       </c>
       <c r="Q41" t="n">
-        <v>254.6000000000022</v>
+        <v>201.2999999999993</v>
       </c>
       <c r="R41" t="n">
         <v>45763.9</v>
@@ -22707,7 +22707,7 @@
         <v>49.7</v>
       </c>
       <c r="T41" t="n">
-        <v>61.49999999999983</v>
+        <v>27.09999999999974</v>
       </c>
       <c r="U41" t="n">
         <v>5158.4</v>
@@ -22725,7 +22725,7 @@
         <v>408.9</v>
       </c>
       <c r="Z41" t="n">
-        <v>50.80000000000018</v>
+        <v>39.30000000000018</v>
       </c>
       <c r="AA41" t="n">
         <v>4070.1</v>
@@ -22795,7 +22795,7 @@
         <v>187.2</v>
       </c>
       <c r="AX41" t="n">
-        <v>8.100000000000023</v>
+        <v>2.000000000000057</v>
       </c>
       <c r="AY41" t="n">
         <v>334.9</v>
@@ -22813,7 +22813,7 @@
         <v>12.5</v>
       </c>
       <c r="BD41" t="n">
-        <v>150.3</v>
+        <v>142.7999999999999</v>
       </c>
       <c r="BE41" t="n">
         <v>1031.1</v>
@@ -22822,7 +22822,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="BG41" t="n">
-        <v>40.09999999999999</v>
+        <v>29.89999999999996</v>
       </c>
       <c r="BH41" t="n">
         <v>264.5</v>
@@ -22849,7 +22849,7 @@
         <v>7.6</v>
       </c>
       <c r="BP41" t="n">
-        <v>166.8999999999999</v>
+        <v>123.7</v>
       </c>
       <c r="BQ41" t="n">
         <v>3358.1</v>
@@ -22867,7 +22867,7 @@
         <v>37.8</v>
       </c>
       <c r="BV41" t="n">
-        <v>516.0999999999999</v>
+        <v>487.8000000000002</v>
       </c>
       <c r="BW41" t="n">
         <v>3153.6</v>
@@ -22876,7 +22876,7 @@
         <v>-6.4</v>
       </c>
       <c r="BY41" t="n">
-        <v>413.5999999999999</v>
+        <v>392.6000000000001</v>
       </c>
       <c r="BZ41" t="n">
         <v>2313.1</v>
@@ -22885,7 +22885,7 @@
         <v>-15.6</v>
       </c>
       <c r="CB41" t="n">
-        <v>101.7999999999999</v>
+        <v>51.49999999999989</v>
       </c>
       <c r="CC41" t="n">
         <v>2638.4</v>
@@ -22903,7 +22903,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="CH41" t="n">
-        <v>156.3</v>
+        <v>94.80000000000001</v>
       </c>
       <c r="CI41" t="n">
         <v>2313.2</v>
@@ -22912,7 +22912,7 @@
         <v>2051.8</v>
       </c>
       <c r="CK41" t="n">
-        <v>39.30000000000001</v>
+        <v>20.59999999999997</v>
       </c>
       <c r="CL41" t="n">
         <v>1381.4</v>
@@ -22921,7 +22921,7 @@
         <v>320.8</v>
       </c>
       <c r="CN41" t="n">
-        <v>91.10000000000002</v>
+        <v>75.70000000000005</v>
       </c>
       <c r="CO41" t="n">
         <v>600.2</v>
@@ -22939,7 +22939,7 @@
         <v>9.6</v>
       </c>
       <c r="CT41" t="n">
-        <v>510</v>
+        <v>477.5999999999999</v>
       </c>
       <c r="CU41" t="n">
         <v>4484</v>
@@ -22957,7 +22957,7 @@
         <v>22</v>
       </c>
       <c r="CZ41" t="n">
-        <v>21.39999999999998</v>
+        <v>16.59999999999994</v>
       </c>
       <c r="DA41" t="n">
         <v>542.2</v>
@@ -22966,7 +22966,7 @@
         <v>49</v>
       </c>
       <c r="DC41" t="n">
-        <v>37.89999999999989</v>
+        <v>31.69999999999968</v>
       </c>
       <c r="DD41" t="n">
         <v>1804.9</v>
@@ -22975,7 +22975,7 @@
         <v>25.5</v>
       </c>
       <c r="DF41" t="n">
-        <v>330.5999999999999</v>
+        <v>271.5</v>
       </c>
       <c r="DG41" t="n">
         <v>6018.2</v>
@@ -23011,7 +23011,7 @@
         <v>6.3</v>
       </c>
       <c r="DR41" t="n">
-        <v>16.00000000000051</v>
+        <v>14.90000000000111</v>
       </c>
       <c r="DS41" t="n">
         <v>3163.7</v>
@@ -23029,7 +23029,7 @@
         <v>27.8</v>
       </c>
       <c r="DX41" t="n">
-        <v>18.59999999999999</v>
+        <v>9.699999999999985</v>
       </c>
       <c r="DY41" t="n">
         <v>972.3</v>
@@ -23198,7 +23198,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>196.2</v>
+        <v>183.6</v>
       </c>
       <c r="C42" t="n">
         <v>2042.4</v>
@@ -23207,7 +23207,7 @@
         <v>18.9</v>
       </c>
       <c r="E42" t="n">
-        <v>73.30000000000007</v>
+        <v>56.20000000000005</v>
       </c>
       <c r="F42" t="n">
         <v>614.7</v>
@@ -23252,7 +23252,7 @@
         <v>44.6</v>
       </c>
       <c r="T42" t="n">
-        <v>63.59999999999991</v>
+        <v>2.10000000000008</v>
       </c>
       <c r="U42" t="n">
         <v>5807.3</v>
@@ -23261,7 +23261,7 @@
         <v>132.8</v>
       </c>
       <c r="W42" t="n">
-        <v>13.99999999999997</v>
+        <v>11.69999999999996</v>
       </c>
       <c r="X42" t="n">
         <v>461.6</v>
@@ -23270,7 +23270,7 @@
         <v>362.1</v>
       </c>
       <c r="Z42" t="n">
-        <v>282.9000000000001</v>
+        <v>232.0999999999999</v>
       </c>
       <c r="AA42" t="n">
         <v>4508.6</v>
@@ -23279,7 +23279,7 @@
         <v>82.2</v>
       </c>
       <c r="AC42" t="n">
-        <v>39.20000000000005</v>
+        <v>29.80000000000008</v>
       </c>
       <c r="AD42" t="n">
         <v>258.8</v>
@@ -23297,7 +23297,7 @@
         <v>22</v>
       </c>
       <c r="AI42" t="n">
-        <v>241.2999999999956</v>
+        <v>140.5999999999985</v>
       </c>
       <c r="AJ42" t="n">
         <v>62237.6</v>
@@ -23306,7 +23306,7 @@
         <v>46.9</v>
       </c>
       <c r="AL42" t="n">
-        <v>5.600000000000009</v>
+        <v>3.699999999999998</v>
       </c>
       <c r="AM42" t="n">
         <v>121.4</v>
@@ -23322,7 +23322,7 @@
       </c>
       <c r="AQ42" t="inlineStr"/>
       <c r="AR42" t="n">
-        <v>5.400000000000027</v>
+        <v>2.300000000000054</v>
       </c>
       <c r="AS42" t="n">
         <v>445.4</v>
@@ -23331,7 +23331,7 @@
         <v>20.6</v>
       </c>
       <c r="AU42" t="n">
-        <v>132</v>
+        <v>122.1</v>
       </c>
       <c r="AV42" t="n">
         <v>2138.3</v>
@@ -23340,7 +23340,7 @@
         <v>173.4</v>
       </c>
       <c r="AX42" t="n">
-        <v>39.80000000000001</v>
+        <v>31.69999999999999</v>
       </c>
       <c r="AY42" t="n">
         <v>383.8</v>
@@ -23349,7 +23349,7 @@
         <v>56.2</v>
       </c>
       <c r="BA42" t="n">
-        <v>6.699999999999992</v>
+        <v>0.7000000000000206</v>
       </c>
       <c r="BB42" t="n">
         <v>225.7</v>
@@ -23385,7 +23385,7 @@
         <v>-0.1</v>
       </c>
       <c r="BM42" t="n">
-        <v>84</v>
+        <v>61.8000000000002</v>
       </c>
       <c r="BN42" t="n">
         <v>1311.6</v>
@@ -23403,7 +23403,7 @@
         <v>173.9</v>
       </c>
       <c r="BS42" t="n">
-        <v>49.29999999999995</v>
+        <v>37.59999999999996</v>
       </c>
       <c r="BT42" t="n">
         <v>635.3</v>
@@ -23430,7 +23430,7 @@
         <v>-25.6</v>
       </c>
       <c r="CB42" t="n">
-        <v>373.7000000000003</v>
+        <v>271.9000000000004</v>
       </c>
       <c r="CC42" t="n">
         <v>3028</v>
@@ -23511,7 +23511,7 @@
         <v>34.8</v>
       </c>
       <c r="DC42" t="n">
-        <v>119.7</v>
+        <v>81.80000000000011</v>
       </c>
       <c r="DD42" t="n">
         <v>2006.5</v>
@@ -23529,7 +23529,7 @@
         <v>167.9</v>
       </c>
       <c r="DI42" t="n">
-        <v>4.599999999999996</v>
+        <v>4.299999999999992</v>
       </c>
       <c r="DJ42" t="n">
         <v>46.4</v>
@@ -23538,7 +23538,7 @@
         <v>10</v>
       </c>
       <c r="DL42" t="n">
-        <v>23.79999999999981</v>
+        <v>2.79999999999972</v>
       </c>
       <c r="DM42" t="n">
         <v>1395.2</v>
@@ -23547,7 +23547,7 @@
         <v>37.9</v>
       </c>
       <c r="DO42" t="n">
-        <v>50.69999999999999</v>
+        <v>16.19999999999993</v>
       </c>
       <c r="DP42" t="n">
         <v>412.4</v>
@@ -23556,7 +23556,7 @@
         <v>5.3</v>
       </c>
       <c r="DR42" t="n">
-        <v>68.80000000000018</v>
+        <v>52.79999999999967</v>
       </c>
       <c r="DS42" t="n">
         <v>3631.8</v>
@@ -23592,7 +23592,7 @@
         <v>158.8</v>
       </c>
       <c r="ED42" t="n">
-        <v>50.10000000000002</v>
+        <v>44.10000000000002</v>
       </c>
       <c r="EE42" t="n">
         <v>761.7</v>
@@ -23788,7 +23788,7 @@
         <v>-10.8</v>
       </c>
       <c r="Q43" t="n">
-        <v>893.5</v>
+        <v>724.7000000000035</v>
       </c>
       <c r="R43" t="n">
         <v>58041.2</v>
@@ -23797,7 +23797,7 @@
         <v>40.7</v>
       </c>
       <c r="T43" t="n">
-        <v>73.10000000000036</v>
+        <v>9.500000000000455</v>
       </c>
       <c r="U43" t="n">
         <v>6641.4</v>
@@ -23833,7 +23833,7 @@
         <v>-3.6</v>
       </c>
       <c r="AF43" t="n">
-        <v>13.90000000000001</v>
+        <v>9.700000000000014</v>
       </c>
       <c r="AG43" t="n">
         <v>324.5</v>
@@ -23842,7 +23842,7 @@
         <v>16.9</v>
       </c>
       <c r="AI43" t="n">
-        <v>887.0000000000073</v>
+        <v>645.7000000000116</v>
       </c>
       <c r="AJ43" t="n">
         <v>70389.8</v>
@@ -23867,7 +23867,7 @@
       </c>
       <c r="AQ43" t="inlineStr"/>
       <c r="AR43" t="n">
-        <v>19</v>
+        <v>13.59999999999997</v>
       </c>
       <c r="AS43" t="n">
         <v>514.9</v>
@@ -23912,7 +23912,7 @@
         <v>-0.9</v>
       </c>
       <c r="BG43" t="n">
-        <v>43.39999999999998</v>
+        <v>36.89999999999998</v>
       </c>
       <c r="BH43" t="n">
         <v>334.3</v>
@@ -23921,7 +23921,7 @@
         <v>12.9</v>
       </c>
       <c r="BJ43" t="n">
-        <v>554.2999999999993</v>
+        <v>451.1999999999989</v>
       </c>
       <c r="BK43" t="n">
         <v>4143.3</v>
@@ -23957,7 +23957,7 @@
         <v>28.6</v>
       </c>
       <c r="BV43" t="n">
-        <v>526.5</v>
+        <v>513.6000000000004</v>
       </c>
       <c r="BW43" t="n">
         <v>3513</v>
@@ -23966,7 +23966,7 @@
         <v>-20.4</v>
       </c>
       <c r="BY43" t="n">
-        <v>406.8000000000002</v>
+        <v>387.2000000000003</v>
       </c>
       <c r="BZ43" t="n">
         <v>2497</v>
@@ -23984,7 +23984,7 @@
         <v>15.9</v>
       </c>
       <c r="CE43" t="n">
-        <v>2.400000000000105</v>
+        <v>0.9000000000001691</v>
       </c>
       <c r="CF43" t="n">
         <v>435.5</v>
@@ -23993,7 +23993,7 @@
         <v>2.7</v>
       </c>
       <c r="CH43" t="n">
-        <v>41.5</v>
+        <v>33.70000000000002</v>
       </c>
       <c r="CI43" t="n">
         <v>2784.2</v>
@@ -24002,7 +24002,7 @@
         <v>550.7</v>
       </c>
       <c r="CK43" t="n">
-        <v>366.3</v>
+        <v>359.4</v>
       </c>
       <c r="CL43" t="n">
         <v>1723.8</v>
@@ -24020,7 +24020,7 @@
         <v>3.2</v>
       </c>
       <c r="CQ43" t="n">
-        <v>76.90000000000003</v>
+        <v>67.60000000000002</v>
       </c>
       <c r="CR43" t="n">
         <v>513.8</v>
@@ -24029,7 +24029,7 @@
         <v>4.7</v>
       </c>
       <c r="CT43" t="n">
-        <v>195.5000000000005</v>
+        <v>173.7000000000008</v>
       </c>
       <c r="CU43" t="n">
         <v>5899.9</v>
@@ -24038,7 +24038,7 @@
         <v>36.7</v>
       </c>
       <c r="CW43" t="n">
-        <v>65.29999999999973</v>
+        <v>42.29999999999973</v>
       </c>
       <c r="CX43" t="n">
         <v>2430.9</v>
@@ -24047,7 +24047,7 @@
         <v>15</v>
       </c>
       <c r="CZ43" t="n">
-        <v>10.40000000000016</v>
+        <v>0.4000000000002171</v>
       </c>
       <c r="DA43" t="n">
         <v>657.8</v>
@@ -24065,7 +24065,7 @@
         <v>21.7</v>
       </c>
       <c r="DF43" t="n">
-        <v>386.0999999999999</v>
+        <v>326.4999999999995</v>
       </c>
       <c r="DG43" t="n">
         <v>8835.5</v>
@@ -24074,7 +24074,7 @@
         <v>188.7</v>
       </c>
       <c r="DI43" t="n">
-        <v>6.299999999999997</v>
+        <v>1.700000000000001</v>
       </c>
       <c r="DJ43" t="n">
         <v>53.8</v>
@@ -24083,7 +24083,7 @@
         <v>0.4</v>
       </c>
       <c r="DL43" t="n">
-        <v>38.40000000000009</v>
+        <v>14.60000000000028</v>
       </c>
       <c r="DM43" t="n">
         <v>1591.3</v>
@@ -24119,7 +24119,7 @@
         <v>22.5</v>
       </c>
       <c r="DX43" t="n">
-        <v>132.7</v>
+        <v>125.3</v>
       </c>
       <c r="DY43" t="n">
         <v>1243.1</v>
@@ -24288,7 +24288,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>314.6000000000004</v>
+        <v>190.4000000000005</v>
       </c>
       <c r="C44" t="n">
         <v>2465.3</v>
@@ -24297,7 +24297,7 @@
         <v>10.3</v>
       </c>
       <c r="E44" t="n">
-        <v>106.6</v>
+        <v>70.80000000000017</v>
       </c>
       <c r="F44" t="n">
         <v>806.9</v>
@@ -24315,7 +24315,7 @@
         <v>20.8</v>
       </c>
       <c r="K44" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L44" t="n">
         <v>0.5</v>
@@ -24324,7 +24324,7 @@
         <v>-28.6</v>
       </c>
       <c r="N44" t="n">
-        <v>215.5000000000002</v>
+        <v>210.4000000000005</v>
       </c>
       <c r="O44" t="n">
         <v>1491.4</v>
@@ -24333,7 +24333,7 @@
         <v>-7.6</v>
       </c>
       <c r="Q44" t="n">
-        <v>6222.900000000001</v>
+        <v>5329.400000000001</v>
       </c>
       <c r="R44" t="n">
         <v>64837.9</v>
@@ -24342,7 +24342,7 @@
         <v>36.3</v>
       </c>
       <c r="T44" t="n">
-        <v>550.4999999999995</v>
+        <v>477.3999999999992</v>
       </c>
       <c r="U44" t="n">
         <v>7394.1</v>
@@ -24351,7 +24351,7 @@
         <v>106.7</v>
       </c>
       <c r="W44" t="n">
-        <v>26.79999999999998</v>
+        <v>16.79999999999995</v>
       </c>
       <c r="X44" t="n">
         <v>581.9</v>
@@ -24360,7 +24360,7 @@
         <v>243.3</v>
       </c>
       <c r="Z44" t="n">
-        <v>322.7999999999997</v>
+        <v>239.5999999999999</v>
       </c>
       <c r="AA44" t="n">
         <v>5418.8</v>
@@ -24378,7 +24378,7 @@
         <v>-2.9</v>
       </c>
       <c r="AF44" t="n">
-        <v>22.40000000000003</v>
+        <v>8.500000000000021</v>
       </c>
       <c r="AG44" t="n">
         <v>375.3</v>
@@ -24387,7 +24387,7 @@
         <v>12.2</v>
       </c>
       <c r="AI44" t="n">
-        <v>6475.300000000003</v>
+        <v>5588.299999999996</v>
       </c>
       <c r="AJ44" t="n">
         <v>78514.39999999999</v>
@@ -24396,7 +24396,7 @@
         <v>40.3</v>
       </c>
       <c r="AL44" t="n">
-        <v>15.29999999999998</v>
+        <v>10.39999999999998</v>
       </c>
       <c r="AM44" t="n">
         <v>206.5</v>
@@ -24405,14 +24405,14 @@
         <v>47.2</v>
       </c>
       <c r="AO44" t="n">
-        <v>42.90000000000001</v>
+        <v>58.70000000000002</v>
       </c>
       <c r="AP44" t="n">
         <v>-7.9</v>
       </c>
       <c r="AQ44" t="inlineStr"/>
       <c r="AR44" t="n">
-        <v>25.8000000000001</v>
+        <v>6.8000000000001</v>
       </c>
       <c r="AS44" t="n">
         <v>607.9</v>
@@ -24421,7 +24421,7 @@
         <v>19.1</v>
       </c>
       <c r="AU44" t="n">
-        <v>158.7999999999999</v>
+        <v>150.1999999999999</v>
       </c>
       <c r="AV44" t="n">
         <v>2759.6</v>
@@ -24430,7 +24430,7 @@
         <v>161.6</v>
       </c>
       <c r="AX44" t="n">
-        <v>24.59999999999997</v>
+        <v>12.79999999999996</v>
       </c>
       <c r="AY44" t="n">
         <v>491.9</v>
@@ -24439,7 +24439,7 @@
         <v>45.9</v>
       </c>
       <c r="BA44" t="n">
-        <v>18.09999999999997</v>
+        <v>16.59999999999994</v>
       </c>
       <c r="BB44" t="n">
         <v>309.9</v>
@@ -24448,7 +24448,7 @@
         <v>11.3</v>
       </c>
       <c r="BD44" t="n">
-        <v>189.4000000000001</v>
+        <v>172.7000000000001</v>
       </c>
       <c r="BE44" t="n">
         <v>1441.4</v>
@@ -24475,7 +24475,7 @@
         <v>-4.3</v>
       </c>
       <c r="BM44" t="n">
-        <v>1094.8</v>
+        <v>1032.7</v>
       </c>
       <c r="BN44" t="n">
         <v>1452.2</v>
@@ -24484,7 +24484,7 @@
         <v>3.6</v>
       </c>
       <c r="BP44" t="n">
-        <v>11.80000000000018</v>
+        <v>8.700000000000271</v>
       </c>
       <c r="BQ44" t="n">
         <v>6621.2</v>
@@ -24493,7 +24493,7 @@
         <v>224.3</v>
       </c>
       <c r="BS44" t="n">
-        <v>35.89999999999984</v>
+        <v>8.899999999999721</v>
       </c>
       <c r="BT44" t="n">
         <v>734.8</v>
@@ -24520,7 +24520,7 @@
         <v>-40.6</v>
       </c>
       <c r="CB44" t="n">
-        <v>433.6999999999998</v>
+        <v>308.8000000000002</v>
       </c>
       <c r="CC44" t="n">
         <v>3956.2</v>
@@ -24529,7 +24529,7 @@
         <v>14.6</v>
       </c>
       <c r="CE44" t="n">
-        <v>20.5999999999999</v>
+        <v>18.19999999999979</v>
       </c>
       <c r="CF44" t="n">
         <v>483.9</v>
@@ -24538,7 +24538,7 @@
         <v>1.6</v>
       </c>
       <c r="CH44" t="n">
-        <v>197.8</v>
+        <v>156.3</v>
       </c>
       <c r="CI44" t="n">
         <v>2934.4</v>
@@ -24556,7 +24556,7 @@
         <v>406.7</v>
       </c>
       <c r="CN44" t="n">
-        <v>44.70000000000012</v>
+        <v>31.40000000000032</v>
       </c>
       <c r="CO44" t="n">
         <v>949.9</v>
@@ -24574,7 +24574,7 @@
         <v>13.5</v>
       </c>
       <c r="CT44" t="n">
-        <v>711.1000000000004</v>
+        <v>515.5999999999999</v>
       </c>
       <c r="CU44" t="n">
         <v>6626.2</v>
@@ -24583,7 +24583,7 @@
         <v>31.4</v>
       </c>
       <c r="CW44" t="n">
-        <v>313.7000000000003</v>
+        <v>248.4000000000005</v>
       </c>
       <c r="CX44" t="n">
         <v>2742.2</v>
@@ -24592,7 +24592,7 @@
         <v>12</v>
       </c>
       <c r="CZ44" t="n">
-        <v>22.69999999999979</v>
+        <v>12.29999999999963</v>
       </c>
       <c r="DA44" t="n">
         <v>731.5</v>
@@ -24601,7 +24601,7 @@
         <v>14.8</v>
       </c>
       <c r="DC44" t="n">
-        <v>93.90000000000009</v>
+        <v>90.60000000000009</v>
       </c>
       <c r="DD44" t="n">
         <v>2296.2</v>
@@ -24637,7 +24637,7 @@
         <v>34</v>
       </c>
       <c r="DO44" t="n">
-        <v>42.10000000000001</v>
+        <v>30.10000000000001</v>
       </c>
       <c r="DP44" t="n">
         <v>541.7</v>
@@ -24646,7 +24646,7 @@
         <v>7.3</v>
       </c>
       <c r="DR44" t="n">
-        <v>535.5</v>
+        <v>494.6000000000008</v>
       </c>
       <c r="DS44" t="n">
         <v>4918.5</v>
@@ -24655,7 +24655,7 @@
         <v>16.2</v>
       </c>
       <c r="DU44" t="n">
-        <v>36.30000000000001</v>
+        <v>34.10000000000002</v>
       </c>
       <c r="DV44" t="n">
         <v>381.8</v>
@@ -24673,7 +24673,7 @@
         <v>-1.9</v>
       </c>
       <c r="EA44" t="n">
-        <v>236.6999999999998</v>
+        <v>199.7999999999997</v>
       </c>
       <c r="EB44" t="n">
         <v>4255.7</v>
